--- a/results/results_3_tz2_same_end_dates_forecasting_or_imputation.xlsx
+++ b/results/results_3_tz2_same_end_dates_forecasting_or_imputation.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91242429-5965-4828-9EC6-1C00B7DF8BA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA7C0E3-9311-48C3-9981-E5B35158501D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="19200" windowHeight="10200" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="19200" windowHeight="10200" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data dictionary" sheetId="1" r:id="rId1"/>
     <sheet name="m4_m_end032014" sheetId="2" r:id="rId2"/>
-    <sheet name="m4_m_end052015" sheetId="3" r:id="rId3"/>
+    <sheet name="m4_m_end062015" sheetId="3" r:id="rId3"/>
     <sheet name="m4_m_end092007" sheetId="4" r:id="rId4"/>
     <sheet name="m4_q_end2003q3" sheetId="5" r:id="rId5"/>
     <sheet name="m4_q_end2013q1" sheetId="6" r:id="rId6"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="144">
   <si>
     <t>weighted quantile loss (0.9)</t>
   </si>
@@ -2019,7 +2019,7 @@
         <v>50</v>
       </c>
       <c r="O11" s="33">
-        <f>(32*K11*L11)/B11</f>
+        <f t="shared" ref="O11:O20" si="0">(32*K11*L11)/B11</f>
         <v>88.544548976203657</v>
       </c>
     </row>
@@ -2058,7 +2058,7 @@
         <v>50</v>
       </c>
       <c r="O12" s="33">
-        <f>(32*K12*L12)/B12</f>
+        <f t="shared" si="0"/>
         <v>88.544548976203657</v>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
         <v>50</v>
       </c>
       <c r="O13" s="33">
-        <f>(32*K13*L13)/B13</f>
+        <f t="shared" si="0"/>
         <v>88.544548976203657</v>
       </c>
     </row>
@@ -2136,7 +2136,7 @@
         <v>50</v>
       </c>
       <c r="O14" s="33">
-        <f>(32*K14*L14)/B14</f>
+        <f t="shared" si="0"/>
         <v>88.544548976203657</v>
       </c>
     </row>
@@ -2175,7 +2175,7 @@
         <v>50</v>
       </c>
       <c r="O15" s="33">
-        <f>(32*K15*L15)/B15</f>
+        <f t="shared" si="0"/>
         <v>88.544548976203657</v>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
         <v>50</v>
       </c>
       <c r="O16" s="33">
-        <f>(32*K16*L16)/B16</f>
+        <f t="shared" si="0"/>
         <v>88.544548976203657</v>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
         <v>50</v>
       </c>
       <c r="O17" s="33">
-        <f>(32*K17*L17)/B17</f>
+        <f t="shared" si="0"/>
         <v>88.544548976203657</v>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
         <v>50</v>
       </c>
       <c r="O18" s="33">
-        <f>(32*K18*L18)/B18</f>
+        <f t="shared" si="0"/>
         <v>88.544548976203657</v>
       </c>
     </row>
@@ -2331,7 +2331,7 @@
         <v>50</v>
       </c>
       <c r="O19" s="33">
-        <f>(32*K19*L19)/B19</f>
+        <f t="shared" si="0"/>
         <v>88.544548976203657</v>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
         <v>50</v>
       </c>
       <c r="O20" s="33">
-        <f>(32*K20*L20)/B20</f>
+        <f t="shared" si="0"/>
         <v>88.544548976203657</v>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
         <v>100</v>
       </c>
       <c r="O24" s="33">
-        <f>(32*K24*L24)/B24</f>
+        <f t="shared" ref="O24:O32" si="1">(32*K24*L24)/B24</f>
         <v>177.08909795240731</v>
       </c>
     </row>
@@ -2472,7 +2472,7 @@
         <v>100</v>
       </c>
       <c r="O25" s="33">
-        <f>(32*K25*L25)/B25</f>
+        <f t="shared" si="1"/>
         <v>177.08909795240731</v>
       </c>
     </row>
@@ -2511,7 +2511,7 @@
         <v>100</v>
       </c>
       <c r="O26" s="33">
-        <f>(32*K26*L26)/B26</f>
+        <f t="shared" si="1"/>
         <v>177.08909795240731</v>
       </c>
     </row>
@@ -2550,7 +2550,7 @@
         <v>100</v>
       </c>
       <c r="O27" s="33">
-        <f>(32*K27*L27)/B27</f>
+        <f t="shared" si="1"/>
         <v>177.08909795240731</v>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
         <v>100</v>
       </c>
       <c r="O28" s="33">
-        <f>(32*K28*L28)/B28</f>
+        <f t="shared" si="1"/>
         <v>177.08909795240731</v>
       </c>
     </row>
@@ -2628,7 +2628,7 @@
         <v>100</v>
       </c>
       <c r="O29" s="33">
-        <f>(32*K29*L29)/B29</f>
+        <f t="shared" si="1"/>
         <v>177.08909795240731</v>
       </c>
     </row>
@@ -2667,7 +2667,7 @@
         <v>100</v>
       </c>
       <c r="O30" s="33">
-        <f>(32*K30*L30)/B30</f>
+        <f t="shared" si="1"/>
         <v>177.08909795240731</v>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
         <v>100</v>
       </c>
       <c r="O31" s="33">
-        <f>(32*K31*L31)/B31</f>
+        <f t="shared" si="1"/>
         <v>177.08909795240731</v>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
         <v>100</v>
       </c>
       <c r="O32" s="33">
-        <f>(32*K32*L32)/B32</f>
+        <f t="shared" si="1"/>
         <v>177.08909795240731</v>
       </c>
     </row>
@@ -2812,7 +2812,7 @@
         <v>50</v>
       </c>
       <c r="O36" s="33">
-        <f>(32*K36*L36)/B36</f>
+        <f t="shared" ref="O36:O45" si="2">(32*K36*L36)/B36</f>
         <v>100.05534034311013</v>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
         <v>50</v>
       </c>
       <c r="O37" s="33">
-        <f>(32*K37*L37)/B37</f>
+        <f t="shared" si="2"/>
         <v>100.05534034311013</v>
       </c>
     </row>
@@ -2890,7 +2890,7 @@
         <v>50</v>
       </c>
       <c r="O38" s="33">
-        <f>(32*K38*L38)/B38</f>
+        <f t="shared" si="2"/>
         <v>100.05534034311013</v>
       </c>
     </row>
@@ -2929,7 +2929,7 @@
         <v>50</v>
       </c>
       <c r="O39" s="33">
-        <f>(32*K39*L39)/B39</f>
+        <f t="shared" si="2"/>
         <v>100.05534034311013</v>
       </c>
     </row>
@@ -2968,7 +2968,7 @@
         <v>50</v>
       </c>
       <c r="O40" s="33">
-        <f>(32*K40*L40)/B40</f>
+        <f t="shared" si="2"/>
         <v>100.05534034311013</v>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
         <v>50</v>
       </c>
       <c r="O41" s="33">
-        <f>(32*K41*L41)/B41</f>
+        <f t="shared" si="2"/>
         <v>100.05534034311013</v>
       </c>
     </row>
@@ -3046,7 +3046,7 @@
         <v>50</v>
       </c>
       <c r="O42" s="33">
-        <f>(32*K42*L42)/B42</f>
+        <f t="shared" si="2"/>
         <v>100.05534034311013</v>
       </c>
     </row>
@@ -3085,7 +3085,7 @@
         <v>50</v>
       </c>
       <c r="O43" s="33">
-        <f>(32*K43*L43)/B43</f>
+        <f t="shared" si="2"/>
         <v>100.05534034311013</v>
       </c>
     </row>
@@ -3124,7 +3124,7 @@
         <v>50</v>
       </c>
       <c r="O44" s="33">
-        <f>(32*K44*L44)/B44</f>
+        <f t="shared" si="2"/>
         <v>100.05534034311013</v>
       </c>
     </row>
@@ -3163,7 +3163,7 @@
         <v>50</v>
       </c>
       <c r="O45" s="33">
-        <f>(32*K45*L45)/B45</f>
+        <f t="shared" si="2"/>
         <v>100.05534034311013</v>
       </c>
     </row>
@@ -3222,7 +3222,7 @@
         <v>100</v>
       </c>
       <c r="O49" s="33">
-        <f>(32*K49*L49)/B49</f>
+        <f t="shared" ref="O49:O58" si="3">(32*K49*L49)/B49</f>
         <v>354.17819590481463</v>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
         <v>100</v>
       </c>
       <c r="O50" s="33">
-        <f>(32*K50*L50)/B50</f>
+        <f t="shared" si="3"/>
         <v>354.17819590481463</v>
       </c>
     </row>
@@ -3300,7 +3300,7 @@
         <v>100</v>
       </c>
       <c r="O51" s="33">
-        <f>(32*K51*L51)/B51</f>
+        <f t="shared" si="3"/>
         <v>354.17819590481463</v>
       </c>
     </row>
@@ -3339,7 +3339,7 @@
         <v>100</v>
       </c>
       <c r="O52" s="33">
-        <f>(32*K52*L52)/B52</f>
+        <f t="shared" si="3"/>
         <v>354.17819590481463</v>
       </c>
     </row>
@@ -3378,7 +3378,7 @@
         <v>100</v>
       </c>
       <c r="O53" s="33">
-        <f>(32*K53*L53)/B53</f>
+        <f t="shared" si="3"/>
         <v>354.17819590481463</v>
       </c>
     </row>
@@ -3417,7 +3417,7 @@
         <v>100</v>
       </c>
       <c r="O54" s="33">
-        <f>(32*K54*L54)/B54</f>
+        <f t="shared" si="3"/>
         <v>354.17819590481463</v>
       </c>
     </row>
@@ -3456,7 +3456,7 @@
         <v>100</v>
       </c>
       <c r="O55" s="33">
-        <f>(32*K55*L55)/B55</f>
+        <f t="shared" si="3"/>
         <v>354.17819590481463</v>
       </c>
     </row>
@@ -3495,7 +3495,7 @@
         <v>100</v>
       </c>
       <c r="O56" s="33">
-        <f>(32*K56*L56)/B56</f>
+        <f t="shared" si="3"/>
         <v>354.17819590481463</v>
       </c>
     </row>
@@ -3534,7 +3534,7 @@
         <v>100</v>
       </c>
       <c r="O57" s="33">
-        <f>(32*K57*L57)/B57</f>
+        <f t="shared" si="3"/>
         <v>354.17819590481463</v>
       </c>
     </row>
@@ -3573,7 +3573,7 @@
         <v>100</v>
       </c>
       <c r="O58" s="33">
-        <f>(32*K58*L58)/B58</f>
+        <f t="shared" si="3"/>
         <v>354.17819590481463</v>
       </c>
     </row>
@@ -3632,7 +3632,7 @@
         <v>100</v>
       </c>
       <c r="O62" s="33">
-        <f>(32*K62*L62)/B62</f>
+        <f t="shared" ref="O62:O71" si="4">(32*K62*L62)/B62</f>
         <v>885.44548976203657</v>
       </c>
     </row>
@@ -3671,7 +3671,7 @@
         <v>100</v>
       </c>
       <c r="O63" s="33">
-        <f>(32*K63*L63)/B63</f>
+        <f t="shared" si="4"/>
         <v>885.44548976203657</v>
       </c>
     </row>
@@ -3710,7 +3710,7 @@
         <v>100</v>
       </c>
       <c r="O64" s="33">
-        <f>(32*K64*L64)/B64</f>
+        <f t="shared" si="4"/>
         <v>885.44548976203657</v>
       </c>
     </row>
@@ -3749,7 +3749,7 @@
         <v>100</v>
       </c>
       <c r="O65" s="33">
-        <f>(32*K65*L65)/B65</f>
+        <f t="shared" si="4"/>
         <v>885.44548976203657</v>
       </c>
     </row>
@@ -3788,7 +3788,7 @@
         <v>100</v>
       </c>
       <c r="O66" s="33">
-        <f>(32*K66*L66)/B66</f>
+        <f t="shared" si="4"/>
         <v>885.44548976203657</v>
       </c>
     </row>
@@ -3827,7 +3827,7 @@
         <v>100</v>
       </c>
       <c r="O67" s="33">
-        <f>(32*K67*L67)/B67</f>
+        <f t="shared" si="4"/>
         <v>885.44548976203657</v>
       </c>
     </row>
@@ -3866,7 +3866,7 @@
         <v>100</v>
       </c>
       <c r="O68" s="33">
-        <f>(32*K68*L68)/B68</f>
+        <f t="shared" si="4"/>
         <v>885.44548976203657</v>
       </c>
     </row>
@@ -3905,7 +3905,7 @@
         <v>100</v>
       </c>
       <c r="O69" s="33">
-        <f>(32*K69*L69)/B69</f>
+        <f t="shared" si="4"/>
         <v>885.44548976203657</v>
       </c>
     </row>
@@ -3944,7 +3944,7 @@
         <v>100</v>
       </c>
       <c r="O70" s="33">
-        <f>(32*K70*L70)/B70</f>
+        <f t="shared" si="4"/>
         <v>885.44548976203657</v>
       </c>
     </row>
@@ -3983,7 +3983,7 @@
         <v>100</v>
       </c>
       <c r="O71" s="33">
-        <f>(32*K71*L71)/B71</f>
+        <f t="shared" si="4"/>
         <v>885.44548976203657</v>
       </c>
     </row>
@@ -4020,9 +4020,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12018D-2C7C-4540-960E-B821F0EF290F}">
   <dimension ref="A1:O53"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M38" sqref="M38:M47"/>
+      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6425,16 +6425,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34172762-CDEB-4C44-BCC6-CACD78D3A459}">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O64"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.1796875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
@@ -6507,19 +6507,19 @@
       <c r="B12">
         <v>728</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="32">
         <v>1.0180199999999999</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="32">
         <v>4.0308999999999998E-2</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="32">
         <v>17.254294000000002</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="32">
         <v>4.2093999999999999E-2</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="32">
         <v>2.6846999999999999E-2</v>
       </c>
       <c r="J12">
@@ -6542,19 +6542,19 @@
       <c r="B13">
         <v>728</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="32">
         <v>1.0478270000000001</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="32">
         <v>3.9501000000000001E-2</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="32">
         <v>18.146735</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="32">
         <v>4.2737999999999998E-2</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="32">
         <v>3.0037999999999999E-2</v>
       </c>
       <c r="J13">
@@ -6574,19 +6574,19 @@
       <c r="B14">
         <v>728</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="32">
         <v>1.0790200000000001</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="32">
         <v>3.9956999999999999E-2</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="32">
         <v>19.433218</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="32">
         <v>4.2988999999999999E-2</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="32">
         <v>3.1942999999999999E-2</v>
       </c>
       <c r="J14">
@@ -6606,19 +6606,19 @@
       <c r="B15">
         <v>728</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="32">
         <v>1.169611</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="32">
         <v>4.2810000000000001E-2</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="32">
         <v>21.169257999999999</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="32">
         <v>4.3262000000000002E-2</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="32">
         <v>3.0315000000000002E-2</v>
       </c>
       <c r="J15">
@@ -6638,19 +6638,19 @@
       <c r="B16">
         <v>728</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="32">
         <v>1.01613</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="32">
         <v>3.9046999999999998E-2</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="32">
         <v>16.733319999999999</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="32">
         <v>4.1325000000000001E-2</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="32">
         <v>2.7609000000000002E-2</v>
       </c>
       <c r="J16">
@@ -6670,19 +6670,19 @@
       <c r="B17">
         <v>728</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="32">
         <v>1.0860019999999999</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="32">
         <v>4.0737000000000002E-2</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="32">
         <v>19.788954</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="32">
         <v>4.5429999999999998E-2</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="32">
         <v>3.4673000000000002E-2</v>
       </c>
       <c r="J17">
@@ -6702,19 +6702,19 @@
       <c r="B18">
         <v>728</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="32">
         <v>1.088382</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="32">
         <v>4.1963E-2</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="32">
         <v>18.992314</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="32">
         <v>4.3936999999999997E-2</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="32">
         <v>3.0343999999999999E-2</v>
       </c>
       <c r="J18">
@@ -6734,19 +6734,19 @@
       <c r="B19">
         <v>728</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="32">
         <v>1.07745</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="32">
         <v>4.0989999999999999E-2</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="32">
         <v>18.903196999999999</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="32">
         <v>4.3387000000000002E-2</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="32">
         <v>3.1963999999999999E-2</v>
       </c>
       <c r="J19">
@@ -6766,19 +6766,19 @@
       <c r="B20">
         <v>728</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="32">
         <v>1.0405759999999999</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="32">
         <v>3.9100000000000003E-2</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="32">
         <v>17.900333</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="32">
         <v>4.2899E-2</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="32">
         <v>3.2627999999999997E-2</v>
       </c>
       <c r="J20">
@@ -6798,19 +6798,19 @@
       <c r="B21">
         <v>728</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="32">
         <v>1.0939289999999999</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="32">
         <v>4.1835999999999998E-2</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="32">
         <v>16.330770000000001</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="32">
         <v>4.4407000000000002E-2</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="32">
         <v>2.8384E-2</v>
       </c>
       <c r="J21">
@@ -6823,20 +6823,59 @@
         <v>50</v>
       </c>
     </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E22" s="35">
+        <f>AVERAGE(E12:E21)</f>
+        <v>1.0716946999999999</v>
+      </c>
+      <c r="F22" s="35">
+        <f>AVERAGE(F12:F21)</f>
+        <v>4.0625000000000001E-2</v>
+      </c>
+      <c r="G22" s="35">
+        <f>AVERAGE(G12:G21)</f>
+        <v>18.4652393</v>
+      </c>
+      <c r="H22" s="32"/>
+      <c r="I22" s="32"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E23" s="35">
+        <f>MEDIAN(E12:E21)</f>
+        <v>1.0782350000000001</v>
+      </c>
+      <c r="F23" s="35">
+        <f>MEDIAN(F12:F21)</f>
+        <v>4.0523000000000003E-2</v>
+      </c>
+      <c r="G23" s="35">
+        <f>MEDIAN(G12:G21)</f>
+        <v>18.524965999999999</v>
+      </c>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+    </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E25">
+      <c r="E25" s="32">
         <v>1.0416719999999999</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="32">
         <v>3.9890000000000002E-2</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="32">
         <v>17.042413</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="32">
         <v>4.2823E-2</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="32">
         <v>2.9260000000000001E-2</v>
       </c>
       <c r="J25">
@@ -6853,19 +6892,19 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E26">
+      <c r="E26" s="32">
         <v>1.0906439999999999</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="32">
         <v>4.2701000000000003E-2</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="32">
         <v>17.586817</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="32">
         <v>4.5561999999999998E-2</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="32">
         <v>2.9142000000000001E-2</v>
       </c>
       <c r="J26">
@@ -6879,19 +6918,19 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E27">
+      <c r="E27" s="32">
         <v>1.057633</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="32">
         <v>4.0668000000000003E-2</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="32">
         <v>17.015305999999999</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="32">
         <v>4.3289000000000001E-2</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="32">
         <v>2.6594E-2</v>
       </c>
       <c r="J27">
@@ -6905,19 +6944,19 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E28">
+      <c r="E28" s="32">
         <v>1.049123</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="32">
         <v>4.1216999999999997E-2</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="32">
         <v>16.599253000000001</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="32">
         <v>4.4132999999999999E-2</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="32">
         <v>2.6207000000000001E-2</v>
       </c>
       <c r="J28">
@@ -6931,19 +6970,19 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E29">
+      <c r="E29" s="32">
         <v>1.0798650000000001</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="32">
         <v>4.1805000000000002E-2</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="32">
         <v>18.383590999999999</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="32">
         <v>4.5270999999999999E-2</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="32">
         <v>3.0506999999999999E-2</v>
       </c>
       <c r="J29">
@@ -6957,19 +6996,19 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E30">
+      <c r="E30" s="32">
         <v>1.036494</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="32">
         <v>4.0278000000000001E-2</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="32">
         <v>16.772290000000002</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="32">
         <v>4.3468E-2</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="32">
         <v>2.7095999999999999E-2</v>
       </c>
       <c r="J30">
@@ -6983,19 +7022,19 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E31">
+      <c r="E31" s="32">
         <v>1.0570029999999999</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="32">
         <v>4.1775E-2</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="32">
         <v>17.930952999999999</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="32">
         <v>4.3367999999999997E-2</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="32">
         <v>2.8705999999999999E-2</v>
       </c>
       <c r="J31">
@@ -7009,19 +7048,19 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="E32">
+      <c r="E32" s="32">
         <v>1.0941160000000001</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="32">
         <v>4.1693000000000001E-2</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="32">
         <v>18.702745</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="32">
         <v>4.4873999999999997E-2</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="32">
         <v>3.2194E-2</v>
       </c>
       <c r="J32">
@@ -7035,19 +7074,19 @@
       </c>
     </row>
     <row r="33" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E33">
+      <c r="E33" s="32">
         <v>1.071069</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="32">
         <v>4.0882000000000002E-2</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="32">
         <v>17.606207999999999</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="32">
         <v>4.2661999999999999E-2</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="32">
         <v>2.6641999999999999E-2</v>
       </c>
       <c r="J33">
@@ -7061,19 +7100,19 @@
       </c>
     </row>
     <row r="34" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E34">
+      <c r="E34" s="32">
         <v>1.050886</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="32">
         <v>4.0733999999999999E-2</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="32">
         <v>17.516812999999999</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="32">
         <v>4.3048999999999997E-2</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="32">
         <v>2.7483E-2</v>
       </c>
       <c r="J34">
@@ -7086,20 +7125,59 @@
         <v>100</v>
       </c>
     </row>
+    <row r="35" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E35" s="35">
+        <f>AVERAGE(E25:E34)</f>
+        <v>1.0628505000000001</v>
+      </c>
+      <c r="F35" s="35">
+        <f>AVERAGE(F25:F34)</f>
+        <v>4.1164300000000001E-2</v>
+      </c>
+      <c r="G35" s="35">
+        <f>AVERAGE(G25:G34)</f>
+        <v>17.515638899999999</v>
+      </c>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+    </row>
+    <row r="36" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E36" s="35">
+        <f>MEDIAN(E25:E34)</f>
+        <v>1.057318</v>
+      </c>
+      <c r="F36" s="35">
+        <f>MEDIAN(F25:F34)</f>
+        <v>4.1049500000000003E-2</v>
+      </c>
+      <c r="G36" s="35">
+        <f>MEDIAN(G25:G34)</f>
+        <v>17.551814999999998</v>
+      </c>
+      <c r="H36" s="32"/>
+      <c r="I36" s="32"/>
+    </row>
+    <row r="37" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E37" s="32"/>
+      <c r="F37" s="32"/>
+      <c r="G37" s="32"/>
+      <c r="H37" s="32"/>
+      <c r="I37" s="32"/>
+    </row>
     <row r="38" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E38">
+      <c r="E38" s="32">
         <v>1.1175660000000001</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="32">
         <v>4.4179000000000003E-2</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="32">
         <v>19.652121999999999</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="32">
         <v>4.7072999999999997E-2</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="32">
         <v>3.073E-2</v>
       </c>
       <c r="J38">
@@ -7116,19 +7194,19 @@
       </c>
     </row>
     <row r="39" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E39">
+      <c r="E39" s="32">
         <v>1.111578</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="32">
         <v>4.4191000000000001E-2</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="32">
         <v>18.554143</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="32">
         <v>4.6094000000000003E-2</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="32">
         <v>2.8209999999999999E-2</v>
       </c>
       <c r="J39">
@@ -7142,19 +7220,19 @@
       </c>
     </row>
     <row r="40" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E40">
+      <c r="E40" s="32">
         <v>1.073968</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="32">
         <v>4.1942E-2</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="32">
         <v>17.990244000000001</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="32">
         <v>4.5449000000000003E-2</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="32">
         <v>2.8077999999999999E-2</v>
       </c>
       <c r="J40">
@@ -7167,85 +7245,271 @@
         <v>200</v>
       </c>
     </row>
+    <row r="41" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43">
+        <v>47</v>
+      </c>
+    </row>
     <row r="44" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E44">
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E47" s="32"/>
+      <c r="F47" s="32"/>
+      <c r="G47" s="32"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+      <c r="J47">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E48" s="35">
+        <f>AVERAGE(E38:E47)</f>
+        <v>1.1010373333333332</v>
+      </c>
+      <c r="F48" s="35">
+        <f>AVERAGE(F38:F47)</f>
+        <v>4.3437333333333335E-2</v>
+      </c>
+      <c r="G48" s="35">
+        <f>AVERAGE(G38:G47)</f>
+        <v>18.732169666666667</v>
+      </c>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+    </row>
+    <row r="49" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E49" s="35">
+        <f>MEDIAN(E38:E47)</f>
+        <v>1.111578</v>
+      </c>
+      <c r="F49" s="35">
+        <f>MEDIAN(F38:F47)</f>
+        <v>4.4179000000000003E-2</v>
+      </c>
+      <c r="G49" s="35">
+        <f>MEDIAN(G38:G47)</f>
+        <v>18.554143</v>
+      </c>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+    </row>
+    <row r="50" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+    </row>
+    <row r="51" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+    </row>
+    <row r="52" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E52" s="32"/>
+      <c r="F52" s="32"/>
+      <c r="G52" s="32"/>
+      <c r="H52" s="32"/>
+      <c r="I52" s="32"/>
+    </row>
+    <row r="53" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E53" s="32">
         <v>1.1079950000000001</v>
       </c>
-      <c r="F44">
+      <c r="F53" s="32">
         <v>4.2147999999999998E-2</v>
       </c>
-      <c r="G44">
+      <c r="G53" s="32">
         <v>19.216892000000001</v>
       </c>
-      <c r="H44">
+      <c r="H53" s="32">
         <v>4.5102999999999997E-2</v>
       </c>
-      <c r="I44">
+      <c r="I53" s="32">
         <v>3.2132000000000001E-2</v>
       </c>
-      <c r="J44">
+      <c r="J53">
         <v>42</v>
       </c>
-      <c r="K44">
+      <c r="K53">
         <v>500</v>
       </c>
-      <c r="L44">
-        <v>100</v>
-      </c>
-      <c r="M44" t="s">
+      <c r="L53">
+        <v>100</v>
+      </c>
+      <c r="M53" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E45">
+    <row r="54" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E54" s="32">
         <v>1.1286400000000001</v>
       </c>
-      <c r="F45">
+      <c r="F54" s="32">
         <v>4.4727999999999997E-2</v>
       </c>
-      <c r="G45">
+      <c r="G54" s="32">
         <v>18.037082000000002</v>
       </c>
-      <c r="H45">
+      <c r="H54" s="32">
         <v>4.7659E-2</v>
       </c>
-      <c r="I45">
+      <c r="I54" s="32">
         <v>2.8920000000000001E-2</v>
       </c>
-      <c r="J45">
+      <c r="J54">
         <v>43</v>
       </c>
-      <c r="K45">
+      <c r="K54">
         <v>500</v>
       </c>
-      <c r="L45">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E46">
+      <c r="L54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E55" s="32">
         <v>1.109602</v>
       </c>
-      <c r="F46">
+      <c r="F55" s="32">
         <v>4.2882000000000003E-2</v>
       </c>
-      <c r="G46">
+      <c r="G55" s="32">
         <v>18.288941000000001</v>
       </c>
-      <c r="H46">
+      <c r="H55" s="32">
         <v>4.6176000000000002E-2</v>
       </c>
-      <c r="I46">
+      <c r="I55" s="32">
         <v>2.8670000000000001E-2</v>
       </c>
-      <c r="J46">
+      <c r="J55">
         <v>44</v>
       </c>
-      <c r="K46">
+      <c r="K55">
         <v>500</v>
       </c>
-      <c r="L46">
-        <v>100</v>
+      <c r="L55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="J56">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="57" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="J57">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="58" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="J58">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="J59">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="J60">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="J61">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="J62">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E63" s="35">
+        <f>AVERAGE(E53:E62)</f>
+        <v>1.1154123333333335</v>
+      </c>
+      <c r="F63" s="35">
+        <f>AVERAGE(F53:F62)</f>
+        <v>4.3252666666666661E-2</v>
+      </c>
+      <c r="G63" s="35">
+        <f>AVERAGE(G53:G62)</f>
+        <v>18.514305</v>
+      </c>
+    </row>
+    <row r="64" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E64" s="35">
+        <f>MEDIAN(E53:E62)</f>
+        <v>1.109602</v>
+      </c>
+      <c r="F64" s="35">
+        <f>MEDIAN(F53:F62)</f>
+        <v>4.2882000000000003E-2</v>
+      </c>
+      <c r="G64" s="35">
+        <f>MEDIAN(G53:G62)</f>
+        <v>18.288941000000001</v>
       </c>
     </row>
   </sheetData>
@@ -7255,11 +7519,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAFB0129-BA83-4A80-9172-BD8645B5E996}">
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7329,6 +7593,9 @@
       <c r="B9">
         <v>1119</v>
       </c>
+      <c r="C9" t="s">
+        <v>130</v>
+      </c>
       <c r="E9" s="32">
         <v>1.2822370000000001</v>
       </c>
@@ -7358,6 +7625,15 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10">
+        <v>1119</v>
+      </c>
+      <c r="C10" t="s">
+        <v>130</v>
+      </c>
       <c r="E10" s="32">
         <v>1.1763939999999999</v>
       </c>
@@ -7384,6 +7660,15 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11">
+        <v>1119</v>
+      </c>
+      <c r="C11" t="s">
+        <v>130</v>
+      </c>
       <c r="E11" s="32">
         <v>1.1471720000000001</v>
       </c>
@@ -7410,6 +7695,15 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B12">
+        <v>1119</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
       <c r="E12" s="32">
         <v>1.1688130000000001</v>
       </c>
@@ -7436,6 +7730,15 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13">
+        <v>1119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
       <c r="E13" s="32">
         <v>1.17822</v>
       </c>
@@ -7462,6 +7765,15 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14">
+        <v>1119</v>
+      </c>
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
       <c r="E14" s="32">
         <v>1.206645</v>
       </c>
@@ -7488,6 +7800,15 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15">
+        <v>1119</v>
+      </c>
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
       <c r="E15" s="32">
         <v>1.197551</v>
       </c>
@@ -7514,6 +7835,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B16">
+        <v>1119</v>
+      </c>
+      <c r="C16" t="s">
+        <v>130</v>
+      </c>
       <c r="E16" s="32">
         <v>1.225214</v>
       </c>
@@ -7539,7 +7869,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>142</v>
+      </c>
+      <c r="B17">
+        <v>1119</v>
+      </c>
+      <c r="C17" t="s">
+        <v>130</v>
+      </c>
       <c r="E17" s="32">
         <v>1.19828</v>
       </c>
@@ -7565,7 +7904,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18">
+        <v>1119</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
       <c r="E18" s="32">
         <v>1.211112</v>
       </c>
@@ -7591,7 +7939,44 @@
         <v>50</v>
       </c>
     </row>
-    <row r="22" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E19" s="35">
+        <f>AVERAGE(E9:E18)</f>
+        <v>1.1991638</v>
+      </c>
+      <c r="F19" s="35">
+        <f>AVERAGE(F9:F18)</f>
+        <v>9.2597600000000002E-2</v>
+      </c>
+      <c r="G19" s="35">
+        <f>AVERAGE(G9:G18)</f>
+        <v>12.206202100000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E20" s="35">
+        <f>MEDIAN(E9:E18)</f>
+        <v>1.1979155000000001</v>
+      </c>
+      <c r="F20" s="35">
+        <f>MEDIAN(F9:F18)</f>
+        <v>9.2437999999999992E-2</v>
+      </c>
+      <c r="G20" s="35">
+        <f>MEDIAN(G9:G18)</f>
+        <v>11.946429</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22">
+        <v>1119</v>
+      </c>
+      <c r="C22" t="s">
+        <v>130</v>
+      </c>
       <c r="E22" s="32">
         <v>1.1260600000000001</v>
       </c>
@@ -7616,8 +8001,20 @@
       <c r="L22">
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="M22" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23">
+        <v>1119</v>
+      </c>
+      <c r="C23" t="s">
+        <v>130</v>
+      </c>
       <c r="E23" s="32">
         <v>1.1116360000000001</v>
       </c>
@@ -7643,7 +8040,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B24">
+        <v>1119</v>
+      </c>
+      <c r="C24" t="s">
+        <v>130</v>
+      </c>
       <c r="E24" s="32">
         <v>1.1415299999999999</v>
       </c>
@@ -7669,7 +8075,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25">
+        <v>1119</v>
+      </c>
+      <c r="C25" t="s">
+        <v>130</v>
+      </c>
       <c r="E25" s="32">
         <v>1.108778</v>
       </c>
@@ -7695,7 +8110,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B26">
+        <v>1119</v>
+      </c>
+      <c r="C26" t="s">
+        <v>130</v>
+      </c>
       <c r="E26" s="32">
         <v>1.1267750000000001</v>
       </c>
@@ -7721,7 +8145,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27">
+        <v>1119</v>
+      </c>
+      <c r="C27" t="s">
+        <v>130</v>
+      </c>
       <c r="E27" s="32">
         <v>1.131211</v>
       </c>
@@ -7747,7 +8180,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28">
+        <v>1119</v>
+      </c>
+      <c r="C28" t="s">
+        <v>130</v>
+      </c>
       <c r="E28" s="32">
         <v>1.1234770000000001</v>
       </c>
@@ -7773,7 +8215,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29">
+        <v>1119</v>
+      </c>
+      <c r="C29" t="s">
+        <v>130</v>
+      </c>
       <c r="E29" s="32">
         <v>1.1336949999999999</v>
       </c>
@@ -7799,7 +8250,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30">
+        <v>1119</v>
+      </c>
+      <c r="C30" t="s">
+        <v>130</v>
+      </c>
       <c r="E30" s="32">
         <v>1.1616340000000001</v>
       </c>
@@ -7825,7 +8285,16 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31">
+        <v>1119</v>
+      </c>
+      <c r="C31" t="s">
+        <v>130</v>
+      </c>
       <c r="E31" s="32">
         <v>1.124217</v>
       </c>
@@ -7851,7 +8320,44 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E32" s="35">
+        <f>AVERAGE(E22:E31)</f>
+        <v>1.1289013000000001</v>
+      </c>
+      <c r="F32" s="35">
+        <f>AVERAGE(F22:F31)</f>
+        <v>8.8479600000000005E-2</v>
+      </c>
+      <c r="G32" s="35">
+        <f>AVERAGE(G22:G31)</f>
+        <v>10.665804500000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E33" s="35">
+        <f>MEDIAN(E22:E31)</f>
+        <v>1.1264175000000001</v>
+      </c>
+      <c r="F33" s="35">
+        <f>MEDIAN(F22:F31)</f>
+        <v>8.8766499999999998E-2</v>
+      </c>
+      <c r="G33" s="35">
+        <f>MEDIAN(G22:G31)</f>
+        <v>10.700299999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B35">
+        <v>1119</v>
+      </c>
+      <c r="C35" t="s">
+        <v>130</v>
+      </c>
       <c r="E35" s="32">
         <v>1.107348</v>
       </c>
@@ -7876,8 +8382,20 @@
       <c r="L35">
         <v>200</v>
       </c>
-    </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="M35" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36">
+        <v>1119</v>
+      </c>
+      <c r="C36" t="s">
+        <v>130</v>
+      </c>
       <c r="E36" s="32">
         <v>1.0903160000000001</v>
       </c>
@@ -7903,7 +8421,16 @@
         <v>200</v>
       </c>
     </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B37">
+        <v>1119</v>
+      </c>
+      <c r="C37" t="s">
+        <v>130</v>
+      </c>
       <c r="E37" s="32">
         <v>1.1079209999999999</v>
       </c>
@@ -7929,7 +8456,16 @@
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38">
+        <v>1119</v>
+      </c>
+      <c r="C38" t="s">
+        <v>130</v>
+      </c>
       <c r="E38" s="32">
         <v>1.0947340000000001</v>
       </c>
@@ -7955,7 +8491,16 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>142</v>
+      </c>
+      <c r="B39">
+        <v>1119</v>
+      </c>
+      <c r="C39" t="s">
+        <v>130</v>
+      </c>
       <c r="E39" s="32">
         <v>1.109599</v>
       </c>
@@ -7981,7 +8526,16 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B40">
+        <v>1119</v>
+      </c>
+      <c r="C40" t="s">
+        <v>130</v>
+      </c>
       <c r="E40" s="32">
         <v>1.115229</v>
       </c>
@@ -8007,7 +8561,16 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>142</v>
+      </c>
+      <c r="B41">
+        <v>1119</v>
+      </c>
+      <c r="C41" t="s">
+        <v>130</v>
+      </c>
       <c r="E41" s="32">
         <v>1.0897969999999999</v>
       </c>
@@ -8033,7 +8596,16 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42">
+        <v>1119</v>
+      </c>
+      <c r="C42" t="s">
+        <v>130</v>
+      </c>
       <c r="E42" s="32">
         <v>1.119122</v>
       </c>
@@ -8059,7 +8631,16 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43">
+        <v>1119</v>
+      </c>
+      <c r="C43" t="s">
+        <v>130</v>
+      </c>
       <c r="E43" s="32">
         <v>1.142703</v>
       </c>
@@ -8085,7 +8666,16 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>142</v>
+      </c>
+      <c r="B44">
+        <v>1119</v>
+      </c>
+      <c r="C44" t="s">
+        <v>130</v>
+      </c>
       <c r="E44" s="32">
         <v>1.087059</v>
       </c>
@@ -8111,24 +8701,294 @@
         <v>200</v>
       </c>
     </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E45" s="35">
+        <f>AVERAGE(E35:E44)</f>
+        <v>1.1063828</v>
+      </c>
+      <c r="F45" s="35">
+        <f>AVERAGE(F35:F44)</f>
+        <v>8.6626999999999996E-2</v>
+      </c>
+      <c r="G45" s="35">
+        <f>AVERAGE(G35:G44)</f>
+        <v>10.408444399999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E46" s="35">
+        <f>MEDIAN(E35:E44)</f>
+        <v>1.1076345000000001</v>
+      </c>
+      <c r="F46" s="35">
+        <f>MEDIAN(F35:F44)</f>
+        <v>8.6746000000000004E-2</v>
+      </c>
+      <c r="G46" s="35">
+        <f>MEDIAN(G35:G44)</f>
+        <v>10.38073</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>142</v>
+      </c>
+      <c r="B48">
+        <v>1119</v>
+      </c>
+      <c r="C48" t="s">
+        <v>130</v>
+      </c>
+      <c r="E48" s="32">
+        <v>1.122995</v>
+      </c>
+      <c r="F48" s="32">
+        <v>8.8496000000000005E-2</v>
+      </c>
+      <c r="G48" s="32">
+        <v>10.763847</v>
+      </c>
+      <c r="H48" s="32">
+        <v>8.2055000000000003E-2</v>
+      </c>
+      <c r="I48" s="32">
+        <v>3.916E-2</v>
+      </c>
+      <c r="J48">
+        <v>42</v>
+      </c>
+      <c r="K48">
+        <v>500</v>
+      </c>
+      <c r="L48">
+        <v>100</v>
+      </c>
+      <c r="M48" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49">
+        <v>1119</v>
+      </c>
+      <c r="C49" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" s="32">
+        <v>1.1142540000000001</v>
+      </c>
+      <c r="F49" s="32">
+        <v>8.7389999999999995E-2</v>
+      </c>
+      <c r="G49" s="32">
+        <v>10.192932000000001</v>
+      </c>
+      <c r="H49" s="32">
+        <v>8.1090999999999996E-2</v>
+      </c>
+      <c r="I49" s="32">
+        <v>3.9234999999999999E-2</v>
+      </c>
+      <c r="J49">
+        <v>43</v>
+      </c>
+      <c r="K49">
+        <v>500</v>
+      </c>
+      <c r="L49">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50">
+        <v>1119</v>
+      </c>
+      <c r="C50" t="s">
+        <v>130</v>
+      </c>
+      <c r="E50" s="32">
+        <v>1.1886779999999999</v>
+      </c>
+      <c r="F50" s="32">
+        <v>9.0396000000000004E-2</v>
+      </c>
+      <c r="G50" s="32">
+        <v>11.567811000000001</v>
+      </c>
+      <c r="H50" s="32">
+        <v>8.4238999999999994E-2</v>
+      </c>
+      <c r="I50" s="32">
+        <v>3.9161000000000001E-2</v>
+      </c>
+      <c r="J50">
+        <v>44</v>
+      </c>
+      <c r="K50">
+        <v>500</v>
+      </c>
+      <c r="L50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>142</v>
+      </c>
+      <c r="B51">
+        <v>1119</v>
+      </c>
+      <c r="C51" t="s">
+        <v>130</v>
+      </c>
+      <c r="J51">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52">
+        <v>1119</v>
+      </c>
+      <c r="C52" t="s">
+        <v>130</v>
+      </c>
+      <c r="J52">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>142</v>
+      </c>
+      <c r="B53">
+        <v>1119</v>
+      </c>
+      <c r="C53" t="s">
+        <v>130</v>
+      </c>
+      <c r="J53">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54">
+        <v>1119</v>
+      </c>
+      <c r="C54" t="s">
+        <v>130</v>
+      </c>
+      <c r="J54">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55">
+        <v>1119</v>
+      </c>
+      <c r="C55" t="s">
+        <v>130</v>
+      </c>
+      <c r="J55">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56">
+        <v>1119</v>
+      </c>
+      <c r="C56" t="s">
+        <v>130</v>
+      </c>
+      <c r="J56">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57">
+        <v>1119</v>
+      </c>
+      <c r="C57" t="s">
+        <v>130</v>
+      </c>
+      <c r="J57">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E58" s="35">
+        <f>AVERAGE(E48:E57)</f>
+        <v>1.1419756666666667</v>
+      </c>
+      <c r="F58" s="35">
+        <f>AVERAGE(F48:F57)</f>
+        <v>8.8760666666666668E-2</v>
+      </c>
+      <c r="G58" s="35">
+        <f>AVERAGE(G48:G57)</f>
+        <v>10.841530000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E59" s="35">
+        <f>MEDIAN(E48:E57)</f>
+        <v>1.122995</v>
+      </c>
+      <c r="F59" s="35">
+        <f>MEDIAN(F48:F57)</f>
+        <v>8.8496000000000005E-2</v>
+      </c>
+      <c r="G59" s="35">
+        <f>MEDIAN(G48:G57)</f>
+        <v>10.763847</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A831C1B-9AFA-490E-BF70-802E7B07EBE1}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M48" sqref="M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -8185,6 +9045,1240 @@
       <c r="B10">
         <v>4126</v>
       </c>
+      <c r="C10" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="32">
+        <v>1.2224349999999999</v>
+      </c>
+      <c r="F10" s="32">
+        <v>0.103419</v>
+      </c>
+      <c r="G10" s="32">
+        <v>13.271653000000001</v>
+      </c>
+      <c r="H10" s="32">
+        <v>9.3776999999999999E-2</v>
+      </c>
+      <c r="I10" s="32">
+        <v>5.2197E-2</v>
+      </c>
+      <c r="J10">
+        <v>42</v>
+      </c>
+      <c r="K10">
+        <v>100</v>
+      </c>
+      <c r="L10">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B11">
+        <v>4126</v>
+      </c>
+      <c r="C11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E11" s="32">
+        <v>1.548972</v>
+      </c>
+      <c r="F11" s="32">
+        <v>0.116469</v>
+      </c>
+      <c r="G11" s="32">
+        <v>19.741406000000001</v>
+      </c>
+      <c r="H11" s="32">
+        <v>0.10781300000000001</v>
+      </c>
+      <c r="I11" s="32">
+        <v>6.3364000000000004E-2</v>
+      </c>
+      <c r="J11">
+        <v>43</v>
+      </c>
+      <c r="K11">
+        <v>100</v>
+      </c>
+      <c r="L11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12">
+        <v>4126</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" s="32">
+        <v>1.272797</v>
+      </c>
+      <c r="F12" s="32">
+        <v>0.103918</v>
+      </c>
+      <c r="G12" s="32">
+        <v>14.587026</v>
+      </c>
+      <c r="H12" s="32">
+        <v>9.5811999999999994E-2</v>
+      </c>
+      <c r="I12" s="32">
+        <v>5.5239999999999997E-2</v>
+      </c>
+      <c r="J12">
+        <v>44</v>
+      </c>
+      <c r="K12">
+        <v>100</v>
+      </c>
+      <c r="L12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13">
+        <v>4126</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="32">
+        <v>1.1896929999999999</v>
+      </c>
+      <c r="F13" s="32">
+        <v>0.100989</v>
+      </c>
+      <c r="G13" s="32">
+        <v>11.027134999999999</v>
+      </c>
+      <c r="H13" s="32">
+        <v>9.1343999999999995E-2</v>
+      </c>
+      <c r="I13" s="32">
+        <v>5.1971000000000003E-2</v>
+      </c>
+      <c r="J13">
+        <v>45</v>
+      </c>
+      <c r="K13">
+        <v>100</v>
+      </c>
+      <c r="L13">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B14">
+        <v>4126</v>
+      </c>
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="32">
+        <v>1.4150739999999999</v>
+      </c>
+      <c r="F14" s="32">
+        <v>0.108075</v>
+      </c>
+      <c r="G14" s="32">
+        <v>15.836062</v>
+      </c>
+      <c r="H14" s="32">
+        <v>0.101373</v>
+      </c>
+      <c r="I14" s="32">
+        <v>5.8788E-2</v>
+      </c>
+      <c r="J14">
+        <v>46</v>
+      </c>
+      <c r="K14">
+        <v>100</v>
+      </c>
+      <c r="L14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15">
+        <v>4126</v>
+      </c>
+      <c r="C15" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="32">
+        <v>1.220332</v>
+      </c>
+      <c r="F15" s="32">
+        <v>0.101905</v>
+      </c>
+      <c r="G15" s="32">
+        <v>14.644093</v>
+      </c>
+      <c r="H15" s="32">
+        <v>9.2174000000000006E-2</v>
+      </c>
+      <c r="I15" s="32">
+        <v>5.1686999999999997E-2</v>
+      </c>
+      <c r="J15">
+        <v>47</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16">
+        <v>4126</v>
+      </c>
+      <c r="C16" t="s">
+        <v>130</v>
+      </c>
+      <c r="E16" s="32">
+        <v>1.2941279999999999</v>
+      </c>
+      <c r="F16" s="32">
+        <v>0.105241</v>
+      </c>
+      <c r="G16" s="32">
+        <v>13.033063</v>
+      </c>
+      <c r="H16" s="32">
+        <v>9.6602999999999994E-2</v>
+      </c>
+      <c r="I16" s="32">
+        <v>5.4434999999999997E-2</v>
+      </c>
+      <c r="J16">
+        <v>48</v>
+      </c>
+      <c r="K16">
+        <v>100</v>
+      </c>
+      <c r="L16">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>143</v>
+      </c>
+      <c r="B17">
+        <v>4126</v>
+      </c>
+      <c r="C17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="32">
+        <v>1.27521</v>
+      </c>
+      <c r="F17" s="32">
+        <v>0.10472099999999999</v>
+      </c>
+      <c r="G17" s="32">
+        <v>12.054282000000001</v>
+      </c>
+      <c r="H17" s="32">
+        <v>9.6466999999999997E-2</v>
+      </c>
+      <c r="I17" s="32">
+        <v>5.3659999999999999E-2</v>
+      </c>
+      <c r="J17">
+        <v>49</v>
+      </c>
+      <c r="K17">
+        <v>100</v>
+      </c>
+      <c r="L17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18">
+        <v>4126</v>
+      </c>
+      <c r="C18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="32">
+        <v>1.2016290000000001</v>
+      </c>
+      <c r="F18" s="32">
+        <v>0.101936</v>
+      </c>
+      <c r="G18" s="32">
+        <v>11.408754</v>
+      </c>
+      <c r="H18" s="32">
+        <v>9.2664999999999997E-2</v>
+      </c>
+      <c r="I18" s="32">
+        <v>5.1484000000000002E-2</v>
+      </c>
+      <c r="J18">
+        <v>50</v>
+      </c>
+      <c r="K18">
+        <v>100</v>
+      </c>
+      <c r="L18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19">
+        <v>4126</v>
+      </c>
+      <c r="C19" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="32">
+        <v>1.322848</v>
+      </c>
+      <c r="F19" s="32">
+        <v>0.10606</v>
+      </c>
+      <c r="G19" s="32">
+        <v>17.740012</v>
+      </c>
+      <c r="H19" s="32">
+        <v>9.6757999999999997E-2</v>
+      </c>
+      <c r="I19" s="32">
+        <v>5.7319000000000002E-2</v>
+      </c>
+      <c r="J19">
+        <v>51</v>
+      </c>
+      <c r="K19">
+        <v>100</v>
+      </c>
+      <c r="L19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E20" s="35">
+        <f>AVERAGE(E10:E19)</f>
+        <v>1.2963118</v>
+      </c>
+      <c r="F20" s="35">
+        <f>AVERAGE(F10:F19)</f>
+        <v>0.10527329999999999</v>
+      </c>
+      <c r="G20" s="35">
+        <f>AVERAGE(G10:G19)</f>
+        <v>14.334348600000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="E21" s="35">
+        <f>MEDIAN(E10:E19)</f>
+        <v>1.2740035000000001</v>
+      </c>
+      <c r="F21" s="35">
+        <f>MEDIAN(F10:F19)</f>
+        <v>0.1043195</v>
+      </c>
+      <c r="G21" s="35">
+        <f>MEDIAN(G10:G19)</f>
+        <v>13.929339500000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23">
+        <v>4126</v>
+      </c>
+      <c r="C23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="32">
+        <v>1.1652940000000001</v>
+      </c>
+      <c r="F23" s="32">
+        <v>0.100589</v>
+      </c>
+      <c r="G23" s="32">
+        <v>10.724694</v>
+      </c>
+      <c r="H23" s="32">
+        <v>9.0362999999999999E-2</v>
+      </c>
+      <c r="I23" s="32">
+        <v>4.9154999999999997E-2</v>
+      </c>
+      <c r="J23">
+        <v>42</v>
+      </c>
+      <c r="K23">
+        <v>200</v>
+      </c>
+      <c r="L23">
+        <v>100</v>
+      </c>
+      <c r="M23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24">
+        <v>4126</v>
+      </c>
+      <c r="C24" t="s">
+        <v>130</v>
+      </c>
+      <c r="E24" s="32">
+        <v>1.145162</v>
+      </c>
+      <c r="F24" s="32">
+        <v>9.9848999999999993E-2</v>
+      </c>
+      <c r="G24" s="32">
+        <v>10.431291999999999</v>
+      </c>
+      <c r="H24" s="32">
+        <v>8.9554999999999996E-2</v>
+      </c>
+      <c r="I24" s="32">
+        <v>4.9898999999999999E-2</v>
+      </c>
+      <c r="J24">
+        <v>43</v>
+      </c>
+      <c r="K24">
+        <v>200</v>
+      </c>
+      <c r="L24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25">
+        <v>4126</v>
+      </c>
+      <c r="C25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E25" s="32">
+        <v>1.1624859999999999</v>
+      </c>
+      <c r="F25" s="32">
+        <v>9.9226999999999996E-2</v>
+      </c>
+      <c r="G25" s="32">
+        <v>11.169720999999999</v>
+      </c>
+      <c r="H25" s="32">
+        <v>9.0578000000000006E-2</v>
+      </c>
+      <c r="I25" s="32">
+        <v>4.9577999999999997E-2</v>
+      </c>
+      <c r="J25">
+        <v>44</v>
+      </c>
+      <c r="K25">
+        <v>200</v>
+      </c>
+      <c r="L25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26">
+        <v>4126</v>
+      </c>
+      <c r="C26" t="s">
+        <v>130</v>
+      </c>
+      <c r="E26" s="32">
+        <v>1.1452089999999999</v>
+      </c>
+      <c r="F26" s="32">
+        <v>9.8590999999999998E-2</v>
+      </c>
+      <c r="G26" s="32">
+        <v>11.155984999999999</v>
+      </c>
+      <c r="H26" s="32">
+        <v>8.9078000000000004E-2</v>
+      </c>
+      <c r="I26" s="32">
+        <v>4.9513000000000001E-2</v>
+      </c>
+      <c r="J26">
+        <v>45</v>
+      </c>
+      <c r="K26">
+        <v>200</v>
+      </c>
+      <c r="L26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B27">
+        <v>4126</v>
+      </c>
+      <c r="C27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="32">
+        <v>1.118285</v>
+      </c>
+      <c r="F27" s="32">
+        <v>9.6454999999999999E-2</v>
+      </c>
+      <c r="G27" s="32">
+        <v>10.550632</v>
+      </c>
+      <c r="H27" s="32">
+        <v>8.7359999999999993E-2</v>
+      </c>
+      <c r="I27" s="32">
+        <v>4.8183999999999998E-2</v>
+      </c>
+      <c r="J27">
+        <v>46</v>
+      </c>
+      <c r="K27">
+        <v>200</v>
+      </c>
+      <c r="L27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>143</v>
+      </c>
+      <c r="B28">
+        <v>4126</v>
+      </c>
+      <c r="C28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E28" s="32">
+        <v>1.153437</v>
+      </c>
+      <c r="F28" s="32">
+        <v>9.9005999999999997E-2</v>
+      </c>
+      <c r="G28" s="32">
+        <v>10.578438999999999</v>
+      </c>
+      <c r="H28" s="32">
+        <v>8.9677000000000007E-2</v>
+      </c>
+      <c r="I28" s="32">
+        <v>5.0449000000000001E-2</v>
+      </c>
+      <c r="J28">
+        <v>47</v>
+      </c>
+      <c r="K28">
+        <v>200</v>
+      </c>
+      <c r="L28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>143</v>
+      </c>
+      <c r="B29">
+        <v>4126</v>
+      </c>
+      <c r="C29" t="s">
+        <v>130</v>
+      </c>
+      <c r="E29" s="32">
+        <v>1.1515580000000001</v>
+      </c>
+      <c r="F29" s="32">
+        <v>9.8290000000000002E-2</v>
+      </c>
+      <c r="G29" s="32">
+        <v>11.009294000000001</v>
+      </c>
+      <c r="H29" s="32">
+        <v>8.8430999999999996E-2</v>
+      </c>
+      <c r="I29" s="32">
+        <v>4.9542999999999997E-2</v>
+      </c>
+      <c r="J29">
+        <v>48</v>
+      </c>
+      <c r="K29">
+        <v>200</v>
+      </c>
+      <c r="L29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>143</v>
+      </c>
+      <c r="B30">
+        <v>4126</v>
+      </c>
+      <c r="C30" t="s">
+        <v>130</v>
+      </c>
+      <c r="E30" s="32">
+        <v>1.1634450000000001</v>
+      </c>
+      <c r="F30" s="32">
+        <v>9.8924999999999999E-2</v>
+      </c>
+      <c r="G30" s="32">
+        <v>10.859264</v>
+      </c>
+      <c r="H30" s="32">
+        <v>9.0686000000000003E-2</v>
+      </c>
+      <c r="I30" s="32">
+        <v>5.0902000000000003E-2</v>
+      </c>
+      <c r="J30">
+        <v>49</v>
+      </c>
+      <c r="K30">
+        <v>200</v>
+      </c>
+      <c r="L30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B31">
+        <v>4126</v>
+      </c>
+      <c r="C31" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="32">
+        <v>1.194142</v>
+      </c>
+      <c r="F31" s="32">
+        <v>0.10265199999999999</v>
+      </c>
+      <c r="G31" s="32">
+        <v>11.096774999999999</v>
+      </c>
+      <c r="H31" s="32">
+        <v>9.2841000000000007E-2</v>
+      </c>
+      <c r="I31" s="32">
+        <v>5.0589000000000002E-2</v>
+      </c>
+      <c r="J31">
+        <v>50</v>
+      </c>
+      <c r="K31">
+        <v>200</v>
+      </c>
+      <c r="L31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>143</v>
+      </c>
+      <c r="B32">
+        <v>4126</v>
+      </c>
+      <c r="C32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="32">
+        <v>1.1495869999999999</v>
+      </c>
+      <c r="F32" s="32">
+        <v>9.9336999999999995E-2</v>
+      </c>
+      <c r="G32" s="32">
+        <v>10.481676</v>
+      </c>
+      <c r="H32" s="32">
+        <v>8.9802999999999994E-2</v>
+      </c>
+      <c r="I32" s="32">
+        <v>4.9033E-2</v>
+      </c>
+      <c r="J32">
+        <v>51</v>
+      </c>
+      <c r="K32">
+        <v>200</v>
+      </c>
+      <c r="L32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E33" s="35">
+        <f>AVERAGE(E23:E32)</f>
+        <v>1.1548605000000001</v>
+      </c>
+      <c r="F33" s="35">
+        <f>AVERAGE(F23:F32)</f>
+        <v>9.9292100000000008E-2</v>
+      </c>
+      <c r="G33" s="35">
+        <f>AVERAGE(G23:G32)</f>
+        <v>10.805777199999998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E34" s="35">
+        <f>MEDIAN(E23:E32)</f>
+        <v>1.1524975</v>
+      </c>
+      <c r="F34" s="35">
+        <f>MEDIAN(F23:F32)</f>
+        <v>9.9116499999999996E-2</v>
+      </c>
+      <c r="G34" s="35">
+        <f>MEDIAN(G23:G32)</f>
+        <v>10.791979</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36">
+        <v>4126</v>
+      </c>
+      <c r="C36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="32">
+        <v>1.1178680000000001</v>
+      </c>
+      <c r="F36" s="32">
+        <v>9.8102999999999996E-2</v>
+      </c>
+      <c r="G36" s="32">
+        <v>10.815135</v>
+      </c>
+      <c r="H36" s="32">
+        <v>8.8752999999999999E-2</v>
+      </c>
+      <c r="I36" s="32">
+        <v>4.8391999999999998E-2</v>
+      </c>
+      <c r="J36">
+        <v>42</v>
+      </c>
+      <c r="K36">
+        <v>400</v>
+      </c>
+      <c r="L36">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37">
+        <v>4126</v>
+      </c>
+      <c r="C37" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="32">
+        <v>1.1359269999999999</v>
+      </c>
+      <c r="F37" s="32">
+        <v>9.8271999999999998E-2</v>
+      </c>
+      <c r="G37" s="32">
+        <v>10.447384</v>
+      </c>
+      <c r="H37" s="32">
+        <v>8.8799000000000003E-2</v>
+      </c>
+      <c r="I37" s="32">
+        <v>4.8743000000000002E-2</v>
+      </c>
+      <c r="J37">
+        <v>43</v>
+      </c>
+      <c r="K37">
+        <v>400</v>
+      </c>
+      <c r="L37">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38">
+        <v>4126</v>
+      </c>
+      <c r="C38" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="32">
+        <v>1.1383730000000001</v>
+      </c>
+      <c r="F38" s="32">
+        <v>9.8803000000000002E-2</v>
+      </c>
+      <c r="G38" s="32">
+        <v>11.217749</v>
+      </c>
+      <c r="H38" s="32">
+        <v>9.0329999999999994E-2</v>
+      </c>
+      <c r="I38" s="32">
+        <v>4.9466999999999997E-2</v>
+      </c>
+      <c r="J38">
+        <v>44</v>
+      </c>
+      <c r="K38">
+        <v>400</v>
+      </c>
+      <c r="L38">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E39" s="32"/>
+      <c r="F39" s="32"/>
+      <c r="G39" s="32"/>
+      <c r="H39" s="32"/>
+      <c r="I39" s="32"/>
+      <c r="J39">
+        <v>45</v>
+      </c>
+      <c r="K39">
+        <v>400</v>
+      </c>
+      <c r="L39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E40" s="32"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40">
+        <v>46</v>
+      </c>
+      <c r="K40">
+        <v>400</v>
+      </c>
+      <c r="L40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41">
+        <v>47</v>
+      </c>
+      <c r="K41">
+        <v>400</v>
+      </c>
+      <c r="L41">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+      <c r="J42">
+        <v>48</v>
+      </c>
+      <c r="K42">
+        <v>400</v>
+      </c>
+      <c r="L42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+      <c r="J43">
+        <v>49</v>
+      </c>
+      <c r="K43">
+        <v>400</v>
+      </c>
+      <c r="L43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+      <c r="J44">
+        <v>50</v>
+      </c>
+      <c r="K44">
+        <v>400</v>
+      </c>
+      <c r="L44">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+      <c r="J45">
+        <v>51</v>
+      </c>
+      <c r="K45">
+        <v>400</v>
+      </c>
+      <c r="L45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E46" s="35">
+        <f>AVERAGE(E36:E45)</f>
+        <v>1.1307226666666668</v>
+      </c>
+      <c r="F46" s="35">
+        <f>AVERAGE(F36:F45)</f>
+        <v>9.839266666666667E-2</v>
+      </c>
+      <c r="G46" s="35">
+        <f>AVERAGE(G36:G45)</f>
+        <v>10.826755999999998</v>
+      </c>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E47" s="35">
+        <f>MEDIAN(E36:E45)</f>
+        <v>1.1359269999999999</v>
+      </c>
+      <c r="F47" s="35">
+        <f>MEDIAN(F36:F45)</f>
+        <v>9.8271999999999998E-2</v>
+      </c>
+      <c r="G47" s="35">
+        <f>MEDIAN(G36:G45)</f>
+        <v>10.815135</v>
+      </c>
+      <c r="H47" s="32"/>
+      <c r="I47" s="32"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E48" s="32"/>
+      <c r="F48" s="32"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E49" s="32"/>
+      <c r="F49" s="32"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51">
+        <v>4126</v>
+      </c>
+      <c r="C51" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" s="32">
+        <v>1.1511229999999999</v>
+      </c>
+      <c r="F51" s="32">
+        <v>9.9534999999999998E-2</v>
+      </c>
+      <c r="G51" s="32">
+        <v>10.718942</v>
+      </c>
+      <c r="H51" s="32">
+        <v>9.0082999999999996E-2</v>
+      </c>
+      <c r="I51" s="32">
+        <v>4.8406999999999999E-2</v>
+      </c>
+      <c r="J51">
+        <v>42</v>
+      </c>
+      <c r="K51">
+        <v>500</v>
+      </c>
+      <c r="L51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52">
+        <v>4126</v>
+      </c>
+      <c r="C52" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52" s="32">
+        <v>1.121016</v>
+      </c>
+      <c r="F52" s="32">
+        <v>9.7161999999999998E-2</v>
+      </c>
+      <c r="G52" s="32">
+        <v>10.20187</v>
+      </c>
+      <c r="H52" s="32">
+        <v>8.7627999999999998E-2</v>
+      </c>
+      <c r="I52" s="32">
+        <v>4.9008000000000003E-2</v>
+      </c>
+      <c r="J52">
+        <v>43</v>
+      </c>
+      <c r="K52">
+        <v>500</v>
+      </c>
+      <c r="L52">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53">
+        <v>4126</v>
+      </c>
+      <c r="C53" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53" s="32">
+        <v>1.128107</v>
+      </c>
+      <c r="F53" s="32">
+        <v>9.7647999999999999E-2</v>
+      </c>
+      <c r="G53" s="32">
+        <v>10.66564</v>
+      </c>
+      <c r="H53" s="32">
+        <v>8.9183999999999999E-2</v>
+      </c>
+      <c r="I53" s="32">
+        <v>4.8804E-2</v>
+      </c>
+      <c r="J53">
+        <v>44</v>
+      </c>
+      <c r="K53">
+        <v>500</v>
+      </c>
+      <c r="L53">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J54">
+        <v>45</v>
+      </c>
+      <c r="K54">
+        <v>500</v>
+      </c>
+      <c r="L54">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J55">
+        <v>46</v>
+      </c>
+      <c r="K55">
+        <v>500</v>
+      </c>
+      <c r="L55">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J56">
+        <v>47</v>
+      </c>
+      <c r="K56">
+        <v>500</v>
+      </c>
+      <c r="L56">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J57">
+        <v>48</v>
+      </c>
+      <c r="K57">
+        <v>500</v>
+      </c>
+      <c r="L57">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J58">
+        <v>49</v>
+      </c>
+      <c r="K58">
+        <v>500</v>
+      </c>
+      <c r="L58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J59">
+        <v>50</v>
+      </c>
+      <c r="K59">
+        <v>500</v>
+      </c>
+      <c r="L59">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="J60">
+        <v>51</v>
+      </c>
+      <c r="K60">
+        <v>500</v>
+      </c>
+      <c r="L60">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E61" s="35">
+        <f>AVERAGE(E51:E60)</f>
+        <v>1.1334153333333334</v>
+      </c>
+      <c r="F61" s="35">
+        <f>AVERAGE(F51:F60)</f>
+        <v>9.8115000000000008E-2</v>
+      </c>
+      <c r="G61" s="35">
+        <f>AVERAGE(G51:G60)</f>
+        <v>10.528817333333333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E62" s="35">
+        <f>MEDIAN(E51:E60)</f>
+        <v>1.128107</v>
+      </c>
+      <c r="F62" s="35">
+        <f>MEDIAN(F51:F60)</f>
+        <v>9.7647999999999999E-2</v>
+      </c>
+      <c r="G62" s="35">
+        <f>MEDIAN(G51:G60)</f>
+        <v>10.66564</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/results/results_3_tz2_same_end_dates_forecasting_or_imputation.xlsx
+++ b/results/results_3_tz2_same_end_dates_forecasting_or_imputation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA7C0E3-9311-48C3-9981-E5B35158501D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B585D9-6B08-4B1D-AB8E-4DA8BAA83349}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="19200" windowHeight="10200" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7520" yWindow="810" windowWidth="19200" windowHeight="10200" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data dictionary" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="146">
   <si>
     <t>weighted quantile loss (0.9)</t>
   </si>
@@ -474,6 +474,12 @@
   </si>
   <si>
     <t>m4_quarterly_end2015q1</t>
+  </si>
+  <si>
+    <t>c5.2x</t>
+  </si>
+  <si>
+    <t>c5.4x</t>
   </si>
 </sst>
 </file>
@@ -1763,11 +1769,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2528BE6C-DDB8-47A2-816F-BAF7A0338D6F}">
-  <dimension ref="A1:O73"/>
+  <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E71" sqref="E71"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1789,7 +1795,7 @@
     <col min="15" max="15" width="7.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
         <v>69</v>
       </c>
@@ -1836,14 +1842,14 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
       <c r="L2" s="31"/>
       <c r="M2" s="31"/>
       <c r="N2" s="31"/>
     </row>
-    <row r="3" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>129</v>
       </c>
@@ -1866,7 +1872,7 @@
       <c r="M3" s="31"/>
       <c r="N3" s="31"/>
     </row>
-    <row r="4" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -1889,7 +1895,7 @@
       <c r="M4" s="31"/>
       <c r="N4" s="31"/>
     </row>
-    <row r="5" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>129</v>
       </c>
@@ -1912,7 +1918,7 @@
       <c r="M5" s="31"/>
       <c r="N5" s="31"/>
     </row>
-    <row r="6" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>129</v>
       </c>
@@ -1935,7 +1941,7 @@
       <c r="M6" s="31"/>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>129</v>
       </c>
@@ -1958,14 +1964,14 @@
       <c r="M7" s="31"/>
       <c r="N7" s="31"/>
     </row>
-    <row r="8" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
       <c r="L8" s="31"/>
       <c r="M8" s="31"/>
       <c r="N8" s="31"/>
     </row>
-    <row r="9" spans="1:15" s="29" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:16" s="29" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A9" s="45" t="s">
         <v>135</v>
       </c>
@@ -1984,7 +1990,7 @@
       <c r="N9" s="45"/>
       <c r="O9" s="45"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>129</v>
       </c>
@@ -2022,8 +2028,11 @@
         <f t="shared" ref="O11:O20" si="0">(32*K11*L11)/B11</f>
         <v>88.544548976203657</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="P11" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>129</v>
       </c>
@@ -2062,7 +2071,7 @@
         <v>88.544548976203657</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>129</v>
       </c>
@@ -2101,7 +2110,7 @@
         <v>88.544548976203657</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -2140,7 +2149,7 @@
         <v>88.544548976203657</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -2179,7 +2188,7 @@
         <v>88.544548976203657</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -2218,7 +2227,7 @@
         <v>88.544548976203657</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>129</v>
       </c>
@@ -2257,7 +2266,7 @@
         <v>88.544548976203657</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>129</v>
       </c>
@@ -2296,7 +2305,7 @@
         <v>88.544548976203657</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -2335,7 +2344,7 @@
         <v>88.544548976203657</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>129</v>
       </c>
@@ -2374,7 +2383,7 @@
         <v>88.544548976203657</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E21" s="37">
         <f>AVERAGE(E11:E20)</f>
         <v>1.1177689000000002</v>
@@ -2388,7 +2397,7 @@
       <c r="I21" s="32"/>
       <c r="O21" s="33"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="E22" s="35">
         <f>MEDIAN(E11:E20)</f>
         <v>1.1084040000000002</v>
@@ -2398,539 +2407,287 @@
         <v>0.18525550000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24">
-        <v>1807</v>
-      </c>
-      <c r="C24" t="s">
-        <v>130</v>
-      </c>
-      <c r="E24" s="32">
-        <v>1.095018</v>
-      </c>
-      <c r="F24" s="32">
-        <v>0.186394</v>
-      </c>
-      <c r="G24" s="32">
-        <v>16.173891999999999</v>
-      </c>
-      <c r="H24" s="32">
-        <v>0.17027400000000001</v>
-      </c>
-      <c r="I24" s="32">
-        <v>0.133715</v>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <v>1.074203</v>
+      </c>
+      <c r="F24">
+        <v>0.183175</v>
+      </c>
+      <c r="G24">
+        <v>15.356304</v>
+      </c>
+      <c r="H24">
+        <v>0.16844400000000001</v>
+      </c>
+      <c r="I24">
+        <v>0.131406</v>
       </c>
       <c r="J24">
+        <v>42</v>
+      </c>
+      <c r="K24">
+        <v>100</v>
+      </c>
+      <c r="L24">
+        <v>50</v>
+      </c>
+      <c r="P24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <v>1.0939460000000001</v>
+      </c>
+      <c r="F25">
+        <v>0.18439900000000001</v>
+      </c>
+      <c r="G25">
+        <v>17.048686</v>
+      </c>
+      <c r="H25">
+        <v>0.16958699999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.13634599999999999</v>
+      </c>
+      <c r="J25">
         <v>43</v>
       </c>
-      <c r="K24">
-        <v>100</v>
-      </c>
-      <c r="L24">
-        <v>100</v>
-      </c>
-      <c r="O24" s="33">
-        <f t="shared" ref="O24:O32" si="1">(32*K24*L24)/B24</f>
-        <v>177.08909795240731</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>129</v>
-      </c>
-      <c r="B25">
-        <v>1807</v>
-      </c>
-      <c r="C25" t="s">
-        <v>130</v>
-      </c>
-      <c r="E25" s="32">
-        <v>1.1134790000000001</v>
-      </c>
-      <c r="F25" s="32">
-        <v>0.186524</v>
-      </c>
-      <c r="G25" s="32">
-        <v>15.712464000000001</v>
-      </c>
-      <c r="H25" s="32">
-        <v>0.173148</v>
-      </c>
-      <c r="I25" s="32">
-        <v>0.13456199999999999</v>
-      </c>
-      <c r="J25">
+      <c r="K25">
+        <v>100</v>
+      </c>
+      <c r="L25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <v>1.0841639999999999</v>
+      </c>
+      <c r="F26">
+        <v>0.183944</v>
+      </c>
+      <c r="G26">
+        <v>15.578929</v>
+      </c>
+      <c r="H26">
+        <v>0.16878899999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.13390099999999999</v>
+      </c>
+      <c r="J26">
         <v>44</v>
       </c>
-      <c r="K25">
-        <v>100</v>
-      </c>
-      <c r="L25">
-        <v>100</v>
-      </c>
-      <c r="O25" s="33">
-        <f t="shared" si="1"/>
-        <v>177.08909795240731</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>129</v>
-      </c>
-      <c r="B26">
-        <v>1807</v>
-      </c>
-      <c r="C26" t="s">
-        <v>130</v>
-      </c>
-      <c r="E26" s="32">
-        <v>1.214038</v>
-      </c>
-      <c r="F26" s="32">
-        <v>0.192075</v>
-      </c>
-      <c r="G26" s="32">
-        <v>17.28293</v>
-      </c>
-      <c r="H26" s="32">
-        <v>0.184116</v>
-      </c>
-      <c r="I26" s="32">
-        <v>0.13971500000000001</v>
-      </c>
-      <c r="J26">
+      <c r="K26">
+        <v>100</v>
+      </c>
+      <c r="L26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <v>1.0830409999999999</v>
+      </c>
+      <c r="F27">
+        <v>0.18290000000000001</v>
+      </c>
+      <c r="G27">
+        <v>15.032558999999999</v>
+      </c>
+      <c r="H27">
+        <v>0.16922899999999999</v>
+      </c>
+      <c r="I27">
+        <v>0.13259199999999999</v>
+      </c>
+      <c r="J27">
         <v>45</v>
       </c>
-      <c r="K26">
-        <v>100</v>
-      </c>
-      <c r="L26">
-        <v>100</v>
-      </c>
-      <c r="O26" s="33">
-        <f t="shared" si="1"/>
-        <v>177.08909795240731</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27">
-        <v>1807</v>
-      </c>
-      <c r="C27" t="s">
-        <v>130</v>
-      </c>
-      <c r="E27" s="32">
-        <v>1.1105400000000001</v>
-      </c>
-      <c r="F27" s="32">
-        <v>0.18968399999999999</v>
-      </c>
-      <c r="G27" s="32">
-        <v>16.741209000000001</v>
-      </c>
-      <c r="H27" s="32">
-        <v>0.17502799999999999</v>
-      </c>
-      <c r="I27" s="32">
-        <v>0.14104700000000001</v>
-      </c>
-      <c r="J27">
+      <c r="K27">
+        <v>100</v>
+      </c>
+      <c r="L27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <v>1.1018079999999999</v>
+      </c>
+      <c r="F28">
+        <v>0.18247099999999999</v>
+      </c>
+      <c r="G28">
+        <v>15.936114</v>
+      </c>
+      <c r="H28">
+        <v>0.16878099999999999</v>
+      </c>
+      <c r="I28">
+        <v>0.132108</v>
+      </c>
+      <c r="J28">
         <v>46</v>
       </c>
-      <c r="K27">
-        <v>100</v>
-      </c>
-      <c r="L27">
-        <v>100</v>
-      </c>
-      <c r="O27" s="33">
-        <f t="shared" si="1"/>
-        <v>177.08909795240731</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28">
-        <v>1807</v>
-      </c>
-      <c r="C28" t="s">
-        <v>130</v>
-      </c>
-      <c r="E28" s="32">
-        <v>1.1282669999999999</v>
-      </c>
-      <c r="F28" s="32">
-        <v>0.18829699999999999</v>
-      </c>
-      <c r="G28" s="32">
-        <v>15.982008</v>
-      </c>
-      <c r="H28" s="32">
-        <v>0.17574300000000001</v>
-      </c>
-      <c r="I28" s="32">
-        <v>0.134602</v>
-      </c>
-      <c r="J28">
+      <c r="K28">
+        <v>100</v>
+      </c>
+      <c r="L28">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <v>1.081726</v>
+      </c>
+      <c r="F29">
+        <v>0.18215000000000001</v>
+      </c>
+      <c r="G29">
+        <v>15.698267</v>
+      </c>
+      <c r="H29">
+        <v>0.169208</v>
+      </c>
+      <c r="I29">
+        <v>0.13084100000000001</v>
+      </c>
+      <c r="J29">
         <v>47</v>
       </c>
-      <c r="K28">
-        <v>100</v>
-      </c>
-      <c r="L28">
-        <v>100</v>
-      </c>
-      <c r="O28" s="33">
-        <f t="shared" si="1"/>
-        <v>177.08909795240731</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29">
-        <v>1807</v>
-      </c>
-      <c r="C29" t="s">
-        <v>130</v>
-      </c>
-      <c r="E29" s="32">
-        <v>1.198774</v>
-      </c>
-      <c r="F29" s="32">
-        <v>0.19630300000000001</v>
-      </c>
-      <c r="G29" s="32">
-        <v>18.347179000000001</v>
-      </c>
-      <c r="H29" s="32">
-        <v>0.183892</v>
-      </c>
-      <c r="I29" s="32">
-        <v>0.14489199999999999</v>
-      </c>
-      <c r="J29">
+      <c r="K29">
+        <v>100</v>
+      </c>
+      <c r="L29">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <v>1.1062510000000001</v>
+      </c>
+      <c r="F30">
+        <v>0.18592900000000001</v>
+      </c>
+      <c r="G30">
+        <v>16.195312999999999</v>
+      </c>
+      <c r="H30">
+        <v>0.17321700000000001</v>
+      </c>
+      <c r="I30">
+        <v>0.135769</v>
+      </c>
+      <c r="J30">
         <v>48</v>
       </c>
-      <c r="K29">
-        <v>100</v>
-      </c>
-      <c r="L29">
-        <v>100</v>
-      </c>
-      <c r="O29" s="33">
-        <f t="shared" si="1"/>
-        <v>177.08909795240731</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30">
-        <v>1807</v>
-      </c>
-      <c r="C30" t="s">
-        <v>130</v>
-      </c>
-      <c r="E30" s="32">
-        <v>1.21926</v>
-      </c>
-      <c r="F30" s="32">
-        <v>0.19337499999999999</v>
-      </c>
-      <c r="G30" s="32">
-        <v>18.095815999999999</v>
-      </c>
-      <c r="H30" s="32">
-        <v>0.17872399999999999</v>
-      </c>
-      <c r="I30" s="32">
-        <v>0.13577</v>
-      </c>
-      <c r="J30">
+      <c r="K30">
+        <v>100</v>
+      </c>
+      <c r="L30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <v>1.1068610000000001</v>
+      </c>
+      <c r="F31">
+        <v>0.18472</v>
+      </c>
+      <c r="G31">
+        <v>16.393083000000001</v>
+      </c>
+      <c r="H31">
+        <v>0.172156</v>
+      </c>
+      <c r="I31">
+        <v>0.135298</v>
+      </c>
+      <c r="J31">
         <v>49</v>
       </c>
-      <c r="K30">
-        <v>100</v>
-      </c>
-      <c r="L30">
-        <v>100</v>
-      </c>
-      <c r="O30" s="33">
-        <f t="shared" si="1"/>
-        <v>177.08909795240731</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31">
-        <v>1807</v>
-      </c>
-      <c r="C31" t="s">
-        <v>130</v>
-      </c>
-      <c r="E31" s="32">
-        <v>1.139888</v>
-      </c>
-      <c r="F31" s="32">
-        <v>0.18847</v>
-      </c>
-      <c r="G31" s="32">
-        <v>16.218416999999999</v>
-      </c>
-      <c r="H31" s="32">
-        <v>0.17638999999999999</v>
-      </c>
-      <c r="I31" s="32">
-        <v>0.13784299999999999</v>
-      </c>
-      <c r="J31">
+      <c r="K31">
+        <v>100</v>
+      </c>
+      <c r="L31">
         <v>50</v>
       </c>
-      <c r="K31">
-        <v>100</v>
-      </c>
-      <c r="L31">
-        <v>100</v>
-      </c>
-      <c r="O31" s="33">
-        <f t="shared" si="1"/>
-        <v>177.08909795240731</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>129</v>
-      </c>
-      <c r="B32">
-        <v>1807</v>
-      </c>
-      <c r="C32" t="s">
-        <v>130</v>
-      </c>
-      <c r="E32" s="32">
-        <v>1.132541</v>
-      </c>
-      <c r="F32" s="32">
-        <v>0.19054199999999999</v>
-      </c>
-      <c r="G32" s="32">
-        <v>16.246382000000001</v>
-      </c>
-      <c r="H32" s="32">
-        <v>0.17691499999999999</v>
-      </c>
-      <c r="I32" s="32">
-        <v>0.13789499999999999</v>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <v>1.261609</v>
+      </c>
+      <c r="F32">
+        <v>0.194329</v>
+      </c>
+      <c r="G32">
+        <v>19.92032</v>
+      </c>
+      <c r="H32">
+        <v>0.183671</v>
+      </c>
+      <c r="I32">
+        <v>0.14524100000000001</v>
       </c>
       <c r="J32">
+        <v>50</v>
+      </c>
+      <c r="K32">
+        <v>100</v>
+      </c>
+      <c r="L32">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <v>1.1718459999999999</v>
+      </c>
+      <c r="F33">
+        <v>0.18736900000000001</v>
+      </c>
+      <c r="G33">
+        <v>17.1997</v>
+      </c>
+      <c r="H33">
+        <v>0.17655799999999999</v>
+      </c>
+      <c r="I33">
+        <v>0.13827800000000001</v>
+      </c>
+      <c r="J33">
         <v>51</v>
       </c>
-      <c r="K32">
-        <v>100</v>
-      </c>
-      <c r="L32">
-        <v>100</v>
-      </c>
-      <c r="O32" s="33">
-        <f t="shared" si="1"/>
-        <v>177.08909795240731</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E33" s="37">
-        <f>AVERAGE(E23:E32)</f>
-        <v>1.1502005555555554</v>
-      </c>
-      <c r="F33" s="37">
-        <f>AVERAGE(F23:F32)</f>
-        <v>0.19018488888888888</v>
-      </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
-      <c r="O33" s="33"/>
+      <c r="K33">
+        <v>100</v>
+      </c>
+      <c r="L33">
+        <v>50</v>
+      </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E34" s="35">
-        <f>MEDIAN(E23:E32)</f>
-        <v>1.132541</v>
-      </c>
-      <c r="F34" s="35">
-        <f>MEDIAN(F23:F32)</f>
-        <v>0.18968399999999999</v>
-      </c>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="O34" s="33"/>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>129</v>
-      </c>
-      <c r="B36">
-        <v>1807</v>
-      </c>
-      <c r="C36" t="s">
-        <v>130</v>
-      </c>
-      <c r="E36" s="32">
-        <v>1.079744</v>
-      </c>
-      <c r="F36" s="32">
-        <v>0.18457599999999999</v>
-      </c>
-      <c r="G36" s="32">
-        <v>15.411961</v>
-      </c>
-      <c r="H36" s="32">
-        <v>0.171482</v>
-      </c>
-      <c r="I36" s="32">
-        <v>0.13309099999999999</v>
-      </c>
-      <c r="J36">
-        <v>42</v>
-      </c>
-      <c r="K36">
-        <v>113</v>
-      </c>
-      <c r="L36">
-        <v>50</v>
-      </c>
-      <c r="O36" s="33">
-        <f t="shared" ref="O36:O45" si="2">(32*K36*L36)/B36</f>
-        <v>100.05534034311013</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>129</v>
-      </c>
-      <c r="B37">
-        <v>1807</v>
-      </c>
-      <c r="C37" t="s">
-        <v>130</v>
-      </c>
-      <c r="E37" s="32">
-        <v>1.0933440000000001</v>
-      </c>
-      <c r="F37" s="32">
-        <v>0.18406900000000001</v>
-      </c>
-      <c r="G37" s="32">
-        <v>16.941441999999999</v>
-      </c>
-      <c r="H37" s="32">
-        <v>0.16956299999999999</v>
-      </c>
-      <c r="I37" s="32">
-        <v>0.13597799999999999</v>
-      </c>
-      <c r="J37">
-        <v>43</v>
-      </c>
-      <c r="K37">
-        <v>113</v>
-      </c>
-      <c r="L37">
-        <v>50</v>
-      </c>
-      <c r="O37" s="33">
-        <f t="shared" si="2"/>
-        <v>100.05534034311013</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>129</v>
-      </c>
-      <c r="B38">
-        <v>1807</v>
-      </c>
-      <c r="C38" t="s">
-        <v>130</v>
-      </c>
-      <c r="E38" s="32">
-        <v>1.080789</v>
-      </c>
-      <c r="F38" s="32">
-        <v>0.18368399999999999</v>
-      </c>
-      <c r="G38" s="32">
-        <v>15.570356</v>
-      </c>
-      <c r="H38" s="32">
-        <v>0.168409</v>
-      </c>
-      <c r="I38" s="32">
-        <v>0.13345799999999999</v>
-      </c>
-      <c r="J38">
-        <v>44</v>
-      </c>
-      <c r="K38">
-        <v>113</v>
-      </c>
-      <c r="L38">
-        <v>50</v>
-      </c>
-      <c r="O38" s="33">
-        <f t="shared" si="2"/>
-        <v>100.05534034311013</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>129</v>
-      </c>
-      <c r="B39">
-        <v>1807</v>
-      </c>
-      <c r="C39" t="s">
-        <v>130</v>
-      </c>
-      <c r="E39" s="32">
-        <v>1.1031960000000001</v>
-      </c>
-      <c r="F39" s="32">
-        <v>0.183781</v>
-      </c>
-      <c r="G39" s="32">
-        <v>15.87764</v>
-      </c>
-      <c r="H39" s="32">
-        <v>0.17121</v>
-      </c>
-      <c r="I39" s="32">
-        <v>0.13463600000000001</v>
-      </c>
-      <c r="J39">
-        <v>45</v>
-      </c>
-      <c r="K39">
-        <v>113</v>
-      </c>
-      <c r="L39">
-        <v>50</v>
-      </c>
-      <c r="O39" s="33">
-        <f t="shared" si="2"/>
-        <v>100.05534034311013</v>
+      <c r="E34" s="37">
+        <f>AVERAGE(E24:E33)</f>
+        <v>1.1165455</v>
+      </c>
+      <c r="F34" s="37">
+        <f>AVERAGE(F24:F33)</f>
+        <v>0.18513860000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E35" s="35">
+        <f>MEDIAN(E24:E33)</f>
+        <v>1.097877</v>
+      </c>
+      <c r="F35" s="35">
+        <f>MEDIAN(F24:F33)</f>
+        <v>0.18417149999999999</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.35">
@@ -2944,32 +2701,32 @@
         <v>130</v>
       </c>
       <c r="E40" s="32">
-        <v>1.1026499999999999</v>
+        <v>1.095018</v>
       </c>
       <c r="F40" s="32">
-        <v>0.182306</v>
+        <v>0.186394</v>
       </c>
       <c r="G40" s="32">
-        <v>15.934274</v>
+        <v>16.173891999999999</v>
       </c>
       <c r="H40" s="32">
-        <v>0.16875699999999999</v>
+        <v>0.17027400000000001</v>
       </c>
       <c r="I40" s="32">
-        <v>0.131965</v>
+        <v>0.133715</v>
       </c>
       <c r="J40">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K40">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="L40">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O40" s="33">
-        <f t="shared" si="2"/>
-        <v>100.05534034311013</v>
+        <f t="shared" ref="O40:O48" si="1">(32*K40*L40)/B40</f>
+        <v>177.08909795240731</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.35">
@@ -2983,32 +2740,32 @@
         <v>130</v>
       </c>
       <c r="E41" s="32">
-        <v>1.0848260000000001</v>
+        <v>1.1134790000000001</v>
       </c>
       <c r="F41" s="32">
-        <v>0.182612</v>
+        <v>0.186524</v>
       </c>
       <c r="G41" s="32">
-        <v>15.874162999999999</v>
+        <v>15.712464000000001</v>
       </c>
       <c r="H41" s="32">
-        <v>0.16983100000000001</v>
+        <v>0.173148</v>
       </c>
       <c r="I41" s="32">
-        <v>0.13170899999999999</v>
+        <v>0.13456199999999999</v>
       </c>
       <c r="J41">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K41">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="L41">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O41" s="33">
-        <f t="shared" si="2"/>
-        <v>100.05534034311013</v>
+        <f t="shared" si="1"/>
+        <v>177.08909795240731</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.35">
@@ -3022,32 +2779,32 @@
         <v>130</v>
       </c>
       <c r="E42" s="32">
-        <v>1.108096</v>
+        <v>1.214038</v>
       </c>
       <c r="F42" s="32">
-        <v>0.18608</v>
+        <v>0.192075</v>
       </c>
       <c r="G42" s="32">
-        <v>16.182770999999999</v>
+        <v>17.28293</v>
       </c>
       <c r="H42" s="32">
-        <v>0.173318</v>
+        <v>0.184116</v>
       </c>
       <c r="I42" s="32">
-        <v>0.135911</v>
+        <v>0.13971500000000001</v>
       </c>
       <c r="J42">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K42">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="L42">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O42" s="33">
-        <f t="shared" si="2"/>
-        <v>100.05534034311013</v>
+        <f t="shared" si="1"/>
+        <v>177.08909795240731</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.35">
@@ -3061,32 +2818,32 @@
         <v>130</v>
       </c>
       <c r="E43" s="32">
-        <v>1.104206</v>
+        <v>1.1105400000000001</v>
       </c>
       <c r="F43" s="32">
-        <v>0.18442800000000001</v>
+        <v>0.18968399999999999</v>
       </c>
       <c r="G43" s="32">
-        <v>16.321397000000001</v>
+        <v>16.741209000000001</v>
       </c>
       <c r="H43" s="32">
-        <v>0.17196800000000001</v>
+        <v>0.17502799999999999</v>
       </c>
       <c r="I43" s="32">
-        <v>0.13553100000000001</v>
+        <v>0.14104700000000001</v>
       </c>
       <c r="J43">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K43">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="L43">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O43" s="33">
-        <f t="shared" si="2"/>
-        <v>100.05534034311013</v>
+        <f t="shared" si="1"/>
+        <v>177.08909795240731</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.35">
@@ -3100,32 +2857,32 @@
         <v>130</v>
       </c>
       <c r="E44" s="32">
-        <v>1.1067130000000001</v>
+        <v>1.1282669999999999</v>
       </c>
       <c r="F44" s="32">
-        <v>0.18540799999999999</v>
+        <v>0.18829699999999999</v>
       </c>
       <c r="G44" s="32">
-        <v>16.197013999999999</v>
+        <v>15.982008</v>
       </c>
       <c r="H44" s="32">
-        <v>0.17147499999999999</v>
+        <v>0.17574300000000001</v>
       </c>
       <c r="I44" s="32">
-        <v>0.134908</v>
+        <v>0.134602</v>
       </c>
       <c r="J44">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K44">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="L44">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="O44" s="33">
-        <f t="shared" si="2"/>
-        <v>100.05534034311013</v>
+        <f t="shared" si="1"/>
+        <v>177.08909795240731</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.35">
@@ -3139,170 +2896,178 @@
         <v>130</v>
       </c>
       <c r="E45" s="32">
-        <v>1.1746859999999999</v>
+        <v>1.198774</v>
       </c>
       <c r="F45" s="32">
-        <v>0.18779199999999999</v>
+        <v>0.19630300000000001</v>
       </c>
       <c r="G45" s="32">
-        <v>17.233007000000001</v>
+        <v>18.347179000000001</v>
       </c>
       <c r="H45" s="32">
-        <v>0.17680199999999999</v>
+        <v>0.183892</v>
       </c>
       <c r="I45" s="32">
-        <v>0.13866000000000001</v>
+        <v>0.14489199999999999</v>
       </c>
       <c r="J45">
+        <v>48</v>
+      </c>
+      <c r="K45">
+        <v>100</v>
+      </c>
+      <c r="L45">
+        <v>100</v>
+      </c>
+      <c r="O45" s="33">
+        <f t="shared" si="1"/>
+        <v>177.08909795240731</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46">
+        <v>1807</v>
+      </c>
+      <c r="C46" t="s">
+        <v>130</v>
+      </c>
+      <c r="E46" s="32">
+        <v>1.21926</v>
+      </c>
+      <c r="F46" s="32">
+        <v>0.19337499999999999</v>
+      </c>
+      <c r="G46" s="32">
+        <v>18.095815999999999</v>
+      </c>
+      <c r="H46" s="32">
+        <v>0.17872399999999999</v>
+      </c>
+      <c r="I46" s="32">
+        <v>0.13577</v>
+      </c>
+      <c r="J46">
+        <v>49</v>
+      </c>
+      <c r="K46">
+        <v>100</v>
+      </c>
+      <c r="L46">
+        <v>100</v>
+      </c>
+      <c r="O46" s="33">
+        <f t="shared" si="1"/>
+        <v>177.08909795240731</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>129</v>
+      </c>
+      <c r="B47">
+        <v>1807</v>
+      </c>
+      <c r="C47" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" s="32">
+        <v>1.139888</v>
+      </c>
+      <c r="F47" s="32">
+        <v>0.18847</v>
+      </c>
+      <c r="G47" s="32">
+        <v>16.218416999999999</v>
+      </c>
+      <c r="H47" s="32">
+        <v>0.17638999999999999</v>
+      </c>
+      <c r="I47" s="32">
+        <v>0.13784299999999999</v>
+      </c>
+      <c r="J47">
+        <v>50</v>
+      </c>
+      <c r="K47">
+        <v>100</v>
+      </c>
+      <c r="L47">
+        <v>100</v>
+      </c>
+      <c r="O47" s="33">
+        <f t="shared" si="1"/>
+        <v>177.08909795240731</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>129</v>
+      </c>
+      <c r="B48">
+        <v>1807</v>
+      </c>
+      <c r="C48" t="s">
+        <v>130</v>
+      </c>
+      <c r="E48" s="32">
+        <v>1.132541</v>
+      </c>
+      <c r="F48" s="32">
+        <v>0.19054199999999999</v>
+      </c>
+      <c r="G48" s="32">
+        <v>16.246382000000001</v>
+      </c>
+      <c r="H48" s="32">
+        <v>0.17691499999999999</v>
+      </c>
+      <c r="I48" s="32">
+        <v>0.13789499999999999</v>
+      </c>
+      <c r="J48">
         <v>51</v>
       </c>
-      <c r="K45">
-        <v>113</v>
-      </c>
-      <c r="L45">
-        <v>50</v>
-      </c>
-      <c r="O45" s="33">
-        <f t="shared" si="2"/>
-        <v>100.05534034311013</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E46" s="37">
-        <f>AVERAGE(E36:E45)</f>
-        <v>1.1038250000000001</v>
-      </c>
-      <c r="F46" s="37">
-        <f>AVERAGE(F36:F45)</f>
-        <v>0.18447359999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E47" s="35">
-        <f>MEDIAN(E36:E45)</f>
-        <v>1.1029230000000001</v>
-      </c>
-      <c r="F47" s="35">
-        <f>MEDIAN(F36:F45)</f>
-        <v>0.18424850000000001</v>
+      <c r="K48">
+        <v>100</v>
+      </c>
+      <c r="L48">
+        <v>100</v>
+      </c>
+      <c r="O48" s="33">
+        <f t="shared" si="1"/>
+        <v>177.08909795240731</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>129</v>
-      </c>
-      <c r="B49">
-        <v>1807</v>
-      </c>
-      <c r="C49" t="s">
-        <v>130</v>
-      </c>
-      <c r="E49" s="32">
-        <v>1.160452</v>
-      </c>
-      <c r="F49" s="32">
-        <v>0.196463</v>
-      </c>
-      <c r="G49" s="32">
-        <v>17.471643</v>
-      </c>
-      <c r="H49" s="32">
-        <v>0.18029800000000001</v>
-      </c>
-      <c r="I49" s="32">
-        <v>0.141814</v>
-      </c>
-      <c r="J49">
-        <v>42</v>
-      </c>
-      <c r="K49">
-        <v>200</v>
-      </c>
-      <c r="L49">
-        <v>100</v>
-      </c>
-      <c r="O49" s="33">
-        <f t="shared" ref="O49:O58" si="3">(32*K49*L49)/B49</f>
-        <v>354.17819590481463</v>
-      </c>
+      <c r="E49" s="37">
+        <f>AVERAGE(E23:E48)</f>
+        <v>1.1300801190476188</v>
+      </c>
+      <c r="F49" s="37">
+        <f>AVERAGE(F23:F48)</f>
+        <v>0.18725524285714287</v>
+      </c>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="O49" s="33"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>129</v>
-      </c>
-      <c r="B50">
-        <v>1807</v>
-      </c>
-      <c r="C50" t="s">
-        <v>130</v>
-      </c>
-      <c r="E50" s="32">
-        <v>1.120709</v>
-      </c>
-      <c r="F50" s="32">
-        <v>0.188413</v>
-      </c>
-      <c r="G50" s="32">
-        <v>16.535841999999999</v>
-      </c>
-      <c r="H50" s="32">
-        <v>0.17533099999999999</v>
-      </c>
-      <c r="I50" s="32">
-        <v>0.13877600000000001</v>
-      </c>
-      <c r="J50">
-        <v>43</v>
-      </c>
-      <c r="K50">
-        <v>200</v>
-      </c>
-      <c r="L50">
-        <v>100</v>
-      </c>
-      <c r="O50" s="33">
-        <f t="shared" si="3"/>
-        <v>354.17819590481463</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>129</v>
-      </c>
-      <c r="B51">
-        <v>1807</v>
-      </c>
-      <c r="C51" t="s">
-        <v>130</v>
-      </c>
-      <c r="E51" s="32">
-        <v>1.0949739999999999</v>
-      </c>
-      <c r="F51" s="32">
-        <v>0.18948799999999999</v>
-      </c>
-      <c r="G51" s="32">
-        <v>15.544219999999999</v>
-      </c>
-      <c r="H51" s="32">
-        <v>0.173905</v>
-      </c>
-      <c r="I51" s="32">
-        <v>0.13516600000000001</v>
-      </c>
-      <c r="J51">
-        <v>44</v>
-      </c>
-      <c r="K51">
-        <v>200</v>
-      </c>
-      <c r="L51">
-        <v>100</v>
-      </c>
-      <c r="O51" s="33">
-        <f t="shared" si="3"/>
-        <v>354.17819590481463</v>
-      </c>
+      <c r="E50" s="35">
+        <f>MEDIAN(E23:E48)</f>
+        <v>1.1105400000000001</v>
+      </c>
+      <c r="F50" s="35">
+        <f>MEDIAN(F23:F48)</f>
+        <v>0.186394</v>
+      </c>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="O50" s="33"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
@@ -3315,32 +3080,32 @@
         <v>130</v>
       </c>
       <c r="E52" s="32">
-        <v>1.12721</v>
+        <v>1.079744</v>
       </c>
       <c r="F52" s="32">
-        <v>0.18562200000000001</v>
+        <v>0.18457599999999999</v>
       </c>
       <c r="G52" s="32">
-        <v>15.920089000000001</v>
+        <v>15.411961</v>
       </c>
       <c r="H52" s="32">
-        <v>0.17454</v>
+        <v>0.171482</v>
       </c>
       <c r="I52" s="32">
-        <v>0.13442000000000001</v>
+        <v>0.13309099999999999</v>
       </c>
       <c r="J52">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K52">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="L52">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O52" s="33">
-        <f t="shared" si="3"/>
-        <v>354.17819590481463</v>
+        <f t="shared" ref="O52:O61" si="2">(32*K52*L52)/B52</f>
+        <v>100.05534034311013</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
@@ -3354,32 +3119,32 @@
         <v>130</v>
       </c>
       <c r="E53" s="32">
-        <v>1.099734</v>
+        <v>1.0933440000000001</v>
       </c>
       <c r="F53" s="32">
-        <v>0.188695</v>
+        <v>0.18406900000000001</v>
       </c>
       <c r="G53" s="32">
-        <v>16.611190000000001</v>
+        <v>16.941441999999999</v>
       </c>
       <c r="H53" s="32">
-        <v>0.174206</v>
+        <v>0.16956299999999999</v>
       </c>
       <c r="I53" s="32">
-        <v>0.14257600000000001</v>
+        <v>0.13597799999999999</v>
       </c>
       <c r="J53">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K53">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="L53">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O53" s="33">
-        <f t="shared" si="3"/>
-        <v>354.17819590481463</v>
+        <f t="shared" si="2"/>
+        <v>100.05534034311013</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
@@ -3393,32 +3158,32 @@
         <v>130</v>
       </c>
       <c r="E54" s="32">
-        <v>1.0983480000000001</v>
+        <v>1.080789</v>
       </c>
       <c r="F54" s="32">
-        <v>0.189799</v>
+        <v>0.18368399999999999</v>
       </c>
       <c r="G54" s="32">
-        <v>15.320322000000001</v>
+        <v>15.570356</v>
       </c>
       <c r="H54" s="32">
-        <v>0.17482700000000001</v>
+        <v>0.168409</v>
       </c>
       <c r="I54" s="32">
-        <v>0.13339000000000001</v>
+        <v>0.13345799999999999</v>
       </c>
       <c r="J54">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K54">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="L54">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O54" s="33">
-        <f t="shared" si="3"/>
-        <v>354.17819590481463</v>
+        <f t="shared" si="2"/>
+        <v>100.05534034311013</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
@@ -3432,32 +3197,32 @@
         <v>130</v>
       </c>
       <c r="E55" s="32">
-        <v>1.103891</v>
+        <v>1.1031960000000001</v>
       </c>
       <c r="F55" s="32">
-        <v>0.18590799999999999</v>
+        <v>0.183781</v>
       </c>
       <c r="G55" s="32">
-        <v>15.877840000000001</v>
+        <v>15.87764</v>
       </c>
       <c r="H55" s="32">
-        <v>0.174731</v>
+        <v>0.17121</v>
       </c>
       <c r="I55" s="32">
-        <v>0.136739</v>
+        <v>0.13463600000000001</v>
       </c>
       <c r="J55">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K55">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="L55">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O55" s="33">
-        <f t="shared" si="3"/>
-        <v>354.17819590481463</v>
+        <f t="shared" si="2"/>
+        <v>100.05534034311013</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
@@ -3471,32 +3236,32 @@
         <v>130</v>
       </c>
       <c r="E56" s="32">
-        <v>1.158148</v>
+        <v>1.1026499999999999</v>
       </c>
       <c r="F56" s="32">
-        <v>0.190415</v>
+        <v>0.182306</v>
       </c>
       <c r="G56" s="32">
-        <v>16.859808000000001</v>
+        <v>15.934274</v>
       </c>
       <c r="H56" s="32">
-        <v>0.175536</v>
+        <v>0.16875699999999999</v>
       </c>
       <c r="I56" s="32">
-        <v>0.13752800000000001</v>
+        <v>0.131965</v>
       </c>
       <c r="J56">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K56">
-        <v>200</v>
+        <v>113</v>
       </c>
       <c r="L56">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="O56" s="33">
-        <f t="shared" si="3"/>
-        <v>354.17819590481463</v>
+        <f t="shared" si="2"/>
+        <v>100.05534034311013</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
@@ -3510,32 +3275,32 @@
         <v>130</v>
       </c>
       <c r="E57" s="32">
-        <v>1.1229880000000001</v>
+        <v>1.0848260000000001</v>
       </c>
       <c r="F57" s="32">
-        <v>0.18917900000000001</v>
+        <v>0.182612</v>
       </c>
       <c r="G57" s="32">
-        <v>15.949052</v>
+        <v>15.874162999999999</v>
       </c>
       <c r="H57" s="32">
-        <v>0.17657200000000001</v>
+        <v>0.16983100000000001</v>
       </c>
       <c r="I57" s="32">
-        <v>0.13686400000000001</v>
+        <v>0.13170899999999999</v>
       </c>
       <c r="J57">
+        <v>47</v>
+      </c>
+      <c r="K57">
+        <v>113</v>
+      </c>
+      <c r="L57">
         <v>50</v>
       </c>
-      <c r="K57">
-        <v>200</v>
-      </c>
-      <c r="L57">
-        <v>100</v>
-      </c>
       <c r="O57" s="33">
-        <f t="shared" si="3"/>
-        <v>354.17819590481463</v>
+        <f t="shared" si="2"/>
+        <v>100.05534034311013</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
@@ -3549,169 +3314,169 @@
         <v>130</v>
       </c>
       <c r="E58" s="32">
-        <v>1.112393</v>
+        <v>1.108096</v>
       </c>
       <c r="F58" s="32">
-        <v>0.186667</v>
+        <v>0.18608</v>
       </c>
       <c r="G58" s="32">
-        <v>15.015276</v>
+        <v>16.182770999999999</v>
       </c>
       <c r="H58" s="32">
-        <v>0.17182500000000001</v>
+        <v>0.173318</v>
       </c>
       <c r="I58" s="32">
-        <v>0.13401099999999999</v>
+        <v>0.135911</v>
       </c>
       <c r="J58">
+        <v>48</v>
+      </c>
+      <c r="K58">
+        <v>113</v>
+      </c>
+      <c r="L58">
+        <v>50</v>
+      </c>
+      <c r="O58" s="33">
+        <f t="shared" si="2"/>
+        <v>100.05534034311013</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>129</v>
+      </c>
+      <c r="B59">
+        <v>1807</v>
+      </c>
+      <c r="C59" t="s">
+        <v>130</v>
+      </c>
+      <c r="E59" s="32">
+        <v>1.104206</v>
+      </c>
+      <c r="F59" s="32">
+        <v>0.18442800000000001</v>
+      </c>
+      <c r="G59" s="32">
+        <v>16.321397000000001</v>
+      </c>
+      <c r="H59" s="32">
+        <v>0.17196800000000001</v>
+      </c>
+      <c r="I59" s="32">
+        <v>0.13553100000000001</v>
+      </c>
+      <c r="J59">
+        <v>49</v>
+      </c>
+      <c r="K59">
+        <v>113</v>
+      </c>
+      <c r="L59">
+        <v>50</v>
+      </c>
+      <c r="O59" s="33">
+        <f t="shared" si="2"/>
+        <v>100.05534034311013</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60">
+        <v>1807</v>
+      </c>
+      <c r="C60" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60" s="32">
+        <v>1.1067130000000001</v>
+      </c>
+      <c r="F60" s="32">
+        <v>0.18540799999999999</v>
+      </c>
+      <c r="G60" s="32">
+        <v>16.197013999999999</v>
+      </c>
+      <c r="H60" s="32">
+        <v>0.17147499999999999</v>
+      </c>
+      <c r="I60" s="32">
+        <v>0.134908</v>
+      </c>
+      <c r="J60">
+        <v>50</v>
+      </c>
+      <c r="K60">
+        <v>113</v>
+      </c>
+      <c r="L60">
+        <v>50</v>
+      </c>
+      <c r="O60" s="33">
+        <f t="shared" si="2"/>
+        <v>100.05534034311013</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61">
+        <v>1807</v>
+      </c>
+      <c r="C61" t="s">
+        <v>130</v>
+      </c>
+      <c r="E61" s="32">
+        <v>1.1746859999999999</v>
+      </c>
+      <c r="F61" s="32">
+        <v>0.18779199999999999</v>
+      </c>
+      <c r="G61" s="32">
+        <v>17.233007000000001</v>
+      </c>
+      <c r="H61" s="32">
+        <v>0.17680199999999999</v>
+      </c>
+      <c r="I61" s="32">
+        <v>0.13866000000000001</v>
+      </c>
+      <c r="J61">
         <v>51</v>
       </c>
-      <c r="K58">
-        <v>200</v>
-      </c>
-      <c r="L58">
-        <v>100</v>
-      </c>
-      <c r="O58" s="33">
-        <f t="shared" si="3"/>
-        <v>354.17819590481463</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E59" s="37">
-        <f>AVERAGE(E49:E58)</f>
-        <v>1.1198846999999996</v>
-      </c>
-      <c r="F59" s="37">
-        <f>AVERAGE(F49:F58)</f>
-        <v>0.18906490000000001</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E60" s="35">
-        <f>MEDIAN(E49:E58)</f>
-        <v>1.1165509999999998</v>
-      </c>
-      <c r="F60" s="35">
-        <f>MEDIAN(F49:F58)</f>
-        <v>0.18893700000000002</v>
+      <c r="K61">
+        <v>113</v>
+      </c>
+      <c r="L61">
+        <v>50</v>
+      </c>
+      <c r="O61" s="33">
+        <f t="shared" si="2"/>
+        <v>100.05534034311013</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>129</v>
-      </c>
-      <c r="B62">
-        <v>1807</v>
-      </c>
-      <c r="C62" t="s">
-        <v>130</v>
-      </c>
-      <c r="E62" s="32">
-        <v>1.106376</v>
-      </c>
-      <c r="F62" s="32">
-        <v>0.192666</v>
-      </c>
-      <c r="G62" s="32">
-        <v>16.271660000000001</v>
-      </c>
-      <c r="H62" s="32">
-        <v>0.175873</v>
-      </c>
-      <c r="I62" s="32">
-        <v>0.13747400000000001</v>
-      </c>
-      <c r="J62">
-        <v>42</v>
-      </c>
-      <c r="K62">
-        <v>500</v>
-      </c>
-      <c r="L62">
-        <v>100</v>
-      </c>
-      <c r="O62" s="33">
-        <f t="shared" ref="O62:O71" si="4">(32*K62*L62)/B62</f>
-        <v>885.44548976203657</v>
+      <c r="E62" s="37">
+        <f>AVERAGE(E52:E61)</f>
+        <v>1.1038250000000001</v>
+      </c>
+      <c r="F62" s="37">
+        <f>AVERAGE(F52:F61)</f>
+        <v>0.18447359999999999</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>129</v>
-      </c>
-      <c r="B63">
-        <v>1807</v>
-      </c>
-      <c r="C63" t="s">
-        <v>130</v>
-      </c>
-      <c r="E63" s="32">
-        <v>1.111084</v>
-      </c>
-      <c r="F63" s="32">
-        <v>0.19040199999999999</v>
-      </c>
-      <c r="G63" s="32">
-        <v>16.584809</v>
-      </c>
-      <c r="H63" s="32">
-        <v>0.175868</v>
-      </c>
-      <c r="I63" s="32">
-        <v>0.14185700000000001</v>
-      </c>
-      <c r="J63">
-        <v>43</v>
-      </c>
-      <c r="K63">
-        <v>500</v>
-      </c>
-      <c r="L63">
-        <v>100</v>
-      </c>
-      <c r="O63" s="33">
-        <f t="shared" si="4"/>
-        <v>885.44548976203657</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>129</v>
-      </c>
-      <c r="B64">
-        <v>1807</v>
-      </c>
-      <c r="C64" t="s">
-        <v>130</v>
-      </c>
-      <c r="E64" s="32">
-        <v>1.1224449999999999</v>
-      </c>
-      <c r="F64" s="32">
-        <v>0.19159699999999999</v>
-      </c>
-      <c r="G64" s="32">
-        <v>16.115463999999999</v>
-      </c>
-      <c r="H64" s="32">
-        <v>0.176896</v>
-      </c>
-      <c r="I64" s="32">
-        <v>0.13922000000000001</v>
-      </c>
-      <c r="J64">
-        <v>44</v>
-      </c>
-      <c r="K64">
-        <v>500</v>
-      </c>
-      <c r="L64">
-        <v>100</v>
-      </c>
-      <c r="O64" s="33">
-        <f t="shared" si="4"/>
-        <v>885.44548976203657</v>
+      <c r="E63" s="35">
+        <f>MEDIAN(E52:E61)</f>
+        <v>1.1029230000000001</v>
+      </c>
+      <c r="F63" s="35">
+        <f>MEDIAN(F52:F61)</f>
+        <v>0.18424850000000001</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
@@ -3725,32 +3490,32 @@
         <v>130</v>
       </c>
       <c r="E65" s="32">
-        <v>1.1396230000000001</v>
+        <v>1.160452</v>
       </c>
       <c r="F65" s="32">
-        <v>0.190749</v>
+        <v>0.196463</v>
       </c>
       <c r="G65" s="32">
-        <v>16.011807999999998</v>
+        <v>17.471643</v>
       </c>
       <c r="H65" s="32">
-        <v>0.17874699999999999</v>
+        <v>0.18029800000000001</v>
       </c>
       <c r="I65" s="32">
-        <v>0.135467</v>
+        <v>0.141814</v>
       </c>
       <c r="J65">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K65">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L65">
         <v>100</v>
       </c>
       <c r="O65" s="33">
-        <f t="shared" si="4"/>
-        <v>885.44548976203657</v>
+        <f t="shared" ref="O65:O74" si="3">(32*K65*L65)/B65</f>
+        <v>354.17819590481463</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.35">
@@ -3764,32 +3529,32 @@
         <v>130</v>
       </c>
       <c r="E66" s="32">
-        <v>1.1060719999999999</v>
+        <v>1.120709</v>
       </c>
       <c r="F66" s="32">
-        <v>0.19131999999999999</v>
+        <v>0.188413</v>
       </c>
       <c r="G66" s="32">
-        <v>16.958991999999999</v>
+        <v>16.535841999999999</v>
       </c>
       <c r="H66" s="32">
-        <v>0.176172</v>
+        <v>0.17533099999999999</v>
       </c>
       <c r="I66" s="32">
-        <v>0.14205799999999999</v>
+        <v>0.13877600000000001</v>
       </c>
       <c r="J66">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="K66">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L66">
         <v>100</v>
       </c>
       <c r="O66" s="33">
-        <f t="shared" si="4"/>
-        <v>885.44548976203657</v>
+        <f t="shared" si="3"/>
+        <v>354.17819590481463</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.35">
@@ -3803,32 +3568,32 @@
         <v>130</v>
       </c>
       <c r="E67" s="32">
-        <v>1.1421110000000001</v>
+        <v>1.0949739999999999</v>
       </c>
       <c r="F67" s="32">
-        <v>0.19577800000000001</v>
+        <v>0.18948799999999999</v>
       </c>
       <c r="G67" s="32">
-        <v>16.430437000000001</v>
+        <v>15.544219999999999</v>
       </c>
       <c r="H67" s="32">
-        <v>0.180505</v>
+        <v>0.173905</v>
       </c>
       <c r="I67" s="32">
-        <v>0.141706</v>
+        <v>0.13516600000000001</v>
       </c>
       <c r="J67">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K67">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L67">
         <v>100</v>
       </c>
       <c r="O67" s="33">
-        <f t="shared" si="4"/>
-        <v>885.44548976203657</v>
+        <f t="shared" si="3"/>
+        <v>354.17819590481463</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.35">
@@ -3842,32 +3607,32 @@
         <v>130</v>
       </c>
       <c r="E68" s="32">
-        <v>1.1068249999999999</v>
+        <v>1.12721</v>
       </c>
       <c r="F68" s="32">
-        <v>0.18874299999999999</v>
+        <v>0.18562200000000001</v>
       </c>
       <c r="G68" s="32">
-        <v>16.140993000000002</v>
+        <v>15.920089000000001</v>
       </c>
       <c r="H68" s="32">
-        <v>0.173205</v>
+        <v>0.17454</v>
       </c>
       <c r="I68" s="32">
-        <v>0.13647500000000001</v>
+        <v>0.13442000000000001</v>
       </c>
       <c r="J68">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K68">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L68">
         <v>100</v>
       </c>
       <c r="O68" s="33">
-        <f t="shared" si="4"/>
-        <v>885.44548976203657</v>
+        <f t="shared" si="3"/>
+        <v>354.17819590481463</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.35">
@@ -3881,32 +3646,32 @@
         <v>130</v>
       </c>
       <c r="E69" s="32">
-        <v>1.0956060000000001</v>
+        <v>1.099734</v>
       </c>
       <c r="F69" s="32">
-        <v>0.185999</v>
+        <v>0.188695</v>
       </c>
       <c r="G69" s="32">
-        <v>15.872949999999999</v>
+        <v>16.611190000000001</v>
       </c>
       <c r="H69" s="32">
-        <v>0.172454</v>
+        <v>0.174206</v>
       </c>
       <c r="I69" s="32">
-        <v>0.13603699999999999</v>
+        <v>0.14257600000000001</v>
       </c>
       <c r="J69">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K69">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L69">
         <v>100</v>
       </c>
       <c r="O69" s="33">
-        <f t="shared" si="4"/>
-        <v>885.44548976203657</v>
+        <f t="shared" si="3"/>
+        <v>354.17819590481463</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.35">
@@ -3920,32 +3685,32 @@
         <v>130</v>
       </c>
       <c r="E70" s="32">
-        <v>1.138922</v>
+        <v>1.0983480000000001</v>
       </c>
       <c r="F70" s="32">
-        <v>0.191797</v>
+        <v>0.189799</v>
       </c>
       <c r="G70" s="32">
-        <v>15.922606999999999</v>
+        <v>15.320322000000001</v>
       </c>
       <c r="H70" s="32">
-        <v>0.177369</v>
+        <v>0.17482700000000001</v>
       </c>
       <c r="I70" s="32">
-        <v>0.138626</v>
+        <v>0.13339000000000001</v>
       </c>
       <c r="J70">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K70">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="L70">
         <v>100</v>
       </c>
       <c r="O70" s="33">
-        <f t="shared" si="4"/>
-        <v>885.44548976203657</v>
+        <f t="shared" si="3"/>
+        <v>354.17819590481463</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.35">
@@ -3959,51 +3724,708 @@
         <v>130</v>
       </c>
       <c r="E71" s="32">
-        <v>1.124503</v>
+        <v>1.103891</v>
       </c>
       <c r="F71" s="32">
-        <v>0.19287299999999999</v>
+        <v>0.18590799999999999</v>
       </c>
       <c r="G71" s="32">
-        <v>16.250357000000001</v>
+        <v>15.877840000000001</v>
       </c>
       <c r="H71" s="32">
-        <v>0.17937800000000001</v>
+        <v>0.174731</v>
       </c>
       <c r="I71" s="32">
-        <v>0.13917199999999999</v>
+        <v>0.136739</v>
       </c>
       <c r="J71">
+        <v>48</v>
+      </c>
+      <c r="K71">
+        <v>200</v>
+      </c>
+      <c r="L71">
+        <v>100</v>
+      </c>
+      <c r="O71" s="33">
+        <f t="shared" si="3"/>
+        <v>354.17819590481463</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>129</v>
+      </c>
+      <c r="B72">
+        <v>1807</v>
+      </c>
+      <c r="C72" t="s">
+        <v>130</v>
+      </c>
+      <c r="E72" s="32">
+        <v>1.158148</v>
+      </c>
+      <c r="F72" s="32">
+        <v>0.190415</v>
+      </c>
+      <c r="G72" s="32">
+        <v>16.859808000000001</v>
+      </c>
+      <c r="H72" s="32">
+        <v>0.175536</v>
+      </c>
+      <c r="I72" s="32">
+        <v>0.13752800000000001</v>
+      </c>
+      <c r="J72">
+        <v>49</v>
+      </c>
+      <c r="K72">
+        <v>200</v>
+      </c>
+      <c r="L72">
+        <v>100</v>
+      </c>
+      <c r="O72" s="33">
+        <f t="shared" si="3"/>
+        <v>354.17819590481463</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>129</v>
+      </c>
+      <c r="B73">
+        <v>1807</v>
+      </c>
+      <c r="C73" t="s">
+        <v>130</v>
+      </c>
+      <c r="E73" s="32">
+        <v>1.1229880000000001</v>
+      </c>
+      <c r="F73" s="32">
+        <v>0.18917900000000001</v>
+      </c>
+      <c r="G73" s="32">
+        <v>15.949052</v>
+      </c>
+      <c r="H73" s="32">
+        <v>0.17657200000000001</v>
+      </c>
+      <c r="I73" s="32">
+        <v>0.13686400000000001</v>
+      </c>
+      <c r="J73">
+        <v>50</v>
+      </c>
+      <c r="K73">
+        <v>200</v>
+      </c>
+      <c r="L73">
+        <v>100</v>
+      </c>
+      <c r="O73" s="33">
+        <f t="shared" si="3"/>
+        <v>354.17819590481463</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>129</v>
+      </c>
+      <c r="B74">
+        <v>1807</v>
+      </c>
+      <c r="C74" t="s">
+        <v>130</v>
+      </c>
+      <c r="E74" s="32">
+        <v>1.112393</v>
+      </c>
+      <c r="F74" s="32">
+        <v>0.186667</v>
+      </c>
+      <c r="G74" s="32">
+        <v>15.015276</v>
+      </c>
+      <c r="H74" s="32">
+        <v>0.17182500000000001</v>
+      </c>
+      <c r="I74" s="32">
+        <v>0.13401099999999999</v>
+      </c>
+      <c r="J74">
         <v>51</v>
       </c>
-      <c r="K71">
+      <c r="K74">
+        <v>200</v>
+      </c>
+      <c r="L74">
+        <v>100</v>
+      </c>
+      <c r="O74" s="33">
+        <f t="shared" si="3"/>
+        <v>354.17819590481463</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E75" s="37">
+        <f>AVERAGE(E65:E74)</f>
+        <v>1.1198846999999996</v>
+      </c>
+      <c r="F75" s="37">
+        <f>AVERAGE(F65:F74)</f>
+        <v>0.18906490000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E76" s="35">
+        <f>MEDIAN(E65:E74)</f>
+        <v>1.1165509999999998</v>
+      </c>
+      <c r="F76" s="35">
+        <f>MEDIAN(F65:F74)</f>
+        <v>0.18893700000000002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E78">
+        <v>1.113192</v>
+      </c>
+      <c r="F78">
+        <v>0.19072500000000001</v>
+      </c>
+      <c r="G78">
+        <v>16.880806</v>
+      </c>
+      <c r="H78">
+        <v>0.177149</v>
+      </c>
+      <c r="I78">
+        <v>0.136323</v>
+      </c>
+      <c r="J78">
+        <v>42</v>
+      </c>
+      <c r="K78">
+        <v>400</v>
+      </c>
+      <c r="L78">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E79">
+        <v>1.1324959999999999</v>
+      </c>
+      <c r="F79">
+        <v>0.19411800000000001</v>
+      </c>
+      <c r="G79">
+        <v>17.538177000000001</v>
+      </c>
+      <c r="H79">
+        <v>0.177592</v>
+      </c>
+      <c r="I79">
+        <v>0.13741900000000001</v>
+      </c>
+      <c r="J79">
+        <v>43</v>
+      </c>
+      <c r="K79">
+        <v>400</v>
+      </c>
+      <c r="L79">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E80">
+        <v>1.162541</v>
+      </c>
+      <c r="F80">
+        <v>0.198683</v>
+      </c>
+      <c r="G80">
+        <v>18.535488999999998</v>
+      </c>
+      <c r="H80">
+        <v>0.18393599999999999</v>
+      </c>
+      <c r="I80">
+        <v>0.14522599999999999</v>
+      </c>
+      <c r="J80">
+        <v>44</v>
+      </c>
+      <c r="K80">
+        <v>400</v>
+      </c>
+      <c r="L80">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E81">
+        <v>1.1566190000000001</v>
+      </c>
+      <c r="F81">
+        <v>0.19569700000000001</v>
+      </c>
+      <c r="G81">
+        <v>18.020212999999998</v>
+      </c>
+      <c r="H81">
+        <v>0.18268999999999999</v>
+      </c>
+      <c r="I81">
+        <v>0.14138100000000001</v>
+      </c>
+      <c r="J81">
+        <v>45</v>
+      </c>
+      <c r="K81">
+        <v>400</v>
+      </c>
+      <c r="L81">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E82">
+        <v>1.102571</v>
+      </c>
+      <c r="F82">
+        <v>0.19031300000000001</v>
+      </c>
+      <c r="G82">
+        <v>16.637751999999999</v>
+      </c>
+      <c r="H82">
+        <v>0.17530399999999999</v>
+      </c>
+      <c r="I82">
+        <v>0.140212</v>
+      </c>
+      <c r="J82">
+        <v>46</v>
+      </c>
+      <c r="K82">
+        <v>400</v>
+      </c>
+      <c r="L82">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>129</v>
+      </c>
+      <c r="B92">
+        <v>1807</v>
+      </c>
+      <c r="C92" t="s">
+        <v>130</v>
+      </c>
+      <c r="E92" s="32">
+        <v>1.106376</v>
+      </c>
+      <c r="F92" s="32">
+        <v>0.192666</v>
+      </c>
+      <c r="G92" s="32">
+        <v>16.271660000000001</v>
+      </c>
+      <c r="H92" s="32">
+        <v>0.175873</v>
+      </c>
+      <c r="I92" s="32">
+        <v>0.13747400000000001</v>
+      </c>
+      <c r="J92">
+        <v>42</v>
+      </c>
+      <c r="K92">
         <v>500</v>
       </c>
-      <c r="L71">
-        <v>100</v>
-      </c>
-      <c r="O71" s="33">
+      <c r="L92">
+        <v>100</v>
+      </c>
+      <c r="O92" s="33">
+        <f t="shared" ref="O92:O101" si="4">(32*K92*L92)/B92</f>
+        <v>885.44548976203657</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>129</v>
+      </c>
+      <c r="B93">
+        <v>1807</v>
+      </c>
+      <c r="C93" t="s">
+        <v>130</v>
+      </c>
+      <c r="E93" s="32">
+        <v>1.111084</v>
+      </c>
+      <c r="F93" s="32">
+        <v>0.19040199999999999</v>
+      </c>
+      <c r="G93" s="32">
+        <v>16.584809</v>
+      </c>
+      <c r="H93" s="32">
+        <v>0.175868</v>
+      </c>
+      <c r="I93" s="32">
+        <v>0.14185700000000001</v>
+      </c>
+      <c r="J93">
+        <v>43</v>
+      </c>
+      <c r="K93">
+        <v>500</v>
+      </c>
+      <c r="L93">
+        <v>100</v>
+      </c>
+      <c r="O93" s="33">
         <f t="shared" si="4"/>
         <v>885.44548976203657</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E72" s="37">
-        <f>AVERAGE(E62:E71)</f>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>129</v>
+      </c>
+      <c r="B94">
+        <v>1807</v>
+      </c>
+      <c r="C94" t="s">
+        <v>130</v>
+      </c>
+      <c r="E94" s="32">
+        <v>1.1224449999999999</v>
+      </c>
+      <c r="F94" s="32">
+        <v>0.19159699999999999</v>
+      </c>
+      <c r="G94" s="32">
+        <v>16.115463999999999</v>
+      </c>
+      <c r="H94" s="32">
+        <v>0.176896</v>
+      </c>
+      <c r="I94" s="32">
+        <v>0.13922000000000001</v>
+      </c>
+      <c r="J94">
+        <v>44</v>
+      </c>
+      <c r="K94">
+        <v>500</v>
+      </c>
+      <c r="L94">
+        <v>100</v>
+      </c>
+      <c r="O94" s="33">
+        <f t="shared" si="4"/>
+        <v>885.44548976203657</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>129</v>
+      </c>
+      <c r="B95">
+        <v>1807</v>
+      </c>
+      <c r="C95" t="s">
+        <v>130</v>
+      </c>
+      <c r="E95" s="32">
+        <v>1.1396230000000001</v>
+      </c>
+      <c r="F95" s="32">
+        <v>0.190749</v>
+      </c>
+      <c r="G95" s="32">
+        <v>16.011807999999998</v>
+      </c>
+      <c r="H95" s="32">
+        <v>0.17874699999999999</v>
+      </c>
+      <c r="I95" s="32">
+        <v>0.135467</v>
+      </c>
+      <c r="J95">
+        <v>45</v>
+      </c>
+      <c r="K95">
+        <v>500</v>
+      </c>
+      <c r="L95">
+        <v>100</v>
+      </c>
+      <c r="O95" s="33">
+        <f t="shared" si="4"/>
+        <v>885.44548976203657</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>129</v>
+      </c>
+      <c r="B96">
+        <v>1807</v>
+      </c>
+      <c r="C96" t="s">
+        <v>130</v>
+      </c>
+      <c r="E96" s="32">
+        <v>1.1060719999999999</v>
+      </c>
+      <c r="F96" s="32">
+        <v>0.19131999999999999</v>
+      </c>
+      <c r="G96" s="32">
+        <v>16.958991999999999</v>
+      </c>
+      <c r="H96" s="32">
+        <v>0.176172</v>
+      </c>
+      <c r="I96" s="32">
+        <v>0.14205799999999999</v>
+      </c>
+      <c r="J96">
+        <v>46</v>
+      </c>
+      <c r="K96">
+        <v>500</v>
+      </c>
+      <c r="L96">
+        <v>100</v>
+      </c>
+      <c r="O96" s="33">
+        <f t="shared" si="4"/>
+        <v>885.44548976203657</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>129</v>
+      </c>
+      <c r="B97">
+        <v>1807</v>
+      </c>
+      <c r="C97" t="s">
+        <v>130</v>
+      </c>
+      <c r="E97" s="32">
+        <v>1.1421110000000001</v>
+      </c>
+      <c r="F97" s="32">
+        <v>0.19577800000000001</v>
+      </c>
+      <c r="G97" s="32">
+        <v>16.430437000000001</v>
+      </c>
+      <c r="H97" s="32">
+        <v>0.180505</v>
+      </c>
+      <c r="I97" s="32">
+        <v>0.141706</v>
+      </c>
+      <c r="J97">
+        <v>47</v>
+      </c>
+      <c r="K97">
+        <v>500</v>
+      </c>
+      <c r="L97">
+        <v>100</v>
+      </c>
+      <c r="O97" s="33">
+        <f t="shared" si="4"/>
+        <v>885.44548976203657</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>129</v>
+      </c>
+      <c r="B98">
+        <v>1807</v>
+      </c>
+      <c r="C98" t="s">
+        <v>130</v>
+      </c>
+      <c r="E98" s="32">
+        <v>1.1068249999999999</v>
+      </c>
+      <c r="F98" s="32">
+        <v>0.18874299999999999</v>
+      </c>
+      <c r="G98" s="32">
+        <v>16.140993000000002</v>
+      </c>
+      <c r="H98" s="32">
+        <v>0.173205</v>
+      </c>
+      <c r="I98" s="32">
+        <v>0.13647500000000001</v>
+      </c>
+      <c r="J98">
+        <v>48</v>
+      </c>
+      <c r="K98">
+        <v>500</v>
+      </c>
+      <c r="L98">
+        <v>100</v>
+      </c>
+      <c r="O98" s="33">
+        <f t="shared" si="4"/>
+        <v>885.44548976203657</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>129</v>
+      </c>
+      <c r="B99">
+        <v>1807</v>
+      </c>
+      <c r="C99" t="s">
+        <v>130</v>
+      </c>
+      <c r="E99" s="32">
+        <v>1.0956060000000001</v>
+      </c>
+      <c r="F99" s="32">
+        <v>0.185999</v>
+      </c>
+      <c r="G99" s="32">
+        <v>15.872949999999999</v>
+      </c>
+      <c r="H99" s="32">
+        <v>0.172454</v>
+      </c>
+      <c r="I99" s="32">
+        <v>0.13603699999999999</v>
+      </c>
+      <c r="J99">
+        <v>49</v>
+      </c>
+      <c r="K99">
+        <v>500</v>
+      </c>
+      <c r="L99">
+        <v>100</v>
+      </c>
+      <c r="O99" s="33">
+        <f t="shared" si="4"/>
+        <v>885.44548976203657</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>129</v>
+      </c>
+      <c r="B100">
+        <v>1807</v>
+      </c>
+      <c r="C100" t="s">
+        <v>130</v>
+      </c>
+      <c r="E100" s="32">
+        <v>1.138922</v>
+      </c>
+      <c r="F100" s="32">
+        <v>0.191797</v>
+      </c>
+      <c r="G100" s="32">
+        <v>15.922606999999999</v>
+      </c>
+      <c r="H100" s="32">
+        <v>0.177369</v>
+      </c>
+      <c r="I100" s="32">
+        <v>0.138626</v>
+      </c>
+      <c r="J100">
+        <v>50</v>
+      </c>
+      <c r="K100">
+        <v>500</v>
+      </c>
+      <c r="L100">
+        <v>100</v>
+      </c>
+      <c r="O100" s="33">
+        <f t="shared" si="4"/>
+        <v>885.44548976203657</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>129</v>
+      </c>
+      <c r="B101">
+        <v>1807</v>
+      </c>
+      <c r="C101" t="s">
+        <v>130</v>
+      </c>
+      <c r="E101" s="32">
+        <v>1.124503</v>
+      </c>
+      <c r="F101" s="32">
+        <v>0.19287299999999999</v>
+      </c>
+      <c r="G101" s="32">
+        <v>16.250357000000001</v>
+      </c>
+      <c r="H101" s="32">
+        <v>0.17937800000000001</v>
+      </c>
+      <c r="I101" s="32">
+        <v>0.13917199999999999</v>
+      </c>
+      <c r="J101">
+        <v>51</v>
+      </c>
+      <c r="K101">
+        <v>500</v>
+      </c>
+      <c r="L101">
+        <v>100</v>
+      </c>
+      <c r="O101" s="33">
+        <f t="shared" si="4"/>
+        <v>885.44548976203657</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E102" s="37">
+        <f>AVERAGE(E92:E101)</f>
         <v>1.1193567000000002</v>
       </c>
-      <c r="F72" s="37">
-        <f>AVERAGE(F62:F71)</f>
+      <c r="F102" s="37">
+        <f>AVERAGE(F92:F101)</f>
         <v>0.19119239999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="E73" s="35">
-        <f>MEDIAN(E62:E71)</f>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E103" s="35">
+        <f>MEDIAN(E92:E101)</f>
         <v>1.1167644999999999</v>
       </c>
-      <c r="F73" s="35">
-        <f>MEDIAN(F62:F71)</f>
+      <c r="F103" s="35">
+        <f>MEDIAN(F92:F101)</f>
         <v>0.19145849999999998</v>
       </c>
     </row>
@@ -4018,20 +4440,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA12018D-2C7C-4540-960E-B821F0EF290F}">
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:O67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.54296875" customWidth="1"/>
     <col min="6" max="6" width="6.6328125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.36328125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.26953125" bestFit="1" customWidth="1"/>
@@ -4657,19 +5079,19 @@
       <c r="C25" t="s">
         <v>130</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="32">
         <v>1.1081479999999999</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="32">
         <v>7.6490000000000002E-2</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="32">
         <v>11.708356999999999</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="32">
         <v>7.8417000000000001E-2</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="32">
         <v>4.7373999999999999E-2</v>
       </c>
       <c r="J25">
@@ -4699,19 +5121,19 @@
       <c r="C26" t="s">
         <v>130</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="32">
         <v>0.98241699999999998</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="32">
         <v>7.3269000000000001E-2</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="32">
         <v>10.616187</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="32">
         <v>7.6303999999999997E-2</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="32">
         <v>4.7160000000000001E-2</v>
       </c>
       <c r="J26">
@@ -4741,19 +5163,19 @@
       <c r="C27" t="s">
         <v>130</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="32">
         <v>1.0657829999999999</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="32">
         <v>7.5549000000000005E-2</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="32">
         <v>11.621454999999999</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="32">
         <v>7.9740000000000005E-2</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="32">
         <v>5.0265999999999998E-2</v>
       </c>
       <c r="J27">
@@ -4783,19 +5205,19 @@
       <c r="C28" t="s">
         <v>130</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="32">
         <v>1.039242</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="32">
         <v>7.3608999999999994E-2</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="32">
         <v>10.990050999999999</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="32">
         <v>7.7366000000000004E-2</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="32">
         <v>4.6810999999999998E-2</v>
       </c>
       <c r="J28">
@@ -4825,19 +5247,19 @@
       <c r="C29" t="s">
         <v>130</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="32">
         <v>0.97631199999999996</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="32">
         <v>7.2650000000000006E-2</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="32">
         <v>10.286363</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="32">
         <v>7.6080999999999996E-2</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="32">
         <v>4.9103000000000001E-2</v>
       </c>
       <c r="J29">
@@ -4867,19 +5289,19 @@
       <c r="C30" t="s">
         <v>130</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="32">
         <v>1.4616309999999999</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="32">
         <v>8.4129999999999996E-2</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="32">
         <v>15.287832</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="32">
         <v>8.5510000000000003E-2</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="32">
         <v>5.0500000000000003E-2</v>
       </c>
       <c r="J30">
@@ -4909,19 +5331,19 @@
       <c r="C31" t="s">
         <v>130</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="32">
         <v>1.1751100000000001</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="32">
         <v>7.8062000000000006E-2</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="32">
         <v>12.25511</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="32">
         <v>8.0675999999999998E-2</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="32">
         <v>4.8025999999999999E-2</v>
       </c>
       <c r="J31">
@@ -4951,19 +5373,19 @@
       <c r="C32" t="s">
         <v>130</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="32">
         <v>1.0275879999999999</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="32">
         <v>7.3760000000000006E-2</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="32">
         <v>10.485704999999999</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="32">
         <v>7.7137999999999998E-2</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="32">
         <v>4.7347E-2</v>
       </c>
       <c r="J32">
@@ -4993,19 +5415,19 @@
       <c r="C33" t="s">
         <v>130</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="32">
         <v>1.0337719999999999</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="32">
         <v>7.4011999999999994E-2</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="32">
         <v>11.121883</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="32">
         <v>7.7326000000000006E-2</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="32">
         <v>4.8198999999999999E-2</v>
       </c>
       <c r="J33">
@@ -5035,19 +5457,19 @@
       <c r="C34" t="s">
         <v>130</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="32">
         <v>1.057917</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="32">
         <v>7.4987999999999999E-2</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="32">
         <v>10.755051</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="32">
         <v>7.7664999999999998E-2</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="32">
         <v>4.8274999999999998E-2</v>
       </c>
       <c r="J34">
@@ -5067,6 +5489,15 @@
         <v>40.764331210191081</v>
       </c>
     </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N35" s="33"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N36" s="33"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N37" s="33"/>
+    </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>133</v>
@@ -5077,461 +5508,641 @@
       <c r="C38" t="s">
         <v>130</v>
       </c>
-      <c r="E38">
-        <v>1.051803</v>
-      </c>
-      <c r="F38">
-        <v>7.3388999999999996E-2</v>
-      </c>
-      <c r="G38">
-        <v>11.882016999999999</v>
-      </c>
-      <c r="H38">
-        <v>7.6953999999999995E-2</v>
-      </c>
-      <c r="I38">
-        <v>4.7413999999999998E-2</v>
+      <c r="E38" s="32">
+        <v>0.99764799999999998</v>
+      </c>
+      <c r="F38" s="32">
+        <v>7.3244000000000004E-2</v>
+      </c>
+      <c r="G38" s="32">
+        <v>11.403422000000001</v>
+      </c>
+      <c r="H38" s="32">
+        <v>7.6279E-2</v>
+      </c>
+      <c r="I38" s="32">
+        <v>4.5692000000000003E-2</v>
       </c>
       <c r="J38">
         <v>42</v>
       </c>
-      <c r="K38" s="1">
-        <v>500</v>
-      </c>
-      <c r="L38">
-        <v>100</v>
-      </c>
-      <c r="N38" s="33">
-        <f t="shared" ref="N38:N47" si="2">(32*L38*K38)/B38</f>
-        <v>101.91082802547771</v>
-      </c>
+      <c r="K38">
+        <v>400</v>
+      </c>
+      <c r="L38" s="1">
+        <v>200</v>
+      </c>
+      <c r="M38" t="s">
+        <v>132</v>
+      </c>
+      <c r="N38" s="33"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>133</v>
-      </c>
-      <c r="B39">
-        <v>15700</v>
-      </c>
-      <c r="C39" t="s">
-        <v>130</v>
-      </c>
-      <c r="E39">
-        <v>0.99765300000000001</v>
-      </c>
-      <c r="F39">
-        <v>7.2963E-2</v>
-      </c>
-      <c r="G39">
-        <v>11.026980999999999</v>
-      </c>
-      <c r="H39">
-        <v>7.5711000000000001E-2</v>
-      </c>
-      <c r="I39">
-        <v>4.5721999999999999E-2</v>
+      <c r="E39" s="32">
+        <v>1.0110399999999999</v>
+      </c>
+      <c r="F39" s="32">
+        <v>7.3762999999999995E-2</v>
+      </c>
+      <c r="G39" s="32">
+        <v>11.778211000000001</v>
+      </c>
+      <c r="H39" s="32">
+        <v>7.7345999999999998E-2</v>
+      </c>
+      <c r="I39" s="32">
+        <v>4.4773E-2</v>
       </c>
       <c r="J39">
         <v>43</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K39">
+        <v>400</v>
+      </c>
+      <c r="L39" s="1">
+        <v>200</v>
+      </c>
+      <c r="N39" s="33"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E40" s="32">
+        <v>0.993699</v>
+      </c>
+      <c r="F40" s="32">
+        <v>7.2725999999999999E-2</v>
+      </c>
+      <c r="G40" s="32">
+        <v>11.848151</v>
+      </c>
+      <c r="H40" s="32">
+        <v>7.6438000000000006E-2</v>
+      </c>
+      <c r="I40" s="32">
+        <v>4.6710000000000002E-2</v>
+      </c>
+      <c r="J40">
+        <v>44</v>
+      </c>
+      <c r="K40">
+        <v>400</v>
+      </c>
+      <c r="L40" s="1">
+        <v>200</v>
+      </c>
+      <c r="N40" s="33"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E41" s="32">
+        <v>0.97512600000000005</v>
+      </c>
+      <c r="F41" s="32">
+        <v>7.1756E-2</v>
+      </c>
+      <c r="G41" s="32">
+        <v>11.855207</v>
+      </c>
+      <c r="H41" s="32">
+        <v>7.4804999999999996E-2</v>
+      </c>
+      <c r="I41" s="32">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="J41">
+        <v>45</v>
+      </c>
+      <c r="K41">
+        <v>400</v>
+      </c>
+      <c r="L41" s="1">
+        <v>200</v>
+      </c>
+      <c r="N41" s="33"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E42" s="32">
+        <v>1.021118</v>
+      </c>
+      <c r="F42" s="32">
+        <v>7.3032E-2</v>
+      </c>
+      <c r="G42" s="32">
+        <v>13.074277</v>
+      </c>
+      <c r="H42" s="32">
+        <v>7.6518000000000003E-2</v>
+      </c>
+      <c r="I42" s="32">
+        <v>4.5275999999999997E-2</v>
+      </c>
+      <c r="J42">
+        <v>46</v>
+      </c>
+      <c r="K42">
+        <v>400</v>
+      </c>
+      <c r="L42" s="1">
+        <v>200</v>
+      </c>
+      <c r="N42" s="33"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J43">
+        <v>47</v>
+      </c>
+      <c r="N43" s="33"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J44">
+        <v>48</v>
+      </c>
+      <c r="N44" s="33"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J45">
+        <v>49</v>
+      </c>
+      <c r="N45" s="33"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J46">
+        <v>50</v>
+      </c>
+      <c r="N46" s="33"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J47">
+        <v>51</v>
+      </c>
+      <c r="N47" s="33"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="N48" s="33"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>133</v>
+      </c>
+      <c r="B52">
+        <v>15700</v>
+      </c>
+      <c r="C52" t="s">
+        <v>130</v>
+      </c>
+      <c r="E52">
+        <v>1.051803</v>
+      </c>
+      <c r="F52">
+        <v>7.3388999999999996E-2</v>
+      </c>
+      <c r="G52">
+        <v>11.882016999999999</v>
+      </c>
+      <c r="H52">
+        <v>7.6953999999999995E-2</v>
+      </c>
+      <c r="I52">
+        <v>4.7413999999999998E-2</v>
+      </c>
+      <c r="J52">
+        <v>42</v>
+      </c>
+      <c r="K52" s="1">
         <v>500</v>
       </c>
-      <c r="L39">
-        <v>100</v>
-      </c>
-      <c r="N39" s="33">
+      <c r="L52">
+        <v>100</v>
+      </c>
+      <c r="N52" s="33">
+        <f t="shared" ref="N52:N61" si="2">(32*L52*K52)/B52</f>
+        <v>101.91082802547771</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53">
+        <v>15700</v>
+      </c>
+      <c r="C53" t="s">
+        <v>130</v>
+      </c>
+      <c r="E53">
+        <v>0.99765300000000001</v>
+      </c>
+      <c r="F53">
+        <v>7.2963E-2</v>
+      </c>
+      <c r="G53">
+        <v>11.026980999999999</v>
+      </c>
+      <c r="H53">
+        <v>7.5711000000000001E-2</v>
+      </c>
+      <c r="I53">
+        <v>4.5721999999999999E-2</v>
+      </c>
+      <c r="J53">
+        <v>43</v>
+      </c>
+      <c r="K53" s="1">
+        <v>500</v>
+      </c>
+      <c r="L53">
+        <v>100</v>
+      </c>
+      <c r="N53" s="33">
         <f t="shared" si="2"/>
         <v>101.91082802547771</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
         <v>133</v>
       </c>
-      <c r="B40">
+      <c r="B54">
         <v>15700</v>
       </c>
-      <c r="C40" t="s">
-        <v>130</v>
-      </c>
-      <c r="E40">
+      <c r="C54" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54">
         <v>0.99805500000000003</v>
       </c>
-      <c r="F40">
+      <c r="F54">
         <v>7.2646000000000002E-2</v>
       </c>
-      <c r="G40">
+      <c r="G54">
         <v>11.286521</v>
       </c>
-      <c r="H40">
+      <c r="H54">
         <v>7.6055999999999999E-2</v>
       </c>
-      <c r="I40">
+      <c r="I54">
         <v>4.7065999999999997E-2</v>
       </c>
-      <c r="J40">
+      <c r="J54">
         <v>44</v>
       </c>
-      <c r="K40" s="1">
+      <c r="K54" s="1">
         <v>500</v>
       </c>
-      <c r="L40">
-        <v>100</v>
-      </c>
-      <c r="N40" s="33">
+      <c r="L54">
+        <v>100</v>
+      </c>
+      <c r="N54" s="33">
         <f t="shared" si="2"/>
         <v>101.91082802547771</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
         <v>133</v>
       </c>
-      <c r="B41">
+      <c r="B55">
         <v>15700</v>
       </c>
-      <c r="C41" t="s">
-        <v>130</v>
-      </c>
-      <c r="E41">
+      <c r="C55" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55">
         <v>1.0200290000000001</v>
       </c>
-      <c r="F41">
+      <c r="F55">
         <v>7.2791999999999996E-2</v>
       </c>
-      <c r="G41">
+      <c r="G55">
         <v>10.665573999999999</v>
       </c>
-      <c r="H41">
+      <c r="H55">
         <v>7.6207999999999998E-2</v>
       </c>
-      <c r="I41">
+      <c r="I55">
         <v>4.5969999999999997E-2</v>
       </c>
-      <c r="J41">
+      <c r="J55">
         <v>45</v>
       </c>
-      <c r="K41" s="1">
+      <c r="K55" s="1">
         <v>500</v>
       </c>
-      <c r="L41">
-        <v>100</v>
-      </c>
-      <c r="N41" s="33">
+      <c r="L55">
+        <v>100</v>
+      </c>
+      <c r="N55" s="33">
         <f t="shared" si="2"/>
         <v>101.91082802547771</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
         <v>133</v>
       </c>
-      <c r="B42">
+      <c r="B56">
         <v>15700</v>
       </c>
-      <c r="C42" t="s">
-        <v>130</v>
-      </c>
-      <c r="E42">
+      <c r="C56" t="s">
+        <v>130</v>
+      </c>
+      <c r="E56">
         <v>0.98280800000000001</v>
       </c>
-      <c r="F42">
+      <c r="F56">
         <v>7.2689000000000004E-2</v>
       </c>
-      <c r="G42">
+      <c r="G56">
         <v>10.929193</v>
       </c>
-      <c r="H42">
+      <c r="H56">
         <v>7.5734999999999997E-2</v>
       </c>
-      <c r="I42">
+      <c r="I56">
         <v>4.752E-2</v>
       </c>
-      <c r="J42">
+      <c r="J56">
         <v>46</v>
       </c>
-      <c r="K42" s="1">
+      <c r="K56" s="1">
         <v>500</v>
       </c>
-      <c r="L42">
-        <v>100</v>
-      </c>
-      <c r="N42" s="33">
+      <c r="L56">
+        <v>100</v>
+      </c>
+      <c r="N56" s="33">
         <f t="shared" si="2"/>
         <v>101.91082802547771</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
         <v>133</v>
       </c>
-      <c r="B43">
+      <c r="B57">
         <v>15700</v>
       </c>
-      <c r="C43" t="s">
-        <v>130</v>
-      </c>
-      <c r="E43">
+      <c r="C57" t="s">
+        <v>130</v>
+      </c>
+      <c r="E57">
         <v>1.0015210000000001</v>
       </c>
-      <c r="F43">
+      <c r="F57">
         <v>7.2669999999999998E-2</v>
       </c>
-      <c r="G43">
+      <c r="G57">
         <v>11.004887999999999</v>
       </c>
-      <c r="H43">
+      <c r="H57">
         <v>7.5789999999999996E-2</v>
       </c>
-      <c r="I43">
+      <c r="I57">
         <v>4.6775999999999998E-2</v>
       </c>
-      <c r="J43">
+      <c r="J57">
         <v>47</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K57" s="1">
         <v>500</v>
       </c>
-      <c r="L43">
-        <v>100</v>
-      </c>
-      <c r="N43" s="33">
+      <c r="L57">
+        <v>100</v>
+      </c>
+      <c r="N57" s="33">
         <f t="shared" si="2"/>
         <v>101.91082802547771</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>133</v>
       </c>
-      <c r="B44">
+      <c r="B58">
         <v>15700</v>
       </c>
-      <c r="C44" t="s">
-        <v>130</v>
-      </c>
-      <c r="E44">
+      <c r="C58" t="s">
+        <v>130</v>
+      </c>
+      <c r="E58">
         <v>1.1743110000000001</v>
       </c>
-      <c r="F44">
+      <c r="F58">
         <v>7.5811000000000003E-2</v>
       </c>
-      <c r="G44">
+      <c r="G58">
         <v>13.043426</v>
       </c>
-      <c r="H44">
+      <c r="H58">
         <v>7.8463000000000005E-2</v>
       </c>
-      <c r="I44">
+      <c r="I58">
         <v>4.6051000000000002E-2</v>
       </c>
-      <c r="J44">
+      <c r="J58">
         <v>48</v>
       </c>
-      <c r="K44" s="1">
+      <c r="K58" s="1">
         <v>500</v>
       </c>
-      <c r="L44">
-        <v>100</v>
-      </c>
-      <c r="N44" s="33">
+      <c r="L58">
+        <v>100</v>
+      </c>
+      <c r="N58" s="33">
         <f t="shared" si="2"/>
         <v>101.91082802547771</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>133</v>
       </c>
-      <c r="B45">
+      <c r="B59">
         <v>15700</v>
       </c>
-      <c r="C45" t="s">
-        <v>130</v>
-      </c>
-      <c r="E45">
+      <c r="C59" t="s">
+        <v>130</v>
+      </c>
+      <c r="E59">
         <v>1.1521440000000001</v>
       </c>
-      <c r="F45">
+      <c r="F59">
         <v>7.492E-2</v>
       </c>
-      <c r="G45">
+      <c r="G59">
         <v>12.762173000000001</v>
       </c>
-      <c r="H45">
+      <c r="H59">
         <v>7.7661999999999995E-2</v>
       </c>
-      <c r="I45">
+      <c r="I59">
         <v>4.6490999999999998E-2</v>
       </c>
-      <c r="J45">
+      <c r="J59">
         <v>49</v>
       </c>
-      <c r="K45" s="1">
+      <c r="K59" s="1">
         <v>500</v>
       </c>
-      <c r="L45">
-        <v>100</v>
-      </c>
-      <c r="N45" s="33">
+      <c r="L59">
+        <v>100</v>
+      </c>
+      <c r="N59" s="33">
         <f t="shared" si="2"/>
         <v>101.91082802547771</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>133</v>
       </c>
-      <c r="B46">
+      <c r="B60">
         <v>15700</v>
       </c>
-      <c r="C46" t="s">
-        <v>130</v>
-      </c>
-      <c r="E46">
+      <c r="C60" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60">
         <v>0.977688</v>
       </c>
-      <c r="F46">
+      <c r="F60">
         <v>7.2123000000000007E-2</v>
       </c>
-      <c r="G46">
+      <c r="G60">
         <v>10.382012</v>
       </c>
-      <c r="H46">
+      <c r="H60">
         <v>7.5823000000000002E-2</v>
       </c>
-      <c r="I46">
+      <c r="I60">
         <v>4.6258000000000001E-2</v>
       </c>
-      <c r="J46">
+      <c r="J60">
         <v>50</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K60" s="1">
         <v>500</v>
       </c>
-      <c r="L46">
-        <v>100</v>
-      </c>
-      <c r="N46" s="33">
+      <c r="L60">
+        <v>100</v>
+      </c>
+      <c r="N60" s="33">
         <f t="shared" si="2"/>
         <v>101.91082802547771</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>133</v>
       </c>
-      <c r="B47">
+      <c r="B61">
         <v>15700</v>
       </c>
-      <c r="C47" t="s">
-        <v>130</v>
-      </c>
-      <c r="E47">
+      <c r="C61" t="s">
+        <v>130</v>
+      </c>
+      <c r="E61">
         <v>1.0157700000000001</v>
       </c>
-      <c r="F47">
+      <c r="F61">
         <v>7.2857000000000005E-2</v>
       </c>
-      <c r="G47">
+      <c r="G61">
         <v>10.713754</v>
       </c>
-      <c r="H47">
+      <c r="H61">
         <v>7.6860999999999999E-2</v>
       </c>
-      <c r="I47">
+      <c r="I61">
         <v>4.6509000000000002E-2</v>
       </c>
-      <c r="J47">
+      <c r="J61">
         <v>51</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K61" s="1">
         <v>500</v>
       </c>
-      <c r="L47">
-        <v>100</v>
-      </c>
-      <c r="N47" s="33">
+      <c r="L61">
+        <v>100</v>
+      </c>
+      <c r="N61" s="33">
         <f t="shared" si="2"/>
         <v>101.91082802547771</v>
       </c>
     </row>
-    <row r="51" spans="6:13" x14ac:dyDescent="0.35">
-      <c r="F51">
+    <row r="65" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F65">
         <v>1.3039829999999999</v>
       </c>
-      <c r="G51">
+      <c r="G65">
         <v>0.30318699999999998</v>
       </c>
-      <c r="H51">
+      <c r="H65">
         <v>27.040327999999999</v>
       </c>
-      <c r="I51">
+      <c r="I65">
         <v>0.29138799999999998</v>
       </c>
-      <c r="J51">
+      <c r="J65">
         <v>0.23605699999999999</v>
       </c>
-      <c r="K51">
+      <c r="K65">
         <v>42</v>
       </c>
-      <c r="L51" s="1">
+      <c r="L65" s="1">
         <v>981</v>
       </c>
-      <c r="M51">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="6:13" x14ac:dyDescent="0.35">
-      <c r="F52">
+      <c r="M65">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F66">
         <v>1.250513</v>
       </c>
-      <c r="G52">
+      <c r="G66">
         <v>0.29173900000000003</v>
       </c>
-      <c r="H52">
+      <c r="H66">
         <v>21.640404</v>
       </c>
-      <c r="I52">
+      <c r="I66">
         <v>0.28412500000000002</v>
       </c>
-      <c r="J52">
+      <c r="J66">
         <v>0.19365099999999999</v>
       </c>
-      <c r="K52">
+      <c r="K66">
         <v>43</v>
       </c>
-      <c r="L52" s="1">
+      <c r="L66" s="1">
         <v>981</v>
       </c>
-      <c r="M52">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="6:13" x14ac:dyDescent="0.35">
-      <c r="F53">
+      <c r="M66">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="6:13" x14ac:dyDescent="0.35">
+      <c r="F67">
         <v>1.312897</v>
       </c>
-      <c r="G53">
+      <c r="G67">
         <v>0.30178100000000002</v>
       </c>
-      <c r="H53">
+      <c r="H67">
         <v>26.278158999999999</v>
       </c>
-      <c r="I53">
+      <c r="I67">
         <v>0.289601</v>
       </c>
-      <c r="J53">
+      <c r="J67">
         <v>0.213644</v>
       </c>
-      <c r="K53">
+      <c r="K67">
         <v>44</v>
       </c>
-      <c r="L53" s="1">
+      <c r="L67" s="1">
         <v>981</v>
       </c>
-      <c r="M53">
+      <c r="M67">
         <v>100</v>
       </c>
     </row>
@@ -5542,11 +6153,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14EDC4F-98C1-4C71-B921-EAE603E44527}">
-  <dimension ref="A1:O39"/>
+  <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M49" sqref="M49:N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5555,8 +6166,9 @@
     <col min="2" max="2" width="4.81640625" customWidth="1"/>
     <col min="4" max="4" width="5.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.08984375" customWidth="1"/>
+    <col min="8" max="8" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.54296875" customWidth="1"/>
     <col min="10" max="10" width="4.7265625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.26953125" customWidth="1"/>
@@ -5976,7 +6588,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E17" s="32">
         <v>1.238721</v>
       </c>
@@ -6002,7 +6614,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E18" s="32">
         <v>1.2087859999999999</v>
       </c>
@@ -6028,7 +6640,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E19" s="32">
         <v>1.23508</v>
       </c>
@@ -6054,7 +6666,16 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23">
+        <v>943</v>
+      </c>
+      <c r="C23" t="s">
+        <v>130</v>
+      </c>
       <c r="E23" s="32">
         <v>1.261009</v>
       </c>
@@ -6079,8 +6700,15 @@
       <c r="L23">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="5:12" x14ac:dyDescent="0.35">
+      <c r="M23" t="s">
+        <v>132</v>
+      </c>
+      <c r="N23" s="33">
+        <f>(32*L23*K23)/B23</f>
+        <v>678.68504772004246</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E24" s="32">
         <v>1.2178310000000001</v>
       </c>
@@ -6106,7 +6734,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E25" s="32">
         <v>1.2555890000000001</v>
       </c>
@@ -6132,7 +6760,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E26" s="32">
         <v>1.245584</v>
       </c>
@@ -6158,7 +6786,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E27" s="32">
         <v>1.2653970000000001</v>
       </c>
@@ -6184,7 +6812,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E28" s="32">
         <v>1.27833</v>
       </c>
@@ -6210,7 +6838,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E29" s="32">
         <v>1.2858149999999999</v>
       </c>
@@ -6236,7 +6864,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E30" s="32">
         <v>1.328443</v>
       </c>
@@ -6262,7 +6890,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E31" s="32">
         <v>1.2972779999999999</v>
       </c>
@@ -6288,7 +6916,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="5:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E32" s="32">
         <v>1.283533</v>
       </c>
@@ -6314,107 +6942,325 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E36">
-        <v>1.279307</v>
-      </c>
-      <c r="F36">
-        <v>0.29603000000000002</v>
-      </c>
-      <c r="G36">
-        <v>26.106584999999999</v>
-      </c>
-      <c r="H36">
-        <v>0.28495500000000001</v>
-      </c>
-      <c r="I36">
-        <v>0.221578</v>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
+      <c r="H33" s="32"/>
+      <c r="I33" s="32"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E34" s="32"/>
+      <c r="F34" s="32"/>
+      <c r="G34" s="32"/>
+      <c r="H34" s="32"/>
+      <c r="I34" s="32"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>134</v>
+      </c>
+      <c r="B36">
+        <v>943</v>
+      </c>
+      <c r="C36" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="32">
+        <v>1.293118</v>
+      </c>
+      <c r="F36" s="32">
+        <v>0.298122</v>
+      </c>
+      <c r="G36" s="32">
+        <v>25.178305000000002</v>
+      </c>
+      <c r="H36" s="32">
+        <v>0.28758</v>
+      </c>
+      <c r="I36" s="32">
+        <v>0.22231000000000001</v>
       </c>
       <c r="J36">
         <v>42</v>
       </c>
       <c r="K36">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L36">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E37">
-        <v>1.235887</v>
-      </c>
-      <c r="F37">
-        <v>0.28978199999999998</v>
-      </c>
-      <c r="G37">
-        <v>21.479382000000001</v>
-      </c>
-      <c r="H37">
-        <v>0.27862999999999999</v>
-      </c>
-      <c r="I37">
-        <v>0.19157299999999999</v>
+        <v>200</v>
+      </c>
+      <c r="M36" t="s">
+        <v>132</v>
+      </c>
+      <c r="N36" s="33">
+        <f>(32*L36*K36)/B36</f>
+        <v>2714.7401908801698</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E37" s="32">
+        <v>1.2607999999999999</v>
+      </c>
+      <c r="F37" s="32">
+        <v>0.29187099999999999</v>
+      </c>
+      <c r="G37" s="32">
+        <v>22.286436999999999</v>
+      </c>
+      <c r="H37" s="32">
+        <v>0.27802300000000002</v>
+      </c>
+      <c r="I37" s="32">
+        <v>0.196687</v>
       </c>
       <c r="J37">
         <v>43</v>
       </c>
       <c r="K37">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L37">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E38">
-        <v>1.278324</v>
-      </c>
-      <c r="F38">
-        <v>0.29703200000000002</v>
-      </c>
-      <c r="G38">
-        <v>25.140411</v>
-      </c>
-      <c r="H38">
-        <v>0.28506799999999999</v>
-      </c>
-      <c r="I38">
-        <v>0.209567</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E38" s="32">
+        <v>1.2929470000000001</v>
+      </c>
+      <c r="F38" s="32">
+        <v>0.29930200000000001</v>
+      </c>
+      <c r="G38" s="32">
+        <v>24.187089</v>
+      </c>
+      <c r="H38" s="32">
+        <v>0.29206799999999999</v>
+      </c>
+      <c r="I38" s="32">
+        <v>0.21524799999999999</v>
       </c>
       <c r="J38">
         <v>44</v>
       </c>
       <c r="K38">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="L38">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E39">
-        <v>1.2495229999999999</v>
-      </c>
-      <c r="F39">
-        <v>0.29034199999999999</v>
-      </c>
-      <c r="G39">
-        <v>23.564509999999999</v>
-      </c>
-      <c r="H39">
-        <v>0.27683000000000002</v>
-      </c>
-      <c r="I39">
-        <v>0.203738</v>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E39" s="32">
+        <v>1.3268610000000001</v>
+      </c>
+      <c r="F39" s="32">
+        <v>0.307093</v>
+      </c>
+      <c r="G39" s="32">
+        <v>26.802378999999998</v>
+      </c>
+      <c r="H39" s="32">
+        <v>0.28849000000000002</v>
+      </c>
+      <c r="I39" s="32">
+        <v>0.22173000000000001</v>
       </c>
       <c r="J39">
         <v>45</v>
       </c>
       <c r="K39">
+        <v>400</v>
+      </c>
+      <c r="L39">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E40" s="32">
+        <v>1.3383799999999999</v>
+      </c>
+      <c r="F40" s="32">
+        <v>0.312247</v>
+      </c>
+      <c r="G40" s="32">
+        <v>25.250906000000001</v>
+      </c>
+      <c r="H40" s="32">
+        <v>0.298238</v>
+      </c>
+      <c r="I40" s="32">
+        <v>0.22745299999999999</v>
+      </c>
+      <c r="J40">
+        <v>46</v>
+      </c>
+      <c r="K40">
+        <v>400</v>
+      </c>
+      <c r="L40">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E42" s="32"/>
+      <c r="F42" s="32"/>
+      <c r="G42" s="32"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="32"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E43" s="32"/>
+      <c r="F43" s="32"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="32"/>
+      <c r="I43" s="32"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="32"/>
+      <c r="I44" s="32"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E45" s="32"/>
+      <c r="F45" s="32"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="32"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>134</v>
+      </c>
+      <c r="B49">
+        <v>943</v>
+      </c>
+      <c r="C49" t="s">
+        <v>130</v>
+      </c>
+      <c r="E49" s="32">
+        <v>1.279307</v>
+      </c>
+      <c r="F49" s="32">
+        <v>0.29603000000000002</v>
+      </c>
+      <c r="G49" s="32">
+        <v>26.106584999999999</v>
+      </c>
+      <c r="H49" s="32">
+        <v>0.28495500000000001</v>
+      </c>
+      <c r="I49" s="32">
+        <v>0.221578</v>
+      </c>
+      <c r="J49">
+        <v>42</v>
+      </c>
+      <c r="K49">
         <v>500</v>
       </c>
-      <c r="L39">
+      <c r="L49">
+        <v>100</v>
+      </c>
+      <c r="M49" t="s">
+        <v>132</v>
+      </c>
+      <c r="N49" s="33">
+        <f>(32*L49*K49)/B49</f>
+        <v>1696.7126193001061</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E50" s="32">
+        <v>1.235887</v>
+      </c>
+      <c r="F50" s="32">
+        <v>0.28978199999999998</v>
+      </c>
+      <c r="G50" s="32">
+        <v>21.479382000000001</v>
+      </c>
+      <c r="H50" s="32">
+        <v>0.27862999999999999</v>
+      </c>
+      <c r="I50" s="32">
+        <v>0.19157299999999999</v>
+      </c>
+      <c r="J50">
+        <v>43</v>
+      </c>
+      <c r="K50">
+        <v>500</v>
+      </c>
+      <c r="L50">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E51" s="32">
+        <v>1.278324</v>
+      </c>
+      <c r="F51" s="32">
+        <v>0.29703200000000002</v>
+      </c>
+      <c r="G51" s="32">
+        <v>25.140411</v>
+      </c>
+      <c r="H51" s="32">
+        <v>0.28506799999999999</v>
+      </c>
+      <c r="I51" s="32">
+        <v>0.209567</v>
+      </c>
+      <c r="J51">
+        <v>44</v>
+      </c>
+      <c r="K51">
+        <v>500</v>
+      </c>
+      <c r="L51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="E52" s="32">
+        <v>1.2495229999999999</v>
+      </c>
+      <c r="F52" s="32">
+        <v>0.29034199999999999</v>
+      </c>
+      <c r="G52" s="32">
+        <v>23.564509999999999</v>
+      </c>
+      <c r="H52" s="32">
+        <v>0.27683000000000002</v>
+      </c>
+      <c r="I52" s="32">
+        <v>0.203738</v>
+      </c>
+      <c r="J52">
+        <v>45</v>
+      </c>
+      <c r="K52">
+        <v>500</v>
+      </c>
+      <c r="L52">
         <v>100</v>
       </c>
     </row>
@@ -6428,8 +7274,8 @@
   <dimension ref="A1:O64"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7246,23 +8092,55 @@
       </c>
     </row>
     <row r="41" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
+      <c r="E41" s="32">
+        <v>1.1143559999999999</v>
+      </c>
+      <c r="F41" s="32">
+        <v>4.4072E-2</v>
+      </c>
+      <c r="G41" s="32">
+        <v>19.477263000000001</v>
+      </c>
+      <c r="H41" s="32">
+        <v>4.7236E-2</v>
+      </c>
+      <c r="I41" s="32">
+        <v>3.0391000000000001E-2</v>
+      </c>
       <c r="J41">
         <v>45</v>
       </c>
+      <c r="K41">
+        <v>400</v>
+      </c>
+      <c r="L41">
+        <v>200</v>
+      </c>
     </row>
     <row r="42" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E42" s="32"/>
-      <c r="F42" s="32"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
+      <c r="E42" s="32">
+        <v>1.090641</v>
+      </c>
+      <c r="F42" s="32">
+        <v>4.2197999999999999E-2</v>
+      </c>
+      <c r="G42" s="32">
+        <v>18.152224</v>
+      </c>
+      <c r="H42" s="32">
+        <v>4.4706000000000003E-2</v>
+      </c>
+      <c r="I42" s="32">
+        <v>3.0304000000000001E-2</v>
+      </c>
       <c r="J42">
         <v>46</v>
+      </c>
+      <c r="K42">
+        <v>400</v>
+      </c>
+      <c r="L42">
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="5:13" x14ac:dyDescent="0.35">
@@ -7318,15 +8196,15 @@
     <row r="48" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E48" s="35">
         <f>AVERAGE(E38:E47)</f>
-        <v>1.1010373333333332</v>
+        <v>1.1016217999999998</v>
       </c>
       <c r="F48" s="35">
         <f>AVERAGE(F38:F47)</f>
-        <v>4.3437333333333335E-2</v>
+        <v>4.3316399999999998E-2</v>
       </c>
       <c r="G48" s="35">
         <f>AVERAGE(G38:G47)</f>
-        <v>18.732169666666667</v>
+        <v>18.765199200000005</v>
       </c>
       <c r="H48" s="32"/>
       <c r="I48" s="32"/>
@@ -7338,7 +8216,7 @@
       </c>
       <c r="F49" s="35">
         <f>MEDIAN(F38:F47)</f>
-        <v>4.4179000000000003E-2</v>
+        <v>4.4072E-2</v>
       </c>
       <c r="G49" s="35">
         <f>MEDIAN(G38:G47)</f>
@@ -7450,13 +8328,55 @@
       </c>
     </row>
     <row r="56" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E56" s="32">
+        <v>1.1083860000000001</v>
+      </c>
+      <c r="F56" s="32">
+        <v>4.2980999999999998E-2</v>
+      </c>
+      <c r="G56" s="32">
+        <v>18.515305999999999</v>
+      </c>
+      <c r="H56" s="32">
+        <v>4.6882E-2</v>
+      </c>
+      <c r="I56" s="32">
+        <v>3.0414E-2</v>
+      </c>
       <c r="J56">
         <v>45</v>
       </c>
+      <c r="K56">
+        <v>500</v>
+      </c>
+      <c r="L56">
+        <v>100</v>
+      </c>
     </row>
     <row r="57" spans="5:13" x14ac:dyDescent="0.35">
+      <c r="E57" s="32">
+        <v>1.1027849999999999</v>
+      </c>
+      <c r="F57" s="32">
+        <v>4.2834999999999998E-2</v>
+      </c>
+      <c r="G57" s="32">
+        <v>18.568462</v>
+      </c>
+      <c r="H57" s="32">
+        <v>4.6817999999999999E-2</v>
+      </c>
+      <c r="I57" s="32">
+        <v>3.1482999999999997E-2</v>
+      </c>
       <c r="J57">
         <v>46</v>
+      </c>
+      <c r="K57">
+        <v>500</v>
+      </c>
+      <c r="L57">
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="5:13" x14ac:dyDescent="0.35">
@@ -7487,21 +8407,21 @@
     <row r="63" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E63" s="35">
         <f>AVERAGE(E53:E62)</f>
-        <v>1.1154123333333335</v>
+        <v>1.1114816000000001</v>
       </c>
       <c r="F63" s="35">
         <f>AVERAGE(F53:F62)</f>
-        <v>4.3252666666666661E-2</v>
+        <v>4.3114799999999995E-2</v>
       </c>
       <c r="G63" s="35">
         <f>AVERAGE(G53:G62)</f>
-        <v>18.514305</v>
+        <v>18.525336599999999</v>
       </c>
     </row>
     <row r="64" spans="5:13" x14ac:dyDescent="0.35">
       <c r="E64" s="35">
         <f>MEDIAN(E53:E62)</f>
-        <v>1.109602</v>
+        <v>1.1083860000000001</v>
       </c>
       <c r="F64" s="35">
         <f>MEDIAN(F53:F62)</f>
@@ -7509,7 +8429,7 @@
       </c>
       <c r="G64" s="35">
         <f>MEDIAN(G53:G62)</f>
-        <v>18.288941000000001</v>
+        <v>18.515305999999999</v>
       </c>
     </row>
   </sheetData>
@@ -7523,7 +8443,7 @@
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
+      <selection pane="bottomLeft" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8847,8 +9767,29 @@
       <c r="C51" t="s">
         <v>130</v>
       </c>
+      <c r="E51" s="32">
+        <v>1.098179</v>
+      </c>
+      <c r="F51" s="32">
+        <v>8.6457000000000006E-2</v>
+      </c>
+      <c r="G51" s="32">
+        <v>10.257434999999999</v>
+      </c>
+      <c r="H51" s="32">
+        <v>8.0448000000000006E-2</v>
+      </c>
+      <c r="I51" s="32">
+        <v>3.8538999999999997E-2</v>
+      </c>
       <c r="J51">
         <v>45</v>
+      </c>
+      <c r="K51">
+        <v>500</v>
+      </c>
+      <c r="L51">
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.35">
@@ -8861,8 +9802,29 @@
       <c r="C52" t="s">
         <v>130</v>
       </c>
+      <c r="E52" s="32">
+        <v>1.120104</v>
+      </c>
+      <c r="F52" s="32">
+        <v>8.7651000000000007E-2</v>
+      </c>
+      <c r="G52" s="32">
+        <v>10.859774</v>
+      </c>
+      <c r="H52" s="32">
+        <v>8.2227999999999996E-2</v>
+      </c>
+      <c r="I52" s="32">
+        <v>3.8540999999999999E-2</v>
+      </c>
       <c r="J52">
         <v>46</v>
+      </c>
+      <c r="K52">
+        <v>500</v>
+      </c>
+      <c r="L52">
+        <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.35">
@@ -8938,25 +9900,25 @@
     <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E58" s="35">
         <f>AVERAGE(E48:E57)</f>
-        <v>1.1419756666666667</v>
+        <v>1.1288419999999999</v>
       </c>
       <c r="F58" s="35">
         <f>AVERAGE(F48:F57)</f>
-        <v>8.8760666666666668E-2</v>
+        <v>8.8078000000000017E-2</v>
       </c>
       <c r="G58" s="35">
         <f>AVERAGE(G48:G57)</f>
-        <v>10.841530000000001</v>
+        <v>10.728359800000002</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E59" s="35">
         <f>MEDIAN(E48:E57)</f>
-        <v>1.122995</v>
+        <v>1.120104</v>
       </c>
       <c r="F59" s="35">
         <f>MEDIAN(F48:F57)</f>
-        <v>8.8496000000000005E-2</v>
+        <v>8.7651000000000007E-2</v>
       </c>
       <c r="G59" s="35">
         <f>MEDIAN(G48:G57)</f>
@@ -8974,8 +9936,8 @@
   <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M48" sqref="M48"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9772,7 +10734,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E33" s="35">
         <f>AVERAGE(E23:E32)</f>
         <v>1.1548605000000001</v>
@@ -9786,7 +10748,7 @@
         <v>10.805777199999998</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E34" s="35">
         <f>MEDIAN(E23:E32)</f>
         <v>1.1524975</v>
@@ -9800,7 +10762,7 @@
         <v>10.791979</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>143</v>
       </c>
@@ -9834,8 +10796,11 @@
       <c r="L36">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M36" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>143</v>
       </c>
@@ -9870,7 +10835,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>143</v>
       </c>
@@ -9905,12 +10870,31 @@
         <v>200</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E39" s="32"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39">
+        <v>4126</v>
+      </c>
+      <c r="C39" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="32">
+        <v>1.139494</v>
+      </c>
+      <c r="F39" s="32">
+        <v>9.7489000000000006E-2</v>
+      </c>
+      <c r="G39" s="32">
+        <v>11.202152</v>
+      </c>
+      <c r="H39" s="32">
+        <v>8.9238999999999999E-2</v>
+      </c>
+      <c r="I39" s="32">
+        <v>4.9543999999999998E-2</v>
+      </c>
       <c r="J39">
         <v>45</v>
       </c>
@@ -9921,12 +10905,31 @@
         <v>200</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="E40" s="32"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>143</v>
+      </c>
+      <c r="B40">
+        <v>4126</v>
+      </c>
+      <c r="C40" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="32">
+        <v>1.126393</v>
+      </c>
+      <c r="F40" s="32">
+        <v>9.8381999999999997E-2</v>
+      </c>
+      <c r="G40" s="32">
+        <v>10.758433999999999</v>
+      </c>
+      <c r="H40" s="32">
+        <v>8.9041999999999996E-2</v>
+      </c>
+      <c r="I40" s="32">
+        <v>4.8443E-2</v>
+      </c>
       <c r="J40">
         <v>46</v>
       </c>
@@ -9937,7 +10940,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E41" s="32"/>
       <c r="F41" s="32"/>
       <c r="G41" s="32"/>
@@ -9953,7 +10956,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E42" s="32"/>
       <c r="F42" s="32"/>
       <c r="G42" s="32"/>
@@ -9969,7 +10972,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E43" s="32"/>
       <c r="F43" s="32"/>
       <c r="G43" s="32"/>
@@ -9985,7 +10988,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E44" s="32"/>
       <c r="F44" s="32"/>
       <c r="G44" s="32"/>
@@ -10001,7 +11004,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E45" s="32"/>
       <c r="F45" s="32"/>
       <c r="G45" s="32"/>
@@ -10017,23 +11020,23 @@
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E46" s="35">
         <f>AVERAGE(E36:E45)</f>
-        <v>1.1307226666666668</v>
+        <v>1.1316110000000001</v>
       </c>
       <c r="F46" s="35">
         <f>AVERAGE(F36:F45)</f>
-        <v>9.839266666666667E-2</v>
+        <v>9.8209799999999986E-2</v>
       </c>
       <c r="G46" s="35">
         <f>AVERAGE(G36:G45)</f>
-        <v>10.826755999999998</v>
+        <v>10.888170799999999</v>
       </c>
       <c r="H46" s="32"/>
       <c r="I46" s="32"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E47" s="35">
         <f>MEDIAN(E36:E45)</f>
         <v>1.1359269999999999</v>
@@ -10049,28 +11052,28 @@
       <c r="H47" s="32"/>
       <c r="I47" s="32"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E48" s="32"/>
       <c r="F48" s="32"/>
       <c r="G48" s="32"/>
       <c r="H48" s="32"/>
       <c r="I48" s="32"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E49" s="32"/>
       <c r="F49" s="32"/>
       <c r="G49" s="32"/>
       <c r="H49" s="32"/>
       <c r="I49" s="32"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E50" s="32"/>
       <c r="F50" s="32"/>
       <c r="G50" s="32"/>
       <c r="H50" s="32"/>
       <c r="I50" s="32"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>143</v>
       </c>
@@ -10104,8 +11107,11 @@
       <c r="L51">
         <v>100</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="M51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>143</v>
       </c>
@@ -10140,7 +11146,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>143</v>
       </c>
@@ -10175,7 +11181,31 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54">
+        <v>4126</v>
+      </c>
+      <c r="C54" t="s">
+        <v>130</v>
+      </c>
+      <c r="E54" s="32">
+        <v>1.113542</v>
+      </c>
+      <c r="F54" s="32">
+        <v>9.6823999999999993E-2</v>
+      </c>
+      <c r="G54" s="32">
+        <v>10.265351000000001</v>
+      </c>
+      <c r="H54" s="32">
+        <v>8.7514999999999996E-2</v>
+      </c>
+      <c r="I54" s="32">
+        <v>4.8701000000000001E-2</v>
+      </c>
       <c r="J54">
         <v>45</v>
       </c>
@@ -10186,7 +11216,31 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>143</v>
+      </c>
+      <c r="B55">
+        <v>4126</v>
+      </c>
+      <c r="C55" t="s">
+        <v>130</v>
+      </c>
+      <c r="E55" s="32">
+        <v>1.1275500000000001</v>
+      </c>
+      <c r="F55" s="32">
+        <v>9.7792000000000004E-2</v>
+      </c>
+      <c r="G55" s="32">
+        <v>10.478624</v>
+      </c>
+      <c r="H55" s="32">
+        <v>8.8525000000000006E-2</v>
+      </c>
+      <c r="I55" s="32">
+        <v>4.8598000000000002E-2</v>
+      </c>
       <c r="J55">
         <v>46</v>
       </c>
@@ -10197,7 +11251,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J56">
         <v>47</v>
       </c>
@@ -10208,7 +11262,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J57">
         <v>48</v>
       </c>
@@ -10219,7 +11273,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J58">
         <v>49</v>
       </c>
@@ -10230,7 +11284,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J59">
         <v>50</v>
       </c>
@@ -10241,7 +11295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J60">
         <v>51</v>
       </c>
@@ -10252,24 +11306,24 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E61" s="35">
         <f>AVERAGE(E51:E60)</f>
-        <v>1.1334153333333334</v>
+        <v>1.1282676</v>
       </c>
       <c r="F61" s="35">
         <f>AVERAGE(F51:F60)</f>
-        <v>9.8115000000000008E-2</v>
+        <v>9.7792199999999996E-2</v>
       </c>
       <c r="G61" s="35">
         <f>AVERAGE(G51:G60)</f>
-        <v>10.528817333333333</v>
-      </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+        <v>10.466085400000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="E62" s="35">
         <f>MEDIAN(E51:E60)</f>
-        <v>1.128107</v>
+        <v>1.1275500000000001</v>
       </c>
       <c r="F62" s="35">
         <f>MEDIAN(F51:F60)</f>
@@ -10277,7 +11331,7 @@
       </c>
       <c r="G62" s="35">
         <f>MEDIAN(G51:G60)</f>
-        <v>10.66564</v>
+        <v>10.478624</v>
       </c>
     </row>
   </sheetData>

--- a/results/results_3_tz2_same_end_dates_forecasting_or_imputation.xlsx
+++ b/results/results_3_tz2_same_end_dates_forecasting_or_imputation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D108304-FBE8-44E5-8F65-E2B8251EFD4A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1569D83D-ECEA-42AE-8A25-079F6876D099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11420" yWindow="2010" windowWidth="19200" windowHeight="10200" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data dictionary" sheetId="1" r:id="rId1"/>
@@ -875,6 +875,7 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -899,7 +900,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1197,11 +1197,11 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="2:4" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
@@ -1438,10 +1438,10 @@
       <c r="C29" s="14"/>
     </row>
     <row r="30" spans="2:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="42"/>
+      <c r="C30" s="43"/>
     </row>
     <row r="31" spans="2:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
@@ -1477,11 +1477,11 @@
     </row>
     <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="36" spans="2:4" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="41"/>
     </row>
     <row r="37" spans="2:4" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="2" t="s">
@@ -1749,10 +1749,10 @@
     </row>
     <row r="63" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="64" spans="2:4" ht="37" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="43" t="s">
+      <c r="B64" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="C64" s="44"/>
+      <c r="C64" s="45"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B65" s="27" t="s">
@@ -1817,9 +1817,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B601BEC-AC73-48E1-95B1-B9761E857B1D}">
   <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A61" sqref="A61"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D44" sqref="D44:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2157,23 +2157,23 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
@@ -2217,7 +2217,7 @@
         <v>132</v>
       </c>
       <c r="N19" s="33">
-        <f>(32*L19*K19)/B19</f>
+        <f t="shared" ref="N19:N28" si="3">(32*L19*K19)/B19</f>
         <v>162.60162601626016</v>
       </c>
     </row>
@@ -2263,7 +2263,7 @@
         <v>132</v>
       </c>
       <c r="N20" s="33">
-        <f>(32*L20*K20)/B20</f>
+        <f t="shared" si="3"/>
         <v>162.60162601626016</v>
       </c>
     </row>
@@ -2309,7 +2309,7 @@
         <v>132</v>
       </c>
       <c r="N21" s="33">
-        <f>(32*L21*K21)/B21</f>
+        <f t="shared" si="3"/>
         <v>162.60162601626016</v>
       </c>
     </row>
@@ -2355,7 +2355,7 @@
         <v>132</v>
       </c>
       <c r="N22" s="33">
-        <f>(32*L22*K22)/B22</f>
+        <f t="shared" si="3"/>
         <v>162.60162601626016</v>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
         <v>132</v>
       </c>
       <c r="N23" s="33">
-        <f>(32*L23*K23)/B23</f>
+        <f t="shared" si="3"/>
         <v>162.60162601626016</v>
       </c>
     </row>
@@ -2447,7 +2447,7 @@
         <v>132</v>
       </c>
       <c r="N24" s="33">
-        <f>(32*L24*K24)/B24</f>
+        <f t="shared" si="3"/>
         <v>162.60162601626016</v>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
         <v>132</v>
       </c>
       <c r="N25" s="33">
-        <f>(32*L25*K25)/B25</f>
+        <f t="shared" si="3"/>
         <v>162.60162601626016</v>
       </c>
     </row>
@@ -2539,7 +2539,7 @@
         <v>132</v>
       </c>
       <c r="N26" s="33">
-        <f>(32*L26*K26)/B26</f>
+        <f t="shared" si="3"/>
         <v>162.60162601626016</v>
       </c>
     </row>
@@ -2585,7 +2585,7 @@
         <v>132</v>
       </c>
       <c r="N27" s="33">
-        <f>(32*L27*K27)/B27</f>
+        <f t="shared" si="3"/>
         <v>162.60162601626016</v>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
         <v>132</v>
       </c>
       <c r="N28" s="33">
-        <f>(32*L28*K28)/B28</f>
+        <f t="shared" si="3"/>
         <v>162.60162601626016</v>
       </c>
     </row>
@@ -2742,7 +2742,7 @@
         <v>132</v>
       </c>
       <c r="N33" s="33">
-        <f>(32*L33*K33)/B33</f>
+        <f t="shared" ref="N33:N42" si="4">(32*L33*K33)/B33</f>
         <v>650.40650406504062</v>
       </c>
     </row>
@@ -2788,7 +2788,7 @@
         <v>132</v>
       </c>
       <c r="N34" s="33">
-        <f>(32*L34*K34)/B34</f>
+        <f t="shared" si="4"/>
         <v>650.40650406504062</v>
       </c>
     </row>
@@ -2834,7 +2834,7 @@
         <v>132</v>
       </c>
       <c r="N35" s="33">
-        <f>(32*L35*K35)/B35</f>
+        <f t="shared" si="4"/>
         <v>650.40650406504062</v>
       </c>
     </row>
@@ -2880,7 +2880,7 @@
         <v>132</v>
       </c>
       <c r="N36" s="33">
-        <f>(32*L36*K36)/B36</f>
+        <f t="shared" si="4"/>
         <v>650.40650406504062</v>
       </c>
     </row>
@@ -2926,7 +2926,7 @@
         <v>132</v>
       </c>
       <c r="N37" s="33">
-        <f>(32*L37*K37)/B37</f>
+        <f t="shared" si="4"/>
         <v>650.40650406504062</v>
       </c>
     </row>
@@ -2972,7 +2972,7 @@
         <v>132</v>
       </c>
       <c r="N38" s="33">
-        <f>(32*L38*K38)/B38</f>
+        <f t="shared" si="4"/>
         <v>650.40650406504062</v>
       </c>
     </row>
@@ -3018,7 +3018,7 @@
         <v>132</v>
       </c>
       <c r="N39" s="33">
-        <f>(32*L39*K39)/B39</f>
+        <f t="shared" si="4"/>
         <v>650.40650406504062</v>
       </c>
     </row>
@@ -3064,7 +3064,7 @@
         <v>132</v>
       </c>
       <c r="N40" s="33">
-        <f>(32*L40*K40)/B40</f>
+        <f t="shared" si="4"/>
         <v>650.40650406504062</v>
       </c>
     </row>
@@ -3110,7 +3110,7 @@
         <v>132</v>
       </c>
       <c r="N41" s="33">
-        <f>(32*L41*K41)/B41</f>
+        <f t="shared" si="4"/>
         <v>650.40650406504062</v>
       </c>
     </row>
@@ -3156,7 +3156,7 @@
         <v>132</v>
       </c>
       <c r="N42" s="33">
-        <f>(32*L42*K42)/B42</f>
+        <f t="shared" si="4"/>
         <v>650.40650406504062</v>
       </c>
     </row>
@@ -3236,7 +3236,7 @@
         <v>135</v>
       </c>
       <c r="D47" s="32">
-        <f t="shared" ref="D47:D51" si="3">((E47/$E$5)+(F47/$F$5))/2</f>
+        <f t="shared" ref="D47:D51" si="5">((E47/$E$5)+(F47/$F$5))/2</f>
         <v>0.90356817379309629</v>
       </c>
       <c r="E47" s="32">
@@ -3282,7 +3282,7 @@
         <v>135</v>
       </c>
       <c r="D48" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.89927008941547548</v>
       </c>
       <c r="E48" s="32">
@@ -3328,7 +3328,7 @@
         <v>135</v>
       </c>
       <c r="D49" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.9468671499822493</v>
       </c>
       <c r="E49" s="32">
@@ -3374,7 +3374,7 @@
         <v>135</v>
       </c>
       <c r="D50" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.96120574278112247</v>
       </c>
       <c r="E50" s="32">
@@ -3420,7 +3420,7 @@
         <v>135</v>
       </c>
       <c r="D51" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.92545844980952352</v>
       </c>
       <c r="E51" s="32">
@@ -3555,9 +3555,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2528BE6C-DDB8-47A2-816F-BAF7A0338D6F}">
   <dimension ref="A1:P115"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A117" sqref="A117"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3986,23 +3986,23 @@
       <c r="N17" s="31"/>
     </row>
     <row r="18" spans="1:16" s="29" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
@@ -4046,7 +4046,7 @@
         <v>132</v>
       </c>
       <c r="O20" s="33">
-        <f>(32*K20*L20)/B20</f>
+        <f t="shared" ref="O20:O29" si="3">(32*K20*L20)/B20</f>
         <v>88.544548976203657</v>
       </c>
       <c r="P20" t="s">
@@ -4095,7 +4095,7 @@
         <v>132</v>
       </c>
       <c r="O21" s="33">
-        <f>(32*K21*L21)/B21</f>
+        <f t="shared" si="3"/>
         <v>88.544548976203657</v>
       </c>
     </row>
@@ -4141,7 +4141,7 @@
         <v>132</v>
       </c>
       <c r="O22" s="33">
-        <f>(32*K22*L22)/B22</f>
+        <f t="shared" si="3"/>
         <v>88.544548976203657</v>
       </c>
     </row>
@@ -4187,7 +4187,7 @@
         <v>132</v>
       </c>
       <c r="O23" s="33">
-        <f>(32*K23*L23)/B23</f>
+        <f t="shared" si="3"/>
         <v>88.544548976203657</v>
       </c>
     </row>
@@ -4233,7 +4233,7 @@
         <v>132</v>
       </c>
       <c r="O24" s="33">
-        <f>(32*K24*L24)/B24</f>
+        <f t="shared" si="3"/>
         <v>88.544548976203657</v>
       </c>
     </row>
@@ -4279,7 +4279,7 @@
         <v>132</v>
       </c>
       <c r="O25" s="33">
-        <f>(32*K25*L25)/B25</f>
+        <f t="shared" si="3"/>
         <v>88.544548976203657</v>
       </c>
     </row>
@@ -4325,7 +4325,7 @@
         <v>132</v>
       </c>
       <c r="O26" s="33">
-        <f>(32*K26*L26)/B26</f>
+        <f t="shared" si="3"/>
         <v>88.544548976203657</v>
       </c>
     </row>
@@ -4371,7 +4371,7 @@
         <v>132</v>
       </c>
       <c r="O27" s="33">
-        <f>(32*K27*L27)/B27</f>
+        <f t="shared" si="3"/>
         <v>88.544548976203657</v>
       </c>
     </row>
@@ -4417,7 +4417,7 @@
         <v>132</v>
       </c>
       <c r="O28" s="33">
-        <f>(32*K28*L28)/B28</f>
+        <f t="shared" si="3"/>
         <v>88.544548976203657</v>
       </c>
     </row>
@@ -4463,7 +4463,7 @@
         <v>132</v>
       </c>
       <c r="O29" s="33">
-        <f>(32*K29*L29)/B29</f>
+        <f t="shared" si="3"/>
         <v>88.544548976203657</v>
       </c>
     </row>
@@ -4544,7 +4544,7 @@
         <v>130</v>
       </c>
       <c r="D34" s="32">
-        <f t="shared" ref="D34:D43" si="3">((E34/$E$12)+(F34/$F$12))/2</f>
+        <f t="shared" ref="D34:D43" si="4">((E34/$E$12)+(F34/$F$12))/2</f>
         <v>0.99151631395677098</v>
       </c>
       <c r="E34" s="32">
@@ -4589,7 +4589,7 @@
         <v>130</v>
       </c>
       <c r="D35" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0039230380364317</v>
       </c>
       <c r="E35" s="32">
@@ -4631,7 +4631,7 @@
         <v>130</v>
       </c>
       <c r="D36" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9981870645736437</v>
       </c>
       <c r="E36" s="32">
@@ -4673,7 +4673,7 @@
         <v>130</v>
       </c>
       <c r="D37" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99483620945740814</v>
       </c>
       <c r="E37" s="32">
@@ -4715,7 +4715,7 @@
         <v>130</v>
       </c>
       <c r="D38" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0023064583644168</v>
       </c>
       <c r="E38" s="32">
@@ -4757,7 +4757,7 @@
         <v>130</v>
       </c>
       <c r="D39" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99219513708787199</v>
       </c>
       <c r="E39" s="32">
@@ -4799,7 +4799,7 @@
         <v>130</v>
       </c>
       <c r="D40" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0137381745246152</v>
       </c>
       <c r="E40" s="32">
@@ -4841,7 +4841,7 @@
         <v>130</v>
       </c>
       <c r="D41" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0107367610797935</v>
       </c>
       <c r="E41" s="32">
@@ -4883,7 +4883,7 @@
         <v>130</v>
       </c>
       <c r="D42" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.108023255460034</v>
       </c>
       <c r="E42" s="32">
@@ -4925,7 +4925,7 @@
         <v>130</v>
       </c>
       <c r="D43" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0478281739912867</v>
       </c>
       <c r="E43" s="32">
@@ -5030,7 +5030,7 @@
         <v>130</v>
       </c>
       <c r="D48" s="32">
-        <f t="shared" ref="D48:D56" si="4">((E48/$E$12)+(F48/$F$12))/2</f>
+        <f t="shared" ref="D48:D56" si="5">((E48/$E$12)+(F48/$F$12))/2</f>
         <v>1.0098321131215271</v>
       </c>
       <c r="E48" s="32">
@@ -5061,7 +5061,7 @@
         <v>132</v>
       </c>
       <c r="O48" s="33">
-        <f>(32*K48*L48)/B48</f>
+        <f t="shared" ref="O48:O56" si="6">(32*K48*L48)/B48</f>
         <v>177.08909795240731</v>
       </c>
     </row>
@@ -5076,7 +5076,7 @@
         <v>130</v>
       </c>
       <c r="D49" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0186790895145419</v>
       </c>
       <c r="E49" s="32">
@@ -5107,7 +5107,7 @@
         <v>132</v>
       </c>
       <c r="O49" s="33">
-        <f>(32*K49*L49)/B49</f>
+        <f t="shared" si="6"/>
         <v>177.08909795240731</v>
       </c>
     </row>
@@ -5122,7 +5122,7 @@
         <v>130</v>
       </c>
       <c r="D50" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0800164823704728</v>
       </c>
       <c r="E50" s="32">
@@ -5153,7 +5153,7 @@
         <v>132</v>
       </c>
       <c r="O50" s="33">
-        <f>(32*K50*L50)/B50</f>
+        <f t="shared" si="6"/>
         <v>177.08909795240731</v>
       </c>
     </row>
@@ -5168,7 +5168,7 @@
         <v>130</v>
       </c>
       <c r="D51" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.025905301676084</v>
       </c>
       <c r="E51" s="32">
@@ -5199,7 +5199,7 @@
         <v>132</v>
       </c>
       <c r="O51" s="33">
-        <f>(32*K51*L51)/B51</f>
+        <f t="shared" si="6"/>
         <v>177.08909795240731</v>
       </c>
     </row>
@@ -5214,7 +5214,7 @@
         <v>130</v>
       </c>
       <c r="D52" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0302963492045729</v>
       </c>
       <c r="E52" s="32">
@@ -5245,7 +5245,7 @@
         <v>132</v>
       </c>
       <c r="O52" s="33">
-        <f>(32*K52*L52)/B52</f>
+        <f t="shared" si="6"/>
         <v>177.08909795240731</v>
       </c>
     </row>
@@ -5260,7 +5260,7 @@
         <v>130</v>
       </c>
       <c r="D53" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0844711623352914</v>
       </c>
       <c r="E53" s="32">
@@ -5291,7 +5291,7 @@
         <v>132</v>
       </c>
       <c r="O53" s="33">
-        <f>(32*K53*L53)/B53</f>
+        <f t="shared" si="6"/>
         <v>177.08909795240731</v>
       </c>
     </row>
@@ -5306,7 +5306,7 @@
         <v>130</v>
       </c>
       <c r="D54" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0859482873423048</v>
       </c>
       <c r="E54" s="32">
@@ -5337,7 +5337,7 @@
         <v>132</v>
       </c>
       <c r="O54" s="33">
-        <f>(32*K54*L54)/B54</f>
+        <f t="shared" si="6"/>
         <v>177.08909795240731</v>
       </c>
     </row>
@@ -5352,7 +5352,7 @@
         <v>130</v>
       </c>
       <c r="D55" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0361129152344586</v>
       </c>
       <c r="E55" s="32">
@@ -5383,7 +5383,7 @@
         <v>132</v>
       </c>
       <c r="O55" s="33">
-        <f>(32*K55*L55)/B55</f>
+        <f t="shared" si="6"/>
         <v>177.08909795240731</v>
       </c>
     </row>
@@ -5398,7 +5398,7 @@
         <v>130</v>
       </c>
       <c r="D56" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0383573685073229</v>
       </c>
       <c r="E56" s="32">
@@ -5429,7 +5429,7 @@
         <v>132</v>
       </c>
       <c r="O56" s="33">
-        <f>(32*K56*L56)/B56</f>
+        <f t="shared" si="6"/>
         <v>177.08909795240731</v>
       </c>
     </row>
@@ -5516,7 +5516,7 @@
         <v>130</v>
       </c>
       <c r="D61" s="32">
-        <f t="shared" ref="D61:D70" si="5">((E61/$E$12)+(F61/$F$12))/2</f>
+        <f t="shared" ref="D61:D70" si="7">((E61/$E$12)+(F61/$F$12))/2</f>
         <v>0.99786907888411536</v>
       </c>
       <c r="E61" s="32">
@@ -5547,7 +5547,7 @@
         <v>132</v>
       </c>
       <c r="O61" s="33">
-        <f>(32*K61*L61)/B61</f>
+        <f t="shared" ref="O61:O70" si="8">(32*K61*L61)/B61</f>
         <v>100.05534034311013</v>
       </c>
     </row>
@@ -5562,7 +5562,7 @@
         <v>130</v>
       </c>
       <c r="D62" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.002750199652932</v>
       </c>
       <c r="E62" s="32">
@@ -5593,7 +5593,7 @@
         <v>132</v>
       </c>
       <c r="O62" s="33">
-        <f>(32*K62*L62)/B62</f>
+        <f t="shared" si="8"/>
         <v>100.05534034311013</v>
       </c>
     </row>
@@ -5608,7 +5608,7 @@
         <v>130</v>
       </c>
       <c r="D63" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.9959283745096168</v>
       </c>
       <c r="E63" s="32">
@@ -5639,7 +5639,7 @@
         <v>132</v>
       </c>
       <c r="O63" s="33">
-        <f>(32*K63*L63)/B63</f>
+        <f t="shared" si="8"/>
         <v>100.05534034311013</v>
       </c>
     </row>
@@ -5654,7 +5654,7 @@
         <v>130</v>
       </c>
       <c r="D64" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0065013540800174</v>
       </c>
       <c r="E64" s="32">
@@ -5685,7 +5685,7 @@
         <v>132</v>
       </c>
       <c r="O64" s="33">
-        <f>(32*K64*L64)/B64</f>
+        <f t="shared" si="8"/>
         <v>100.05534034311013</v>
       </c>
     </row>
@@ -5700,7 +5700,7 @@
         <v>130</v>
       </c>
       <c r="D65" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0022459432860378</v>
       </c>
       <c r="E65" s="32">
@@ -5731,7 +5731,7 @@
         <v>132</v>
       </c>
       <c r="O65" s="33">
-        <f>(32*K65*L65)/B65</f>
+        <f t="shared" si="8"/>
         <v>100.05534034311013</v>
       </c>
     </row>
@@ -5746,7 +5746,7 @@
         <v>130</v>
       </c>
       <c r="D66" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.99487566792424698</v>
       </c>
       <c r="E66" s="32">
@@ -5777,7 +5777,7 @@
         <v>132</v>
       </c>
       <c r="O66" s="33">
-        <f>(32*K66*L66)/B66</f>
+        <f t="shared" si="8"/>
         <v>100.05534034311013</v>
       </c>
     </row>
@@ -5792,7 +5792,7 @@
         <v>130</v>
       </c>
       <c r="D67" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0149969954870888</v>
       </c>
       <c r="E67" s="32">
@@ -5823,7 +5823,7 @@
         <v>132</v>
       </c>
       <c r="O67" s="33">
-        <f>(32*K67*L67)/B67</f>
+        <f t="shared" si="8"/>
         <v>100.05534034311013</v>
       </c>
     </row>
@@ -5838,7 +5838,7 @@
         <v>130</v>
       </c>
       <c r="D68" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0087224786020279</v>
       </c>
       <c r="E68" s="32">
@@ -5869,7 +5869,7 @@
         <v>132</v>
       </c>
       <c r="O68" s="33">
-        <f>(32*K68*L68)/B68</f>
+        <f t="shared" si="8"/>
         <v>100.05534034311013</v>
       </c>
     </row>
@@ -5884,7 +5884,7 @@
         <v>130</v>
       </c>
       <c r="D69" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0125363828099916</v>
       </c>
       <c r="E69" s="32">
@@ -5915,7 +5915,7 @@
         <v>132</v>
       </c>
       <c r="O69" s="33">
-        <f>(32*K69*L69)/B69</f>
+        <f t="shared" si="8"/>
         <v>100.05534034311013</v>
       </c>
     </row>
@@ -5930,7 +5930,7 @@
         <v>130</v>
       </c>
       <c r="D70" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0502832030572677</v>
       </c>
       <c r="E70" s="32">
@@ -5961,7 +5961,7 @@
         <v>132</v>
       </c>
       <c r="O70" s="33">
-        <f>(32*K70*L70)/B70</f>
+        <f t="shared" si="8"/>
         <v>100.05534034311013</v>
       </c>
     </row>
@@ -6039,7 +6039,7 @@
         <v>130</v>
       </c>
       <c r="D75" s="32">
-        <f t="shared" ref="D75:D84" si="6">((E75/$E$12)+(F75/$F$12))/2</f>
+        <f t="shared" ref="D75:D84" si="9">((E75/$E$12)+(F75/$F$12))/2</f>
         <v>1.0672732340938704</v>
       </c>
       <c r="E75" s="32">
@@ -6070,7 +6070,7 @@
         <v>132</v>
       </c>
       <c r="O75" s="33">
-        <f>(32*K75*L75)/B75</f>
+        <f t="shared" ref="O75:O84" si="10">(32*K75*L75)/B75</f>
         <v>354.17819590481463</v>
       </c>
     </row>
@@ -6085,7 +6085,7 @@
         <v>130</v>
       </c>
       <c r="D76" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0271337544226964</v>
       </c>
       <c r="E76" s="32">
@@ -6116,7 +6116,7 @@
         <v>132</v>
       </c>
       <c r="O76" s="33">
-        <f>(32*K76*L76)/B76</f>
+        <f t="shared" si="10"/>
         <v>354.17819590481463</v>
       </c>
     </row>
@@ -6131,7 +6131,7 @@
         <v>130</v>
       </c>
       <c r="D77" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0182111690354665</v>
       </c>
       <c r="E77" s="32">
@@ -6162,7 +6162,7 @@
         <v>132</v>
       </c>
       <c r="O77" s="33">
-        <f>(32*K77*L77)/B77</f>
+        <f t="shared" si="10"/>
         <v>354.17819590481463</v>
       </c>
     </row>
@@ -6177,7 +6177,7 @@
         <v>130</v>
       </c>
       <c r="D78" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0225481755962382</v>
       </c>
       <c r="E78" s="32">
@@ -6208,7 +6208,7 @@
         <v>132</v>
       </c>
       <c r="O78" s="33">
-        <f>(32*K78*L78)/B78</f>
+        <f t="shared" si="10"/>
         <v>354.17819590481463</v>
       </c>
     </row>
@@ -6223,7 +6223,7 @@
         <v>130</v>
       </c>
       <c r="D79" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0182485239610553</v>
       </c>
       <c r="E79" s="32">
@@ -6254,7 +6254,7 @@
         <v>132</v>
       </c>
       <c r="O79" s="33">
-        <f>(32*K79*L79)/B79</f>
+        <f t="shared" si="10"/>
         <v>354.17819590481463</v>
       </c>
     </row>
@@ -6269,7 +6269,7 @@
         <v>130</v>
       </c>
       <c r="D80" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0206078490023098</v>
       </c>
       <c r="E80" s="32">
@@ -6300,7 +6300,7 @@
         <v>132</v>
       </c>
       <c r="O80" s="33">
-        <f>(32*K80*L80)/B80</f>
+        <f t="shared" si="10"/>
         <v>354.17819590481463</v>
       </c>
     </row>
@@ -6315,7 +6315,7 @@
         <v>130</v>
       </c>
       <c r="D81" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.012595309434313</v>
       </c>
       <c r="E81" s="32">
@@ -6346,7 +6346,7 @@
         <v>132</v>
       </c>
       <c r="O81" s="33">
-        <f>(32*K81*L81)/B81</f>
+        <f t="shared" si="10"/>
         <v>354.17819590481463</v>
       </c>
     </row>
@@ -6361,7 +6361,7 @@
         <v>130</v>
       </c>
       <c r="D82" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0497946013840018</v>
       </c>
       <c r="E82" s="32">
@@ -6392,7 +6392,7 @@
         <v>132</v>
       </c>
       <c r="O82" s="33">
-        <f>(32*K82*L82)/B82</f>
+        <f t="shared" si="10"/>
         <v>354.17819590481463</v>
       </c>
     </row>
@@ -6407,7 +6407,7 @@
         <v>130</v>
       </c>
       <c r="D83" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0302618067664711</v>
       </c>
       <c r="E83" s="32">
@@ -6438,7 +6438,7 @@
         <v>132</v>
       </c>
       <c r="O83" s="33">
-        <f>(32*K83*L83)/B83</f>
+        <f t="shared" si="10"/>
         <v>354.17819590481463</v>
       </c>
     </row>
@@ -6453,7 +6453,7 @@
         <v>130</v>
       </c>
       <c r="D84" s="32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.0185676145636977</v>
       </c>
       <c r="E84" s="32">
@@ -6484,7 +6484,7 @@
         <v>132</v>
       </c>
       <c r="O84" s="33">
-        <f>(32*K84*L84)/B84</f>
+        <f t="shared" si="10"/>
         <v>354.17819590481463</v>
       </c>
     </row>
@@ -6562,7 +6562,7 @@
         <v>130</v>
       </c>
       <c r="D89" s="32">
-        <f t="shared" ref="D89:D93" si="7">((E89/$E$12)+(F89/$F$12))/2</f>
+        <f t="shared" ref="D89:D93" si="11">((E89/$E$12)+(F89/$F$12))/2</f>
         <v>1.0299515187014243</v>
       </c>
       <c r="E89" s="32">
@@ -6601,7 +6601,7 @@
         <v>130</v>
       </c>
       <c r="D90" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.0480444526557289</v>
       </c>
       <c r="E90" s="32">
@@ -6640,7 +6640,7 @@
         <v>130</v>
       </c>
       <c r="D91" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.0742610484843793</v>
       </c>
       <c r="E91" s="32">
@@ -6679,7 +6679,7 @@
         <v>130</v>
       </c>
       <c r="D92" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.0634301730080329</v>
       </c>
       <c r="E92" s="32">
@@ -6718,7 +6718,7 @@
         <v>130</v>
       </c>
       <c r="D93" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1.0239462464978506</v>
       </c>
       <c r="E93" s="32">
@@ -6863,7 +6863,7 @@
         <v>130</v>
       </c>
       <c r="D103" s="32">
-        <f t="shared" ref="D103:D112" si="8">((E103/$E$12)+(F103/$F$12))/2</f>
+        <f t="shared" ref="D103:D112" si="12">((E103/$E$12)+(F103/$F$12))/2</f>
         <v>1.0320846631333809</v>
       </c>
       <c r="E103" s="32">
@@ -6891,7 +6891,7 @@
         <v>100</v>
       </c>
       <c r="O103" s="33">
-        <f>(32*K103*L103)/B103</f>
+        <f t="shared" ref="O103:O112" si="13">(32*K103*L103)/B103</f>
         <v>885.44548976203657</v>
       </c>
     </row>
@@ -6906,7 +6906,7 @@
         <v>130</v>
       </c>
       <c r="D104" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.0281047597307129</v>
       </c>
       <c r="E104" s="32">
@@ -6934,7 +6934,7 @@
         <v>100</v>
       </c>
       <c r="O104" s="33">
-        <f>(32*K104*L104)/B104</f>
+        <f t="shared" si="13"/>
         <v>885.44548976203657</v>
       </c>
     </row>
@@ -6949,7 +6949,7 @@
         <v>130</v>
       </c>
       <c r="D105" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.0365761271685832</v>
       </c>
       <c r="E105" s="32">
@@ -6977,7 +6977,7 @@
         <v>100</v>
       </c>
       <c r="O105" s="33">
-        <f>(32*K105*L105)/B105</f>
+        <f t="shared" si="13"/>
         <v>885.44548976203657</v>
       </c>
     </row>
@@ -6992,7 +6992,7 @@
         <v>130</v>
       </c>
       <c r="D106" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.0421778016746526</v>
       </c>
       <c r="E106" s="32">
@@ -7020,7 +7020,7 @@
         <v>100</v>
       </c>
       <c r="O106" s="33">
-        <f>(32*K106*L106)/B106</f>
+        <f t="shared" si="13"/>
         <v>885.44548976203657</v>
       </c>
     </row>
@@ -7035,7 +7035,7 @@
         <v>130</v>
       </c>
       <c r="D107" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.0282907957047862</v>
       </c>
       <c r="E107" s="32">
@@ -7063,7 +7063,7 @@
         <v>100</v>
       </c>
       <c r="O107" s="33">
-        <f>(32*K107*L107)/B107</f>
+        <f t="shared" si="13"/>
         <v>885.44548976203657</v>
       </c>
     </row>
@@ -7078,7 +7078,7 @@
         <v>130</v>
       </c>
       <c r="D108" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.0569748088423472</v>
       </c>
       <c r="E108" s="32">
@@ -7106,7 +7106,7 @@
         <v>100</v>
       </c>
       <c r="O108" s="33">
-        <f>(32*K108*L108)/B108</f>
+        <f t="shared" si="13"/>
         <v>885.44548976203657</v>
       </c>
     </row>
@@ -7121,7 +7121,7 @@
         <v>130</v>
       </c>
       <c r="D109" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.0216414598348147</v>
       </c>
       <c r="E109" s="32">
@@ -7149,7 +7149,7 @@
         <v>100</v>
       </c>
       <c r="O109" s="33">
-        <f>(32*K109*L109)/B109</f>
+        <f t="shared" si="13"/>
         <v>885.44548976203657</v>
       </c>
     </row>
@@ -7164,7 +7164,7 @@
         <v>130</v>
       </c>
       <c r="D110" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.009030348058038</v>
       </c>
       <c r="E110" s="32">
@@ -7192,7 +7192,7 @@
         <v>100</v>
       </c>
       <c r="O110" s="33">
-        <f>(32*K110*L110)/B110</f>
+        <f t="shared" si="13"/>
         <v>885.44548976203657</v>
       </c>
     </row>
@@ -7207,7 +7207,7 @@
         <v>130</v>
       </c>
       <c r="D111" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.0447002775551297</v>
       </c>
       <c r="E111" s="32">
@@ -7235,7 +7235,7 @@
         <v>100</v>
       </c>
       <c r="O111" s="33">
-        <f>(32*K111*L111)/B111</f>
+        <f t="shared" si="13"/>
         <v>885.44548976203657</v>
       </c>
     </row>
@@ -7250,7 +7250,7 @@
         <v>130</v>
       </c>
       <c r="D112" s="32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1.0409869956289519</v>
       </c>
       <c r="E112" s="32">
@@ -7278,7 +7278,7 @@
         <v>100</v>
       </c>
       <c r="O112" s="33">
-        <f>(32*K112*L112)/B112</f>
+        <f t="shared" si="13"/>
         <v>885.44548976203657</v>
       </c>
     </row>
@@ -7754,23 +7754,23 @@
       <c r="O15" s="31"/>
     </row>
     <row r="17" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -7814,7 +7814,7 @@
         <v>132</v>
       </c>
       <c r="N18" s="33">
-        <f>(32*L18*K18)/B18</f>
+        <f t="shared" ref="N18:N27" si="3">(32*L18*K18)/B18</f>
         <v>10.19108280254777</v>
       </c>
     </row>
@@ -7860,7 +7860,7 @@
         <v>132</v>
       </c>
       <c r="N19" s="33">
-        <f>(32*L19*K19)/B19</f>
+        <f t="shared" si="3"/>
         <v>10.19108280254777</v>
       </c>
     </row>
@@ -7906,7 +7906,7 @@
         <v>132</v>
       </c>
       <c r="N20" s="33">
-        <f>(32*L20*K20)/B20</f>
+        <f t="shared" si="3"/>
         <v>10.19108280254777</v>
       </c>
     </row>
@@ -7952,7 +7952,7 @@
         <v>132</v>
       </c>
       <c r="N21" s="33">
-        <f>(32*L21*K21)/B21</f>
+        <f t="shared" si="3"/>
         <v>10.19108280254777</v>
       </c>
     </row>
@@ -7998,7 +7998,7 @@
         <v>132</v>
       </c>
       <c r="N22" s="33">
-        <f>(32*L22*K22)/B22</f>
+        <f t="shared" si="3"/>
         <v>10.19108280254777</v>
       </c>
     </row>
@@ -8044,7 +8044,7 @@
         <v>132</v>
       </c>
       <c r="N23" s="33">
-        <f>(32*L23*K23)/B23</f>
+        <f t="shared" si="3"/>
         <v>10.19108280254777</v>
       </c>
     </row>
@@ -8090,7 +8090,7 @@
         <v>132</v>
       </c>
       <c r="N24" s="33">
-        <f>(32*L24*K24)/B24</f>
+        <f t="shared" si="3"/>
         <v>10.19108280254777</v>
       </c>
     </row>
@@ -8136,7 +8136,7 @@
         <v>132</v>
       </c>
       <c r="N25" s="33">
-        <f>(32*L25*K25)/B25</f>
+        <f t="shared" si="3"/>
         <v>10.19108280254777</v>
       </c>
     </row>
@@ -8182,7 +8182,7 @@
         <v>132</v>
       </c>
       <c r="N26" s="33">
-        <f>(32*L26*K26)/B26</f>
+        <f t="shared" si="3"/>
         <v>10.19108280254777</v>
       </c>
     </row>
@@ -8228,7 +8228,7 @@
         <v>132</v>
       </c>
       <c r="N27" s="33">
-        <f>(32*L27*K27)/B27</f>
+        <f t="shared" si="3"/>
         <v>10.19108280254777</v>
       </c>
     </row>
@@ -8287,15 +8287,15 @@
         <f t="array" ref="D30">MEDIAN(ABS(D18:D27-MEDIAN(D18:D27)))</f>
         <v>3.2656609048501095E-2</v>
       </c>
-      <c r="E30" s="46">
+      <c r="E30" s="38">
         <f t="array" ref="E30">MEDIAN(ABS(E18:E27-MEDIAN(E18:E27)))</f>
         <v>1.5379999999999977E-3</v>
       </c>
-      <c r="F30" s="46">
+      <c r="F30" s="38">
         <f t="array" ref="F30">MEDIAN(ABS(F18:F27-MEDIAN(F18:F27)))</f>
         <v>5.3712499999999941E-2</v>
       </c>
-      <c r="G30" s="46">
+      <c r="G30" s="38">
         <f t="array" ref="G30">MEDIAN(ABS(G18:G27-MEDIAN(G18:G27)))</f>
         <v>1.0593444999999999</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>130</v>
       </c>
       <c r="D32" s="32">
-        <f t="shared" ref="D32:D41" si="3">((E32/$E$11)+(F32/$F$11))/2</f>
+        <f t="shared" ref="D32:D41" si="4">((E32/$E$11)+(F32/$F$11))/2</f>
         <v>1.0489296281103964</v>
       </c>
       <c r="E32" s="32">
@@ -8342,7 +8342,7 @@
         <v>132</v>
       </c>
       <c r="N32" s="33">
-        <f>(32*L32*K32)/B32</f>
+        <f t="shared" ref="N32:N41" si="5">(32*L32*K32)/B32</f>
         <v>40.764331210191081</v>
       </c>
     </row>
@@ -8357,7 +8357,7 @@
         <v>130</v>
       </c>
       <c r="D33" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.96704000735956019</v>
       </c>
       <c r="E33" s="32">
@@ -8388,7 +8388,7 @@
         <v>132</v>
       </c>
       <c r="N33" s="33">
-        <f>(32*L33*K33)/B33</f>
+        <f t="shared" si="5"/>
         <v>40.764331210191081</v>
       </c>
     </row>
@@ -8403,7 +8403,7 @@
         <v>130</v>
       </c>
       <c r="D34" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0223185835482109</v>
       </c>
       <c r="E34" s="32">
@@ -8434,7 +8434,7 @@
         <v>132</v>
       </c>
       <c r="N34" s="33">
-        <f>(32*L34*K34)/B34</f>
+        <f t="shared" si="5"/>
         <v>40.764331210191081</v>
       </c>
     </row>
@@ -8449,7 +8449,7 @@
         <v>130</v>
       </c>
       <c r="D35" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99646125823588716</v>
       </c>
       <c r="E35" s="32">
@@ -8480,7 +8480,7 @@
         <v>132</v>
       </c>
       <c r="N35" s="33">
-        <f>(32*L35*K35)/B35</f>
+        <f t="shared" si="5"/>
         <v>40.764331210191081</v>
       </c>
     </row>
@@ -8495,7 +8495,7 @@
         <v>130</v>
       </c>
       <c r="D36" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.95991716834579011</v>
       </c>
       <c r="E36" s="32">
@@ -8526,7 +8526,7 @@
         <v>132</v>
       </c>
       <c r="N36" s="33">
-        <f>(32*L36*K36)/B36</f>
+        <f t="shared" si="5"/>
         <v>40.764331210191081</v>
       </c>
     </row>
@@ -8541,7 +8541,7 @@
         <v>130</v>
       </c>
       <c r="D37" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2695271397201269</v>
       </c>
       <c r="E37" s="32">
@@ -8572,7 +8572,7 @@
         <v>132</v>
       </c>
       <c r="N37" s="33">
-        <f>(32*L37*K37)/B37</f>
+        <f t="shared" si="5"/>
         <v>40.764331210191081</v>
       </c>
     </row>
@@ -8587,7 +8587,7 @@
         <v>130</v>
       </c>
       <c r="D38" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.09156681277606</v>
       </c>
       <c r="E38" s="32">
@@ -8618,7 +8618,7 @@
         <v>132</v>
       </c>
       <c r="N38" s="33">
-        <f>(32*L38*K38)/B38</f>
+        <f t="shared" si="5"/>
         <v>40.764331210191081</v>
       </c>
     </row>
@@ -8633,7 +8633,7 @@
         <v>130</v>
       </c>
       <c r="D39" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99192877331798313</v>
       </c>
       <c r="E39" s="32">
@@ -8664,7 +8664,7 @@
         <v>132</v>
       </c>
       <c r="N39" s="33">
-        <f>(32*L39*K39)/B39</f>
+        <f t="shared" si="5"/>
         <v>40.764331210191081</v>
       </c>
     </row>
@@ -8679,7 +8679,7 @@
         <v>130</v>
       </c>
       <c r="D40" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99659297264493463</v>
       </c>
       <c r="E40" s="32">
@@ -8710,7 +8710,7 @@
         <v>132</v>
       </c>
       <c r="N40" s="33">
-        <f>(32*L40*K40)/B40</f>
+        <f t="shared" si="5"/>
         <v>40.764331210191081</v>
       </c>
     </row>
@@ -8725,7 +8725,7 @@
         <v>130</v>
       </c>
       <c r="D41" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0147501678228612</v>
       </c>
       <c r="E41" s="32">
@@ -8756,7 +8756,7 @@
         <v>132</v>
       </c>
       <c r="N41" s="33">
-        <f>(32*L41*K41)/B41</f>
+        <f t="shared" si="5"/>
         <v>40.764331210191081</v>
       </c>
     </row>
@@ -8814,15 +8814,15 @@
         <f t="array" ref="D44">MEDIAN(ABS(D32:D41-MEDIAN(D32:D41)))</f>
         <v>2.7639288094325365E-2</v>
       </c>
-      <c r="E44" s="46">
+      <c r="E44" s="38">
         <f t="array" ref="E44">MEDIAN(ABS(E32:E41-MEDIAN(E32:E41)))</f>
         <v>1.1400000000000021E-3</v>
       </c>
-      <c r="F44" s="46">
+      <c r="F44" s="38">
         <f t="array" ref="F44">MEDIAN(ABS(F32:F41-MEDIAN(F32:F41)))</f>
         <v>4.0279999999999982E-2</v>
       </c>
-      <c r="G44" s="46">
+      <c r="G44" s="38">
         <f t="array" ref="G44">MEDIAN(ABS(G32:G41-MEDIAN(G32:G41)))</f>
         <v>0.56787499999999991</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>130</v>
       </c>
       <c r="D46" s="32">
-        <f t="shared" ref="D46:D50" si="4">((E46/$E$11)+(F46/$F$11))/2</f>
+        <f t="shared" ref="D46:D50" si="6">((E46/$E$11)+(F46/$F$11))/2</f>
         <v>0.97413596299332061</v>
       </c>
       <c r="E46" s="32">
@@ -8888,7 +8888,7 @@
         <v>130</v>
       </c>
       <c r="D47" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.98405489436371407</v>
       </c>
       <c r="E47" s="32">
@@ -8934,7 +8934,7 @@
         <v>130</v>
       </c>
       <c r="D48" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.96872865184619794</v>
       </c>
       <c r="E48" s="32">
@@ -8980,7 +8980,7 @@
         <v>130</v>
       </c>
       <c r="D49" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.95327041185962869</v>
       </c>
       <c r="E49" s="32">
@@ -9026,7 +9026,7 @@
         <v>130</v>
       </c>
       <c r="D50" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.98389039379747212</v>
       </c>
       <c r="E50" s="32">
@@ -9142,15 +9142,15 @@
         <f t="array" ref="D58">MEDIAN(ABS(D46:D50-MEDIAN(D46:D50)))</f>
         <v>9.7544308041515038E-3</v>
       </c>
-      <c r="E58" s="46">
+      <c r="E58" s="38">
         <f t="array" ref="E58">MEDIAN(ABS(E46:E50-MEDIAN(E46:E50)))</f>
         <v>3.0600000000000072E-4</v>
       </c>
-      <c r="F58" s="46">
+      <c r="F58" s="38">
         <f t="array" ref="F58">MEDIAN(ABS(F46:F50-MEDIAN(F46:F50)))</f>
         <v>1.3391999999999959E-2</v>
       </c>
-      <c r="G58" s="46">
+      <c r="G58" s="38">
         <f t="array" ref="G58">MEDIAN(ABS(G46:G50-MEDIAN(G46:G50)))</f>
         <v>6.9939999999999003E-2</v>
       </c>
@@ -9166,7 +9166,7 @@
         <v>130</v>
       </c>
       <c r="D60" s="32">
-        <f t="shared" ref="D60:D69" si="5">((E60/$E$11)+(F60/$F$11))/2</f>
+        <f t="shared" ref="D60:D69" si="7">((E60/$E$11)+(F60/$F$11))/2</f>
         <v>1.0009570942035899</v>
       </c>
       <c r="E60" s="32">
@@ -9194,7 +9194,7 @@
         <v>100</v>
       </c>
       <c r="N60" s="33">
-        <f>(32*L60*K60)/B60</f>
+        <f t="shared" ref="N60:N69" si="8">(32*L60*K60)/B60</f>
         <v>101.91082802547771</v>
       </c>
     </row>
@@ -9209,7 +9209,7 @@
         <v>130</v>
       </c>
       <c r="D61" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.97222699167486359</v>
       </c>
       <c r="E61" s="32">
@@ -9237,7 +9237,7 @@
         <v>100</v>
       </c>
       <c r="N61" s="33">
-        <f>(32*L61*K61)/B61</f>
+        <f t="shared" si="8"/>
         <v>101.91082802547771</v>
       </c>
     </row>
@@ -9252,7 +9252,7 @@
         <v>130</v>
       </c>
       <c r="D62" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.97026253937523299</v>
       </c>
       <c r="E62" s="32">
@@ -9280,7 +9280,7 @@
         <v>100</v>
       </c>
       <c r="N62" s="33">
-        <f>(32*L62*K62)/B62</f>
+        <f t="shared" si="8"/>
         <v>101.91082802547771</v>
       </c>
     </row>
@@ -9295,7 +9295,7 @@
         <v>130</v>
       </c>
       <c r="D63" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.98173840692364778</v>
       </c>
       <c r="E63" s="32">
@@ -9323,7 +9323,7 @@
         <v>100</v>
       </c>
       <c r="N63" s="33">
-        <f>(32*L63*K63)/B63</f>
+        <f t="shared" si="8"/>
         <v>101.91082802547771</v>
       </c>
     </row>
@@ -9338,7 +9338,7 @@
         <v>130</v>
       </c>
       <c r="D64" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.96328138653527484</v>
       </c>
       <c r="E64" s="32">
@@ -9366,7 +9366,7 @@
         <v>100</v>
       </c>
       <c r="N64" s="33">
-        <f>(32*L64*K64)/B64</f>
+        <f t="shared" si="8"/>
         <v>101.91082802547771</v>
       </c>
     </row>
@@ -9381,7 +9381,7 @@
         <v>130</v>
       </c>
       <c r="D65" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.97207925509343307</v>
       </c>
       <c r="E65" s="32">
@@ -9409,7 +9409,7 @@
         <v>100</v>
       </c>
       <c r="N65" s="33">
-        <f>(32*L65*K65)/B65</f>
+        <f t="shared" si="8"/>
         <v>101.91082802547771</v>
       </c>
     </row>
@@ -9424,7 +9424,7 @@
         <v>130</v>
       </c>
       <c r="D66" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.0758743882182618</v>
       </c>
       <c r="E66" s="32">
@@ -9452,7 +9452,7 @@
         <v>100</v>
       </c>
       <c r="N66" s="33">
-        <f>(32*L66*K66)/B66</f>
+        <f t="shared" si="8"/>
         <v>101.91082802547771</v>
       </c>
     </row>
@@ -9467,7 +9467,7 @@
         <v>130</v>
       </c>
       <c r="D67" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.059238973653702</v>
       </c>
       <c r="E67" s="32">
@@ -9495,7 +9495,7 @@
         <v>100</v>
       </c>
       <c r="N67" s="33">
-        <f>(32*L67*K67)/B67</f>
+        <f t="shared" si="8"/>
         <v>101.91082802547771</v>
       </c>
     </row>
@@ -9510,7 +9510,7 @@
         <v>130</v>
       </c>
       <c r="D68" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.95698895041105936</v>
       </c>
       <c r="E68" s="32">
@@ -9538,7 +9538,7 @@
         <v>100</v>
       </c>
       <c r="N68" s="33">
-        <f>(32*L68*K68)/B68</f>
+        <f t="shared" si="8"/>
         <v>101.91082802547771</v>
       </c>
     </row>
@@ -9553,7 +9553,7 @@
         <v>130</v>
       </c>
       <c r="D69" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.98014876389403716</v>
       </c>
       <c r="E69" s="32">
@@ -9581,7 +9581,7 @@
         <v>100</v>
       </c>
       <c r="N69" s="33">
-        <f>(32*L69*K69)/B69</f>
+        <f t="shared" si="8"/>
         <v>101.91082802547771</v>
       </c>
     </row>
@@ -9638,15 +9638,15 @@
         <f t="array" ref="D72">MEDIAN(ABS(D60:D69-MEDIAN(D60:D69)))</f>
         <v>9.4159148291964589E-3</v>
       </c>
-      <c r="E72" s="46">
+      <c r="E72" s="38">
         <f t="array" ref="E72">MEDIAN(ABS(E60:E69-MEDIAN(E60:E69)))</f>
         <v>1.6649999999999998E-4</v>
       </c>
-      <c r="F72" s="46">
+      <c r="F72" s="38">
         <f t="array" ref="F72">MEDIAN(ABS(F60:F69-MEDIAN(F60:F69)))</f>
         <v>1.861050000000003E-2</v>
       </c>
-      <c r="G72" s="46">
+      <c r="G72" s="38">
         <f t="array" ref="G72">MEDIAN(ABS(G60:G69-MEDIAN(G60:G69)))</f>
         <v>0.32627050000000057</v>
       </c>
@@ -10075,23 +10075,23 @@
       <c r="O16" s="31"/>
     </row>
     <row r="17" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="45"/>
-      <c r="N17" s="45"/>
-      <c r="O17" s="45"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="46"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
@@ -10135,7 +10135,7 @@
         <v>132</v>
       </c>
       <c r="N18" s="33">
-        <f>(32*L18*K18)/B18</f>
+        <f t="shared" ref="N18:N27" si="3">(32*L18*K18)/B18</f>
         <v>169.67126193001062</v>
       </c>
     </row>
@@ -10181,7 +10181,7 @@
         <v>132</v>
       </c>
       <c r="N19" s="33">
-        <f>(32*L19*K19)/B19</f>
+        <f t="shared" si="3"/>
         <v>169.67126193001062</v>
       </c>
     </row>
@@ -10227,7 +10227,7 @@
         <v>132</v>
       </c>
       <c r="N20" s="33">
-        <f>(32*L20*K20)/B20</f>
+        <f t="shared" si="3"/>
         <v>169.67126193001062</v>
       </c>
     </row>
@@ -10273,7 +10273,7 @@
         <v>132</v>
       </c>
       <c r="N21" s="33">
-        <f>(32*L21*K21)/B21</f>
+        <f t="shared" si="3"/>
         <v>169.67126193001062</v>
       </c>
     </row>
@@ -10319,7 +10319,7 @@
         <v>132</v>
       </c>
       <c r="N22" s="33">
-        <f>(32*L22*K22)/B22</f>
+        <f t="shared" si="3"/>
         <v>169.67126193001062</v>
       </c>
     </row>
@@ -10365,7 +10365,7 @@
         <v>132</v>
       </c>
       <c r="N23" s="33">
-        <f>(32*L23*K23)/B23</f>
+        <f t="shared" si="3"/>
         <v>169.67126193001062</v>
       </c>
     </row>
@@ -10411,7 +10411,7 @@
         <v>132</v>
       </c>
       <c r="N24" s="33">
-        <f>(32*L24*K24)/B24</f>
+        <f t="shared" si="3"/>
         <v>169.67126193001062</v>
       </c>
     </row>
@@ -10457,7 +10457,7 @@
         <v>132</v>
       </c>
       <c r="N25" s="33">
-        <f>(32*L25*K25)/B25</f>
+        <f t="shared" si="3"/>
         <v>169.67126193001062</v>
       </c>
     </row>
@@ -10503,7 +10503,7 @@
         <v>132</v>
       </c>
       <c r="N26" s="33">
-        <f>(32*L26*K26)/B26</f>
+        <f t="shared" si="3"/>
         <v>169.67126193001062</v>
       </c>
     </row>
@@ -10549,7 +10549,7 @@
         <v>132</v>
       </c>
       <c r="N27" s="33">
-        <f>(32*L27*K27)/B27</f>
+        <f t="shared" si="3"/>
         <v>169.67126193001062</v>
       </c>
     </row>
@@ -10631,7 +10631,7 @@
         <v>130</v>
       </c>
       <c r="D32" s="36">
-        <f t="shared" ref="D32:D41" si="3">((E32/$E$11)+(F32/$F$11))/2</f>
+        <f t="shared" ref="D32:D41" si="4">((E32/$E$11)+(F32/$F$11))/2</f>
         <v>0.96442607082128029</v>
       </c>
       <c r="E32" s="32">
@@ -10662,7 +10662,7 @@
         <v>132</v>
       </c>
       <c r="N32" s="33">
-        <f>(32*L32*K32)/B32</f>
+        <f t="shared" ref="N32:N41" si="5">(32*L32*K32)/B32</f>
         <v>678.68504772004246</v>
       </c>
     </row>
@@ -10677,7 +10677,7 @@
         <v>130</v>
       </c>
       <c r="D33" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.93745286493843571</v>
       </c>
       <c r="E33" s="32">
@@ -10708,7 +10708,7 @@
         <v>132</v>
       </c>
       <c r="N33" s="33">
-        <f>(32*L33*K33)/B33</f>
+        <f t="shared" si="5"/>
         <v>678.68504772004246</v>
       </c>
     </row>
@@ -10723,7 +10723,7 @@
         <v>130</v>
       </c>
       <c r="D34" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.96269387800879092</v>
       </c>
       <c r="E34" s="32">
@@ -10754,7 +10754,7 @@
         <v>132</v>
       </c>
       <c r="N34" s="33">
-        <f>(32*L34*K34)/B34</f>
+        <f t="shared" si="5"/>
         <v>678.68504772004246</v>
       </c>
     </row>
@@ -10769,7 +10769,7 @@
         <v>130</v>
       </c>
       <c r="D35" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.95386441874203787</v>
       </c>
       <c r="E35" s="32">
@@ -10800,7 +10800,7 @@
         <v>132</v>
       </c>
       <c r="N35" s="33">
-        <f>(32*L35*K35)/B35</f>
+        <f t="shared" si="5"/>
         <v>678.68504772004246</v>
       </c>
     </row>
@@ -10815,7 +10815,7 @@
         <v>130</v>
       </c>
       <c r="D36" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.97071175658695785</v>
       </c>
       <c r="E36" s="32">
@@ -10846,7 +10846,7 @@
         <v>132</v>
       </c>
       <c r="N36" s="33">
-        <f>(32*L36*K36)/B36</f>
+        <f t="shared" si="5"/>
         <v>678.68504772004246</v>
       </c>
     </row>
@@ -10861,7 +10861,7 @@
         <v>130</v>
       </c>
       <c r="D37" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.97599404182748739</v>
       </c>
       <c r="E37" s="32">
@@ -10892,7 +10892,7 @@
         <v>132</v>
       </c>
       <c r="N37" s="33">
-        <f>(32*L37*K37)/B37</f>
+        <f t="shared" si="5"/>
         <v>678.68504772004246</v>
       </c>
     </row>
@@ -10907,7 +10907,7 @@
         <v>130</v>
       </c>
       <c r="D38" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.98268483729113787</v>
       </c>
       <c r="E38" s="32">
@@ -10938,7 +10938,7 @@
         <v>132</v>
       </c>
       <c r="N38" s="33">
-        <f>(32*L38*K38)/B38</f>
+        <f t="shared" si="5"/>
         <v>678.68504772004246</v>
       </c>
     </row>
@@ -10953,7 +10953,7 @@
         <v>130</v>
       </c>
       <c r="D39" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0246569122459128</v>
       </c>
       <c r="E39" s="32">
@@ -10984,7 +10984,7 @@
         <v>132</v>
       </c>
       <c r="N39" s="33">
-        <f>(32*L39*K39)/B39</f>
+        <f t="shared" si="5"/>
         <v>678.68504772004246</v>
       </c>
     </row>
@@ -10999,7 +10999,7 @@
         <v>130</v>
       </c>
       <c r="D40" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.99069414378237286</v>
       </c>
       <c r="E40" s="32">
@@ -11030,7 +11030,7 @@
         <v>132</v>
       </c>
       <c r="N40" s="33">
-        <f>(32*L40*K40)/B40</f>
+        <f t="shared" si="5"/>
         <v>678.68504772004246</v>
       </c>
     </row>
@@ -11045,7 +11045,7 @@
         <v>130</v>
       </c>
       <c r="D41" s="36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.9776911133856343</v>
       </c>
       <c r="E41" s="32">
@@ -11076,7 +11076,7 @@
         <v>132</v>
       </c>
       <c r="N41" s="33">
-        <f>(32*L41*K41)/B41</f>
+        <f t="shared" si="5"/>
         <v>678.68504772004246</v>
       </c>
     </row>
@@ -11167,7 +11167,7 @@
         <v>130</v>
       </c>
       <c r="D46" s="36">
-        <f t="shared" ref="D46:D50" si="4">((E46/$E$11)+(F46/$F$11))/2</f>
+        <f t="shared" ref="D46:D50" si="6">((E46/$E$11)+(F46/$F$11))/2</f>
         <v>0.98842936285470495</v>
       </c>
       <c r="E46" s="32">
@@ -11213,7 +11213,7 @@
         <v>130</v>
       </c>
       <c r="D47" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.96568637025672377</v>
       </c>
       <c r="E47" s="32">
@@ -11259,7 +11259,7 @@
         <v>130</v>
       </c>
       <c r="D48" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.99029092209457414</v>
       </c>
       <c r="E48" s="32">
@@ -11305,7 +11305,7 @@
         <v>130</v>
       </c>
       <c r="D49" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.016168730418777</v>
       </c>
       <c r="E49" s="32">
@@ -11351,7 +11351,7 @@
         <v>130</v>
       </c>
       <c r="D50" s="36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1.0290553393694037</v>
       </c>
       <c r="E50" s="32">
@@ -11512,7 +11512,7 @@
         <v>130</v>
       </c>
       <c r="D60" s="36">
-        <f t="shared" ref="D60:D63" si="5">((E60/$E$11)+(F60/$F$11))/2</f>
+        <f t="shared" ref="D60:D63" si="7">((E60/$E$11)+(F60/$F$11))/2</f>
         <v>0.97965673664510777</v>
       </c>
       <c r="E60" s="32">
@@ -11558,7 +11558,7 @@
         <v>130</v>
       </c>
       <c r="D61" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.95261420989935974</v>
       </c>
       <c r="E61" s="32">
@@ -11604,7 +11604,7 @@
         <v>130</v>
       </c>
       <c r="D62" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.9809126569733968</v>
       </c>
       <c r="E62" s="32">
@@ -11650,7 +11650,7 @@
         <v>130</v>
       </c>
       <c r="D63" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.95881603664212312</v>
       </c>
       <c r="E63" s="32">
@@ -11791,8 +11791,8 @@
   <dimension ref="A1:O74"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12129,23 +12129,23 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
@@ -13782,16 +13782,16 @@
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I74" sqref="I74"/>
+      <selection pane="bottomLeft" activeCell="D58" sqref="D58:F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.08984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="10" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="9" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.90625" bestFit="1" customWidth="1"/>
@@ -13813,10 +13813,10 @@
         <v>131</v>
       </c>
       <c r="E1" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="29" t="s">
         <v>79</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>81</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>83</v>
@@ -13856,11 +13856,15 @@
       <c r="C3" t="s">
         <v>146</v>
       </c>
+      <c r="D3" s="32">
+        <f>((E3/$E$5)+(F3/$F$5))/2</f>
+        <v>0.99394129478304105</v>
+      </c>
       <c r="E3" s="32">
+        <v>0.10263600000000001</v>
+      </c>
+      <c r="F3" s="32">
         <v>1.3198000000000001</v>
-      </c>
-      <c r="F3" s="32">
-        <v>0.10263600000000001</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -13873,11 +13877,15 @@
       <c r="C4" t="s">
         <v>147</v>
       </c>
+      <c r="D4" s="32">
+        <f t="shared" ref="D4:D10" si="0">((E4/$E$5)+(F4/$F$5))/2</f>
+        <v>1.0322924322989648</v>
+      </c>
       <c r="E4" s="32">
+        <v>0.10687200000000001</v>
+      </c>
+      <c r="F4" s="32">
         <v>1.3672</v>
-      </c>
-      <c r="F4" s="32">
-        <v>0.10687200000000001</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -13890,11 +13898,15 @@
       <c r="C5" t="s">
         <v>136</v>
       </c>
+      <c r="D5" s="32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
       <c r="E5" s="32">
+        <v>0.103586</v>
+      </c>
+      <c r="F5" s="32">
         <v>1.3237000000000001</v>
-      </c>
-      <c r="F5" s="32">
-        <v>0.103586</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -13907,11 +13919,15 @@
       <c r="C6" t="s">
         <v>148</v>
       </c>
+      <c r="D6" s="32">
+        <f t="shared" si="0"/>
+        <v>0.87250321912076401</v>
+      </c>
       <c r="E6" s="32">
+        <v>8.9380000000000001E-2</v>
+      </c>
+      <c r="F6" s="32">
         <v>1.1677</v>
-      </c>
-      <c r="F6" s="32">
-        <v>8.9380000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -13924,11 +13940,15 @@
       <c r="C7" t="s">
         <v>149</v>
       </c>
+      <c r="D7" s="32">
+        <f t="shared" si="0"/>
+        <v>0.85006691507378807</v>
+      </c>
       <c r="E7" s="32">
+        <v>8.8714999999999988E-2</v>
+      </c>
+      <c r="F7" s="32">
         <v>1.1168</v>
-      </c>
-      <c r="F7" s="32">
-        <v>8.8714999999999988E-2</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -13941,11 +13961,15 @@
       <c r="C8" t="s">
         <v>150</v>
       </c>
+      <c r="D8" s="32">
+        <f t="shared" si="0"/>
+        <v>0.83701736276521099</v>
+      </c>
       <c r="E8" s="32">
+        <v>8.6841000000000002E-2</v>
+      </c>
+      <c r="F8" s="32">
         <v>1.1062000000000001</v>
-      </c>
-      <c r="F8" s="32">
-        <v>8.6841000000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -13958,11 +13982,15 @@
       <c r="C9" t="s">
         <v>151</v>
       </c>
+      <c r="D9" s="32">
+        <f t="shared" si="0"/>
+        <v>0.84840334489398428</v>
+      </c>
       <c r="E9" s="32">
+        <v>8.7893000000000013E-2</v>
+      </c>
+      <c r="F9" s="32">
         <v>1.1229</v>
-      </c>
-      <c r="F9" s="32">
-        <v>8.7893000000000013E-2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -13975,11 +14003,15 @@
       <c r="C10" t="s">
         <v>145</v>
       </c>
+      <c r="D10" s="32">
+        <f t="shared" si="0"/>
+        <v>0.83793340559008223</v>
+      </c>
       <c r="E10" s="32">
+        <v>8.6975999999999998E-2</v>
+      </c>
+      <c r="F10" s="32">
         <v>1.1069</v>
-      </c>
-      <c r="F10" s="32">
-        <v>8.6975999999999998E-2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -13992,11 +14024,15 @@
       <c r="C12" t="s">
         <v>136</v>
       </c>
+      <c r="D12" s="32">
+        <f t="shared" ref="D12:D16" si="1">((E12/$E$5)+(F12/$F$5))/2</f>
+        <v>1</v>
+      </c>
       <c r="E12" s="32">
+        <v>0.103586</v>
+      </c>
+      <c r="F12" s="32">
         <v>1.3237000000000001</v>
-      </c>
-      <c r="F12" s="32">
-        <v>0.103586</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -14009,11 +14045,15 @@
       <c r="C13" t="s">
         <v>137</v>
       </c>
+      <c r="D13" s="32">
+        <f t="shared" si="1"/>
+        <v>0.82969670595011791</v>
+      </c>
       <c r="E13" s="32">
+        <v>8.6685999999999999E-2</v>
+      </c>
+      <c r="F13" s="32">
         <v>1.0888</v>
-      </c>
-      <c r="F13" s="32">
-        <v>8.6685999999999999E-2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -14026,11 +14066,15 @@
       <c r="C14" t="s">
         <v>138</v>
       </c>
+      <c r="D14" s="32">
+        <f t="shared" si="1"/>
+        <v>0.82748115558616919</v>
+      </c>
       <c r="E14" s="32">
+        <v>8.6226999999999998E-2</v>
+      </c>
+      <c r="F14" s="32">
         <v>1.0888</v>
-      </c>
-      <c r="F14" s="32">
-        <v>8.6226999999999998E-2</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -14043,11 +14087,15 @@
       <c r="C15" t="s">
         <v>139</v>
       </c>
+      <c r="D15" s="32">
+        <f t="shared" si="1"/>
+        <v>0.81303083534449361</v>
+      </c>
       <c r="E15" s="32">
+        <v>8.4861000000000006E-2</v>
+      </c>
+      <c r="F15" s="32">
         <v>1.0680000000000001</v>
-      </c>
-      <c r="F15" s="32">
-        <v>8.4861000000000006E-2</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -14060,29 +14108,33 @@
       <c r="C16" t="s">
         <v>140</v>
       </c>
+      <c r="D16" s="32">
+        <f t="shared" si="1"/>
+        <v>0.85089250507984115</v>
+      </c>
       <c r="E16" s="32">
+        <v>8.8260000000000005E-2</v>
+      </c>
+      <c r="F16" s="32">
         <v>1.1248</v>
       </c>
-      <c r="F16" s="32">
-        <v>8.8260000000000005E-2</v>
-      </c>
     </row>
     <row r="18" spans="1:13" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
@@ -14094,11 +14146,15 @@
       <c r="C19" t="s">
         <v>130</v>
       </c>
+      <c r="D19" s="32">
+        <f t="shared" ref="D19:D28" si="2">((E19/$E$5)+(F19/$F$5))/2</f>
+        <v>0.94734962943800927</v>
+      </c>
       <c r="E19" s="32">
+        <v>9.5922999999999994E-2</v>
+      </c>
+      <c r="F19" s="32">
         <v>1.2822370000000001</v>
-      </c>
-      <c r="F19" s="32">
-        <v>9.5922999999999994E-2</v>
       </c>
       <c r="G19" s="32">
         <v>13.739354000000001</v>
@@ -14132,11 +14188,15 @@
       <c r="C20" t="s">
         <v>130</v>
       </c>
+      <c r="D20" s="32">
+        <f t="shared" si="2"/>
+        <v>0.88834680815547273</v>
+      </c>
       <c r="E20" s="32">
+        <v>9.1981999999999994E-2</v>
+      </c>
+      <c r="F20" s="32">
         <v>1.1763939999999999</v>
-      </c>
-      <c r="F20" s="32">
-        <v>9.1981999999999994E-2</v>
       </c>
       <c r="G20" s="32">
         <v>11.699291000000001</v>
@@ -14167,11 +14227,15 @@
       <c r="C21" t="s">
         <v>130</v>
       </c>
+      <c r="D21" s="32">
+        <f t="shared" si="2"/>
+        <v>0.8683838573605096</v>
+      </c>
       <c r="E21" s="32">
+        <v>9.0133000000000005E-2</v>
+      </c>
+      <c r="F21" s="32">
         <v>1.1471720000000001</v>
-      </c>
-      <c r="F21" s="32">
-        <v>9.0133000000000005E-2</v>
       </c>
       <c r="G21" s="32">
         <v>11.381138</v>
@@ -14202,11 +14266,15 @@
       <c r="C22" t="s">
         <v>130</v>
       </c>
+      <c r="D22" s="32">
+        <f t="shared" si="2"/>
+        <v>0.88278017592159452</v>
+      </c>
       <c r="E22" s="32">
+        <v>9.1422000000000003E-2</v>
+      </c>
+      <c r="F22" s="32">
         <v>1.1688130000000001</v>
-      </c>
-      <c r="F22" s="32">
-        <v>9.1422000000000003E-2</v>
       </c>
       <c r="G22" s="32">
         <v>11.684445</v>
@@ -14237,11 +14305,15 @@
       <c r="C23" t="s">
         <v>130</v>
       </c>
+      <c r="D23" s="32">
+        <f t="shared" si="2"/>
+        <v>0.88824975561964048</v>
+      </c>
       <c r="E23" s="32">
+        <v>9.1818999999999998E-2</v>
+      </c>
+      <c r="F23" s="32">
         <v>1.17822</v>
-      </c>
-      <c r="F23" s="32">
-        <v>9.1818999999999998E-2</v>
       </c>
       <c r="G23" s="32">
         <v>11.738089</v>
@@ -14272,11 +14344,15 @@
       <c r="C24" t="s">
         <v>130</v>
       </c>
+      <c r="D24" s="32">
+        <f t="shared" si="2"/>
+        <v>0.90737104273129399</v>
+      </c>
       <c r="E24" s="32">
+        <v>9.3556E-2</v>
+      </c>
+      <c r="F24" s="32">
         <v>1.206645</v>
-      </c>
-      <c r="F24" s="32">
-        <v>9.3556E-2</v>
       </c>
       <c r="G24" s="32">
         <v>13.098413000000001</v>
@@ -14307,11 +14383,15 @@
       <c r="C25" t="s">
         <v>130</v>
       </c>
+      <c r="D25" s="32">
+        <f t="shared" si="2"/>
+        <v>0.90074056185484652</v>
+      </c>
       <c r="E25" s="32">
+        <v>9.2894000000000004E-2</v>
+      </c>
+      <c r="F25" s="32">
         <v>1.197551</v>
-      </c>
-      <c r="F25" s="32">
-        <v>9.2894000000000004E-2</v>
       </c>
       <c r="G25" s="32">
         <v>12.145273</v>
@@ -14342,11 +14422,15 @@
       <c r="C26" t="s">
         <v>130</v>
       </c>
+      <c r="D26" s="32">
+        <f t="shared" si="2"/>
+        <v>0.91471332393709037</v>
+      </c>
       <c r="E26" s="32">
+        <v>9.3623999999999999E-2</v>
+      </c>
+      <c r="F26" s="32">
         <v>1.225214</v>
-      </c>
-      <c r="F26" s="32">
-        <v>9.3623999999999999E-2</v>
       </c>
       <c r="G26" s="32">
         <v>12.334654</v>
@@ -14377,11 +14461,15 @@
       <c r="C27" t="s">
         <v>130</v>
       </c>
+      <c r="D27" s="32">
+        <f t="shared" si="2"/>
+        <v>0.90261363261716188</v>
+      </c>
       <c r="E27" s="32">
+        <v>9.3225000000000002E-2</v>
+      </c>
+      <c r="F27" s="32">
         <v>1.19828</v>
-      </c>
-      <c r="F27" s="32">
-        <v>9.3225000000000002E-2</v>
       </c>
       <c r="G27" s="32">
         <v>12.493779</v>
@@ -14412,11 +14500,15 @@
       <c r="C28" t="s">
         <v>130</v>
       </c>
+      <c r="D28" s="32">
+        <f t="shared" si="2"/>
+        <v>0.89864189304282427</v>
+      </c>
       <c r="E28" s="32">
+        <v>9.1397999999999993E-2</v>
+      </c>
+      <c r="F28" s="32">
         <v>1.211112</v>
-      </c>
-      <c r="F28" s="32">
-        <v>9.1397999999999993E-2</v>
       </c>
       <c r="G28" s="32">
         <v>11.747585000000001</v>
@@ -14443,11 +14535,11 @@
       </c>
       <c r="E29" s="35">
         <f>AVERAGE(E19:E28)</f>
-        <v>1.1991638</v>
+        <v>9.2597600000000002E-2</v>
       </c>
       <c r="F29" s="35">
         <f>AVERAGE(F19:F28)</f>
-        <v>9.2597600000000002E-2</v>
+        <v>1.1991638</v>
       </c>
       <c r="G29" s="35">
         <f>AVERAGE(G19:G28)</f>
@@ -14460,11 +14552,11 @@
       </c>
       <c r="E30" s="35">
         <f>MEDIAN(E19:E28)</f>
-        <v>1.1979155000000001</v>
+        <v>9.2437999999999992E-2</v>
       </c>
       <c r="F30" s="35">
         <f>MEDIAN(F19:F28)</f>
-        <v>9.2437999999999992E-2</v>
+        <v>1.1979155000000001</v>
       </c>
       <c r="G30" s="35">
         <f>MEDIAN(G19:G28)</f>
@@ -14477,11 +14569,11 @@
       </c>
       <c r="E31" s="35">
         <f t="array" ref="E31">MEDIAN(ABS(E19:E28-MEDIAN(E19:E28)))</f>
-        <v>2.0608500000000141E-2</v>
+        <v>1.0279999999999942E-3</v>
       </c>
       <c r="F31" s="35">
         <f t="array" ref="F31">MEDIAN(ABS(F19:F28-MEDIAN(F19:F28)))</f>
-        <v>1.0279999999999942E-3</v>
+        <v>2.0608500000000141E-2</v>
       </c>
       <c r="G31" s="35">
         <f t="array" ref="G31">MEDIAN(ABS(G19:G28-MEDIAN(G19:G28)))</f>
@@ -14498,11 +14590,15 @@
       <c r="C33" t="s">
         <v>130</v>
       </c>
+      <c r="D33" s="32">
+        <f t="shared" ref="D33:D42" si="3">((E33/$E$5)+(F33/$F$5))/2</f>
+        <v>0.85408116553301827</v>
+      </c>
       <c r="E33" s="32">
+        <v>8.8821999999999998E-2</v>
+      </c>
+      <c r="F33" s="32">
         <v>1.1260600000000001</v>
-      </c>
-      <c r="F33" s="32">
-        <v>8.8821999999999998E-2</v>
       </c>
       <c r="G33" s="32">
         <v>10.674472</v>
@@ -14536,11 +14632,15 @@
       <c r="C34" t="s">
         <v>130</v>
       </c>
+      <c r="D34" s="32">
+        <f t="shared" si="3"/>
+        <v>0.84012296386329743</v>
+      </c>
       <c r="E34" s="32">
+        <v>8.7058999999999997E-2</v>
+      </c>
+      <c r="F34" s="32">
         <v>1.1116360000000001</v>
-      </c>
-      <c r="F34" s="32">
-        <v>8.7058999999999997E-2</v>
       </c>
       <c r="G34" s="32">
         <v>10.101050000000001</v>
@@ -14571,11 +14671,15 @@
       <c r="C35" t="s">
         <v>130</v>
       </c>
+      <c r="D35" s="32">
+        <f t="shared" si="3"/>
+        <v>0.86366548760803008</v>
+      </c>
       <c r="E35" s="32">
+        <v>8.9596999999999996E-2</v>
+      </c>
+      <c r="F35" s="32">
         <v>1.1415299999999999</v>
-      </c>
-      <c r="F35" s="32">
-        <v>8.9596999999999996E-2</v>
       </c>
       <c r="G35" s="32">
         <v>10.801383</v>
@@ -14606,11 +14710,15 @@
       <c r="C36" t="s">
         <v>130</v>
       </c>
+      <c r="D36" s="32">
+        <f t="shared" si="3"/>
+        <v>0.83905789483770887</v>
+      </c>
       <c r="E36" s="32">
+        <v>8.7062E-2</v>
+      </c>
+      <c r="F36" s="32">
         <v>1.108778</v>
-      </c>
-      <c r="F36" s="32">
-        <v>8.7062E-2</v>
       </c>
       <c r="G36" s="32">
         <v>10.297681000000001</v>
@@ -14641,11 +14749,15 @@
       <c r="C37" t="s">
         <v>130</v>
       </c>
+      <c r="D37" s="32">
+        <f t="shared" si="3"/>
+        <v>0.84784939795577852</v>
+      </c>
       <c r="E37" s="32">
+        <v>8.7474999999999997E-2</v>
+      </c>
+      <c r="F37" s="32">
         <v>1.1267750000000001</v>
-      </c>
-      <c r="F37" s="32">
-        <v>8.7474999999999997E-2</v>
       </c>
       <c r="G37" s="32">
         <v>10.838177999999999</v>
@@ -14676,11 +14788,15 @@
       <c r="C38" t="s">
         <v>130</v>
       </c>
+      <c r="D38" s="32">
+        <f t="shared" si="3"/>
+        <v>0.85469944863396385</v>
+      </c>
       <c r="E38" s="32">
+        <v>8.8547000000000001E-2</v>
+      </c>
+      <c r="F38" s="32">
         <v>1.131211</v>
-      </c>
-      <c r="F38" s="32">
-        <v>8.8547000000000001E-2</v>
       </c>
       <c r="G38" s="32">
         <v>10.726127999999999</v>
@@ -14711,11 +14827,15 @@
       <c r="C39" t="s">
         <v>130</v>
       </c>
+      <c r="D39" s="32">
+        <f t="shared" si="3"/>
+        <v>0.85406121889456577</v>
+      </c>
       <c r="E39" s="32">
+        <v>8.9020000000000002E-2</v>
+      </c>
+      <c r="F39" s="32">
         <v>1.1234770000000001</v>
-      </c>
-      <c r="F39" s="32">
-        <v>8.9020000000000002E-2</v>
       </c>
       <c r="G39" s="32">
         <v>10.899668</v>
@@ -14746,11 +14866,15 @@
       <c r="C40" t="s">
         <v>130</v>
       </c>
+      <c r="D40" s="32">
+        <f t="shared" si="3"/>
+        <v>0.8573898949815103</v>
+      </c>
       <c r="E40" s="32">
+        <v>8.8910000000000003E-2</v>
+      </c>
+      <c r="F40" s="32">
         <v>1.1336949999999999</v>
-      </c>
-      <c r="F40" s="32">
-        <v>8.8910000000000003E-2</v>
       </c>
       <c r="G40" s="32">
         <v>10.601531</v>
@@ -14781,11 +14905,15 @@
       <c r="C41" t="s">
         <v>130</v>
       </c>
+      <c r="D41" s="32">
+        <f t="shared" si="3"/>
+        <v>0.87124004565912094</v>
+      </c>
       <c r="E41" s="32">
+        <v>8.9593000000000006E-2</v>
+      </c>
+      <c r="F41" s="32">
         <v>1.1616340000000001</v>
-      </c>
-      <c r="F41" s="32">
-        <v>8.9593000000000006E-2</v>
       </c>
       <c r="G41" s="32">
         <v>11.090024</v>
@@ -14816,11 +14944,15 @@
       <c r="C42" t="s">
         <v>130</v>
       </c>
+      <c r="D42" s="32">
+        <f t="shared" si="3"/>
+        <v>0.85284922412586095</v>
+      </c>
       <c r="E42" s="32">
+        <v>8.8710999999999998E-2</v>
+      </c>
+      <c r="F42" s="32">
         <v>1.124217</v>
-      </c>
-      <c r="F42" s="32">
-        <v>8.8710999999999998E-2</v>
       </c>
       <c r="G42" s="32">
         <v>10.627929999999999</v>
@@ -14845,13 +14977,17 @@
       <c r="C43" t="s">
         <v>157</v>
       </c>
+      <c r="D43" s="35">
+        <f>AVERAGE(D33:D42)</f>
+        <v>0.85350167420928535</v>
+      </c>
       <c r="E43" s="35">
         <f>AVERAGE(E33:E42)</f>
-        <v>1.1289013000000001</v>
+        <v>8.8479600000000005E-2</v>
       </c>
       <c r="F43" s="35">
         <f>AVERAGE(F33:F42)</f>
-        <v>8.8479600000000005E-2</v>
+        <v>1.1289013000000001</v>
       </c>
       <c r="G43" s="35">
         <f>AVERAGE(G33:G42)</f>
@@ -14862,13 +14998,17 @@
       <c r="C44" t="s">
         <v>158</v>
       </c>
+      <c r="D44" s="35">
+        <f>MEDIAN(D33:D42)</f>
+        <v>0.85407119221379202</v>
+      </c>
       <c r="E44" s="35">
         <f>MEDIAN(E33:E42)</f>
-        <v>1.1264175000000001</v>
+        <v>8.8766499999999998E-2</v>
       </c>
       <c r="F44" s="35">
         <f>MEDIAN(F33:F42)</f>
-        <v>8.8766499999999998E-2</v>
+        <v>1.1264175000000001</v>
       </c>
       <c r="G44" s="35">
         <f>MEDIAN(G33:G42)</f>
@@ -14879,13 +15019,17 @@
       <c r="C45" t="s">
         <v>156</v>
       </c>
+      <c r="D45" s="35">
+        <f t="array" ref="D45">MEDIAN(ABS(D33:D42-MEDIAN(D33:D42)))</f>
+        <v>4.7702485128658934E-3</v>
+      </c>
       <c r="E45" s="35">
         <f t="array" ref="E45">MEDIAN(ABS(E33:E42-MEDIAN(E33:E42)))</f>
-        <v>6.0354999999998604E-3</v>
+        <v>5.4000000000000575E-4</v>
       </c>
       <c r="F45" s="35">
         <f t="array" ref="F45">MEDIAN(ABS(F33:F42-MEDIAN(F33:F42)))</f>
-        <v>5.4000000000000575E-4</v>
+        <v>6.0354999999998604E-3</v>
       </c>
       <c r="G45" s="35">
         <f t="array" ref="G45">MEDIAN(ABS(G33:G42-MEDIAN(G33:G42)))</f>
@@ -14902,11 +15046,15 @@
       <c r="C47" t="s">
         <v>130</v>
       </c>
+      <c r="D47" s="32">
+        <f t="shared" ref="D47:D56" si="4">((E47/$E$5)+(F47/$F$5))/2</f>
+        <v>0.83599326981610256</v>
+      </c>
       <c r="E47" s="32">
+        <v>8.6539000000000005E-2</v>
+      </c>
+      <c r="F47" s="32">
         <v>1.107348</v>
-      </c>
-      <c r="F47" s="32">
-        <v>8.6539000000000005E-2</v>
       </c>
       <c r="G47" s="32">
         <v>10.365549</v>
@@ -14940,11 +15088,15 @@
       <c r="C48" t="s">
         <v>130</v>
       </c>
+      <c r="D48" s="32">
+        <f t="shared" si="4"/>
+        <v>0.82617612602451551</v>
+      </c>
       <c r="E48" s="32">
+        <v>8.5837999999999998E-2</v>
+      </c>
+      <c r="F48" s="32">
         <v>1.0903160000000001</v>
-      </c>
-      <c r="F48" s="32">
-        <v>8.5837999999999998E-2</v>
       </c>
       <c r="G48" s="32">
         <v>9.9667940000000002</v>
@@ -14975,11 +15127,15 @@
       <c r="C49" t="s">
         <v>130</v>
       </c>
+      <c r="D49" s="32">
+        <f t="shared" si="4"/>
+        <v>0.83958854356391632</v>
+      </c>
       <c r="E49" s="32">
+        <v>8.7238999999999997E-2</v>
+      </c>
+      <c r="F49" s="32">
         <v>1.1079209999999999</v>
-      </c>
-      <c r="F49" s="32">
-        <v>8.7238999999999997E-2</v>
       </c>
       <c r="G49" s="32">
         <v>10.296033</v>
@@ -15010,11 +15166,15 @@
       <c r="C50" t="s">
         <v>130</v>
       </c>
+      <c r="D50" s="32">
+        <f t="shared" si="4"/>
+        <v>0.82672509070628886</v>
+      </c>
       <c r="E50" s="32">
+        <v>8.5606000000000002E-2</v>
+      </c>
+      <c r="F50" s="32">
         <v>1.0947340000000001</v>
-      </c>
-      <c r="F50" s="32">
-        <v>8.5606000000000002E-2</v>
       </c>
       <c r="G50" s="32">
         <v>10.438307</v>
@@ -15045,11 +15205,15 @@
       <c r="C51" t="s">
         <v>130</v>
       </c>
+      <c r="D51" s="32">
+        <f t="shared" si="4"/>
+        <v>0.84087883234855409</v>
+      </c>
       <c r="E51" s="32">
+        <v>8.7374999999999994E-2</v>
+      </c>
+      <c r="F51" s="32">
         <v>1.109599</v>
-      </c>
-      <c r="F51" s="32">
-        <v>8.7374999999999994E-2</v>
       </c>
       <c r="G51" s="32">
         <v>10.395911</v>
@@ -15080,11 +15244,15 @@
       <c r="C52" t="s">
         <v>130</v>
       </c>
+      <c r="D52" s="32">
+        <f t="shared" si="4"/>
+        <v>0.84096849233958348</v>
+      </c>
       <c r="E52" s="32">
+        <v>8.6953000000000003E-2</v>
+      </c>
+      <c r="F52" s="32">
         <v>1.115229</v>
-      </c>
-      <c r="F52" s="32">
-        <v>8.6953000000000003E-2</v>
       </c>
       <c r="G52" s="32">
         <v>10.935193</v>
@@ -15115,11 +15283,15 @@
       <c r="C53" t="s">
         <v>130</v>
       </c>
+      <c r="D53" s="32">
+        <f t="shared" si="4"/>
+        <v>0.82654483275739388</v>
+      </c>
       <c r="E53" s="32">
+        <v>8.5955000000000004E-2</v>
+      </c>
+      <c r="F53" s="32">
         <v>1.0897969999999999</v>
-      </c>
-      <c r="F53" s="32">
-        <v>8.5955000000000004E-2</v>
       </c>
       <c r="G53" s="32">
         <v>10.085233000000001</v>
@@ -15150,11 +15322,15 @@
       <c r="C54" t="s">
         <v>130</v>
       </c>
+      <c r="D54" s="32">
+        <f t="shared" si="4"/>
+        <v>0.84273343303121506</v>
+      </c>
       <c r="E54" s="32">
+        <v>8.7013999999999994E-2</v>
+      </c>
+      <c r="F54" s="32">
         <v>1.119122</v>
-      </c>
-      <c r="F54" s="32">
-        <v>8.7013999999999994E-2</v>
       </c>
       <c r="G54" s="32">
         <v>10.521224</v>
@@ -15185,11 +15361,15 @@
       <c r="C55" t="s">
         <v>130</v>
       </c>
+      <c r="D55" s="32">
+        <f t="shared" si="4"/>
+        <v>0.85908375353121058</v>
+      </c>
       <c r="E55" s="32">
+        <v>8.8555999999999996E-2</v>
+      </c>
+      <c r="F55" s="32">
         <v>1.142703</v>
-      </c>
-      <c r="F55" s="32">
-        <v>8.8555999999999996E-2</v>
       </c>
       <c r="G55" s="32">
         <v>10.916884</v>
@@ -15220,11 +15400,15 @@
       <c r="C56" t="s">
         <v>130</v>
       </c>
+      <c r="D56" s="32">
+        <f t="shared" si="4"/>
+        <v>0.82184216109723618</v>
+      </c>
       <c r="E56" s="32">
+        <v>8.5195000000000007E-2</v>
+      </c>
+      <c r="F56" s="32">
         <v>1.087059</v>
-      </c>
-      <c r="F56" s="32">
-        <v>8.5195000000000007E-2</v>
       </c>
       <c r="G56" s="32">
         <v>10.163316</v>
@@ -15249,13 +15433,17 @@
       <c r="C57" t="s">
         <v>157</v>
       </c>
+      <c r="D57" s="35">
+        <f>AVERAGE(D47:D56)</f>
+        <v>0.83605345352160165</v>
+      </c>
       <c r="E57" s="35">
         <f>AVERAGE(E47:E56)</f>
-        <v>1.1063828</v>
+        <v>8.6626999999999996E-2</v>
       </c>
       <c r="F57" s="35">
         <f>AVERAGE(F47:F56)</f>
-        <v>8.6626999999999996E-2</v>
+        <v>1.1063828</v>
       </c>
       <c r="G57" s="35">
         <f>AVERAGE(G47:G56)</f>
@@ -15266,13 +15454,17 @@
       <c r="C58" t="s">
         <v>158</v>
       </c>
+      <c r="D58" s="35">
+        <f>MEDIAN(D47:D56)</f>
+        <v>0.83779090669000944</v>
+      </c>
       <c r="E58" s="35">
         <f>MEDIAN(E47:E56)</f>
-        <v>1.1076345000000001</v>
+        <v>8.6746000000000004E-2</v>
       </c>
       <c r="F58" s="35">
         <f>MEDIAN(F47:F56)</f>
-        <v>8.6746000000000004E-2</v>
+        <v>1.1076345000000001</v>
       </c>
       <c r="G58" s="35">
         <f>MEDIAN(G47:G56)</f>
@@ -15283,13 +15475,17 @@
       <c r="C59" t="s">
         <v>156</v>
       </c>
+      <c r="D59" s="35">
+        <f t="array" ref="D59">MEDIAN(ABS(D47:D56-MEDIAN(D47:D56)))</f>
+        <v>8.0041711624631029E-3</v>
+      </c>
       <c r="E59" s="35">
         <f t="array" ref="E59">MEDIAN(ABS(E47:E56-MEDIAN(E47:E56)))</f>
-        <v>1.2193999999999927E-2</v>
+        <v>7.0999999999999536E-4</v>
       </c>
       <c r="F59" s="35">
         <f t="array" ref="F59">MEDIAN(ABS(F47:F56-MEDIAN(F47:F56)))</f>
-        <v>7.0999999999999536E-4</v>
+        <v>1.2193999999999927E-2</v>
       </c>
       <c r="G59" s="35">
         <f t="array" ref="G59">MEDIAN(ABS(G47:G56-MEDIAN(G47:G56)))</f>
@@ -15306,11 +15502,15 @@
       <c r="C61" t="s">
         <v>130</v>
       </c>
+      <c r="D61" s="32">
+        <f t="shared" ref="D61:D65" si="5">((E61/$E$5)+(F61/$F$5))/2</f>
+        <v>0.85134985414572306</v>
+      </c>
       <c r="E61" s="32">
+        <v>8.8496000000000005E-2</v>
+      </c>
+      <c r="F61" s="32">
         <v>1.122995</v>
-      </c>
-      <c r="F61" s="32">
-        <v>8.8496000000000005E-2</v>
       </c>
       <c r="G61" s="32">
         <v>10.763847</v>
@@ -15344,11 +15544,15 @@
       <c r="C62" t="s">
         <v>130</v>
       </c>
+      <c r="D62" s="32">
+        <f t="shared" si="5"/>
+        <v>0.842709564881713</v>
+      </c>
       <c r="E62" s="32">
+        <v>8.7389999999999995E-2</v>
+      </c>
+      <c r="F62" s="32">
         <v>1.1142540000000001</v>
-      </c>
-      <c r="F62" s="32">
-        <v>8.7389999999999995E-2</v>
       </c>
       <c r="G62" s="32">
         <v>10.192932000000001</v>
@@ -15379,11 +15583,15 @@
       <c r="C63" t="s">
         <v>130</v>
       </c>
+      <c r="D63" s="32">
+        <f t="shared" si="5"/>
+        <v>0.88533135765208937</v>
+      </c>
       <c r="E63" s="32">
+        <v>9.0396000000000004E-2</v>
+      </c>
+      <c r="F63" s="32">
         <v>1.1886779999999999</v>
-      </c>
-      <c r="F63" s="32">
-        <v>9.0396000000000004E-2</v>
       </c>
       <c r="G63" s="32">
         <v>11.567811000000001</v>
@@ -15414,11 +15622,15 @@
       <c r="C64" t="s">
         <v>130</v>
       </c>
+      <c r="D64" s="32">
+        <f t="shared" si="5"/>
+        <v>0.83213406538208279</v>
+      </c>
       <c r="E64" s="32">
+        <v>8.6457000000000006E-2</v>
+      </c>
+      <c r="F64" s="32">
         <v>1.098179</v>
-      </c>
-      <c r="F64" s="32">
-        <v>8.6457000000000006E-2</v>
       </c>
       <c r="G64" s="32">
         <v>10.257434999999999</v>
@@ -15449,11 +15661,15 @@
       <c r="C65" t="s">
         <v>130</v>
       </c>
+      <c r="D65" s="32">
+        <f t="shared" si="5"/>
+        <v>0.8461791028299479</v>
+      </c>
       <c r="E65" s="32">
+        <v>8.7651000000000007E-2</v>
+      </c>
+      <c r="F65" s="32">
         <v>1.120104</v>
-      </c>
-      <c r="F65" s="32">
-        <v>8.7651000000000007E-2</v>
       </c>
       <c r="G65" s="32">
         <v>10.859774</v>
@@ -15548,13 +15764,17 @@
       <c r="C71" t="s">
         <v>157</v>
       </c>
+      <c r="D71" s="35">
+        <f>AVERAGE(D61:D70)</f>
+        <v>0.85154078897831131</v>
+      </c>
       <c r="E71" s="35">
         <f>AVERAGE(E61:E70)</f>
-        <v>1.1288419999999999</v>
+        <v>8.8078000000000017E-2</v>
       </c>
       <c r="F71" s="35">
         <f>AVERAGE(F61:F70)</f>
-        <v>8.8078000000000017E-2</v>
+        <v>1.1288419999999999</v>
       </c>
       <c r="G71" s="35">
         <f>AVERAGE(G61:G70)</f>
@@ -15565,13 +15785,17 @@
       <c r="C72" t="s">
         <v>158</v>
       </c>
+      <c r="D72" s="35">
+        <f>MEDIAN(D61:D70)</f>
+        <v>0.8461791028299479</v>
+      </c>
       <c r="E72" s="35">
         <f>MEDIAN(E61:E70)</f>
-        <v>1.120104</v>
+        <v>8.7651000000000007E-2</v>
       </c>
       <c r="F72" s="35">
         <f>MEDIAN(F61:F70)</f>
-        <v>8.7651000000000007E-2</v>
+        <v>1.120104</v>
       </c>
       <c r="G72" s="35">
         <f>MEDIAN(G61:G70)</f>
@@ -15582,13 +15806,17 @@
       <c r="C73" t="s">
         <v>156</v>
       </c>
+      <c r="D73" s="35">
+        <f t="array" ref="D73">MEDIAN(ABS(D61:D65-MEDIAN(D61:D65)))</f>
+        <v>5.1707513157751572E-3</v>
+      </c>
       <c r="E73" s="35">
         <f t="array" ref="E73">MEDIAN(ABS(E61:E65-MEDIAN(E61:E65)))</f>
-        <v>5.8499999999999108E-3</v>
+        <v>8.4499999999999853E-4</v>
       </c>
       <c r="F73" s="35">
         <f t="array" ref="F73">MEDIAN(ABS(F61:F65-MEDIAN(F61:F65)))</f>
-        <v>8.4499999999999853E-4</v>
+        <v>5.8499999999999108E-3</v>
       </c>
       <c r="G73" s="35">
         <f t="array" ref="G73">MEDIAN(ABS(G61:G65-MEDIAN(G61:G65)))</f>
@@ -15609,15 +15837,15 @@
   <dimension ref="A1:O74"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J45" sqref="J45"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D58" sqref="D58:F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7265625" customWidth="1"/>
     <col min="5" max="6" width="7.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.7265625" bestFit="1" customWidth="1"/>
@@ -15642,10 +15870,10 @@
         <v>131</v>
       </c>
       <c r="E1" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="29" t="s">
         <v>79</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>81</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>83</v>
@@ -15685,11 +15913,15 @@
       <c r="C3" t="s">
         <v>146</v>
       </c>
+      <c r="D3" s="32">
+        <f>((E3/$E$5)+(F3/$F$5))/2</f>
+        <v>1.0759014498915951</v>
+      </c>
       <c r="E3" s="32">
+        <v>0.11396299999999999</v>
+      </c>
+      <c r="F3" s="32">
         <v>1.4431</v>
-      </c>
-      <c r="F3" s="32">
-        <v>0.11396299999999999</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
@@ -15702,11 +15934,15 @@
       <c r="C4" t="s">
         <v>147</v>
       </c>
+      <c r="D4" s="32">
+        <f>((E4/$E$5)+(F4/$F$5))/2</f>
+        <v>1.0920200249693561</v>
+      </c>
       <c r="E4" s="32">
+        <v>0.116615</v>
+      </c>
+      <c r="F4" s="32">
         <v>1.4530000000000001</v>
-      </c>
-      <c r="F4" s="32">
-        <v>0.116615</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
@@ -15719,11 +15955,15 @@
       <c r="C5" t="s">
         <v>136</v>
       </c>
+      <c r="D5" s="32">
+        <f>((E5/$E$5)+(F5/$F$5))/2</f>
+        <v>1</v>
+      </c>
       <c r="E5" s="32">
+        <v>0.107019</v>
+      </c>
+      <c r="F5" s="32">
         <v>1.3277000000000001</v>
-      </c>
-      <c r="F5" s="32">
-        <v>0.107019</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
@@ -15736,11 +15976,15 @@
       <c r="C6" t="s">
         <v>148</v>
       </c>
+      <c r="D6" s="32">
+        <f t="shared" ref="D6:D10" si="0">((E6/$E$5)+(F6/$F$5))/2</f>
+        <v>0.96325798190230683</v>
+      </c>
       <c r="E6" s="32">
+        <v>0.102645</v>
+      </c>
+      <c r="F6" s="32">
         <v>1.2844</v>
-      </c>
-      <c r="F6" s="32">
-        <v>0.102645</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
@@ -15753,11 +15997,15 @@
       <c r="C7" t="s">
         <v>149</v>
       </c>
+      <c r="D7" s="32">
+        <f t="shared" si="0"/>
+        <v>0.94995622617182618</v>
+      </c>
       <c r="E7" s="32">
+        <v>0.108205</v>
+      </c>
+      <c r="F7" s="32">
         <v>1.1800999999999999</v>
-      </c>
-      <c r="F7" s="32">
-        <v>0.108205</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
@@ -15770,11 +16018,15 @@
       <c r="C8" t="s">
         <v>150</v>
       </c>
+      <c r="D8" s="32">
+        <f t="shared" si="0"/>
+        <v>0.92671901875154261</v>
+      </c>
       <c r="E8" s="32">
+        <v>0.10265100000000001</v>
+      </c>
+      <c r="F8" s="32">
         <v>1.1873</v>
-      </c>
-      <c r="F8" s="32">
-        <v>0.10265100000000001</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
@@ -15787,11 +16039,15 @@
       <c r="C9" t="s">
         <v>151</v>
       </c>
+      <c r="D9" s="32">
+        <f t="shared" si="0"/>
+        <v>0.91177467708871396</v>
+      </c>
       <c r="E9" s="32">
+        <v>0.10007300000000001</v>
+      </c>
+      <c r="F9" s="32">
         <v>1.1796</v>
-      </c>
-      <c r="F9" s="32">
-        <v>0.10007300000000001</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
@@ -15804,11 +16060,15 @@
       <c r="C10" t="s">
         <v>145</v>
       </c>
+      <c r="D10" s="32">
+        <f t="shared" si="0"/>
+        <v>0.9188064213609004</v>
+      </c>
       <c r="E10" s="32">
+        <v>0.10156999999999999</v>
+      </c>
+      <c r="F10" s="32">
         <v>1.1797</v>
-      </c>
-      <c r="F10" s="32">
-        <v>0.10156999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
@@ -15821,11 +16081,15 @@
       <c r="C12" t="s">
         <v>136</v>
       </c>
+      <c r="D12" s="32">
+        <f t="shared" ref="D12:D16" si="1">((E12/$E$5)+(F12/$F$5))/2</f>
+        <v>1</v>
+      </c>
       <c r="E12" s="32">
+        <v>0.107019</v>
+      </c>
+      <c r="F12" s="32">
         <v>1.3277000000000001</v>
-      </c>
-      <c r="F12" s="32">
-        <v>0.107019</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -15838,11 +16102,15 @@
       <c r="C13" t="s">
         <v>137</v>
       </c>
+      <c r="D13" s="32">
+        <f t="shared" si="1"/>
+        <v>0.91107942930605512</v>
+      </c>
       <c r="E13" s="32">
+        <v>0.10243099999999999</v>
+      </c>
+      <c r="F13" s="32">
         <v>1.1485000000000001</v>
-      </c>
-      <c r="F13" s="32">
-        <v>0.10243099999999999</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -15855,11 +16123,15 @@
       <c r="C14" t="s">
         <v>138</v>
       </c>
+      <c r="D14" s="32">
+        <f t="shared" si="1"/>
+        <v>0.91544402296743521</v>
+      </c>
       <c r="E14" s="32">
+        <v>0.10187400000000001</v>
+      </c>
+      <c r="F14" s="32">
         <v>1.167</v>
-      </c>
-      <c r="F14" s="32">
-        <v>0.10187400000000001</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -15872,11 +16144,15 @@
       <c r="C15" t="s">
         <v>139</v>
       </c>
+      <c r="D15" s="32">
+        <f t="shared" si="1"/>
+        <v>0.88650546864542146</v>
+      </c>
       <c r="E15" s="32">
+        <v>9.8872000000000002E-2</v>
+      </c>
+      <c r="F15" s="32">
         <v>1.1274</v>
-      </c>
-      <c r="F15" s="32">
-        <v>9.8872000000000002E-2</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -15889,30 +16165,34 @@
       <c r="C16" t="s">
         <v>140</v>
       </c>
+      <c r="D16" s="32">
+        <f t="shared" si="1"/>
+        <v>0.88619729798422997</v>
+      </c>
       <c r="E16" s="32">
+        <v>9.7467999999999999E-2</v>
+      </c>
+      <c r="F16" s="32">
         <v>1.1439999999999999</v>
       </c>
-      <c r="F16" s="32">
-        <v>9.7467999999999999E-2</v>
-      </c>
     </row>
     <row r="18" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
@@ -15924,11 +16204,15 @@
       <c r="C19" t="s">
         <v>130</v>
       </c>
+      <c r="D19" s="32">
+        <f t="shared" ref="D19:D28" si="2">((E19/$E$5)+(F19/$F$5))/2</f>
+        <v>0.94353869485718689</v>
+      </c>
       <c r="E19" s="32">
+        <v>0.103419</v>
+      </c>
+      <c r="F19" s="32">
         <v>1.2224349999999999</v>
-      </c>
-      <c r="F19" s="32">
-        <v>0.103419</v>
       </c>
       <c r="G19" s="32">
         <v>13.271653000000001</v>
@@ -15966,11 +16250,15 @@
       <c r="C20" t="s">
         <v>130</v>
       </c>
+      <c r="D20" s="32">
+        <f t="shared" si="2"/>
+        <v>1.1274801039015185</v>
+      </c>
       <c r="E20" s="32">
+        <v>0.116469</v>
+      </c>
+      <c r="F20" s="32">
         <v>1.548972</v>
-      </c>
-      <c r="F20" s="32">
-        <v>0.116469</v>
       </c>
       <c r="G20" s="32">
         <v>19.741406000000001</v>
@@ -15994,7 +16282,7 @@
         <v>132</v>
       </c>
       <c r="N20" s="33">
-        <f t="shared" ref="N20:N28" si="0">(32*L20*K20)/B20</f>
+        <f>(32*L20*K20)/B20</f>
         <v>38.778477944740672</v>
       </c>
     </row>
@@ -16008,11 +16296,15 @@
       <c r="C21" t="s">
         <v>130</v>
       </c>
+      <c r="D21" s="32">
+        <f t="shared" si="2"/>
+        <v>0.96483593742457963</v>
+      </c>
       <c r="E21" s="32">
+        <v>0.103918</v>
+      </c>
+      <c r="F21" s="32">
         <v>1.272797</v>
-      </c>
-      <c r="F21" s="32">
-        <v>0.103918</v>
       </c>
       <c r="G21" s="32">
         <v>14.587026</v>
@@ -16036,7 +16328,7 @@
         <v>132</v>
       </c>
       <c r="N21" s="33">
-        <f t="shared" si="0"/>
+        <f>(32*L21*K21)/B21</f>
         <v>38.778477944740672</v>
       </c>
     </row>
@@ -16050,11 +16342,15 @@
       <c r="C22" t="s">
         <v>130</v>
       </c>
+      <c r="D22" s="32">
+        <f t="shared" si="2"/>
+        <v>0.91985522493497096</v>
+      </c>
       <c r="E22" s="32">
+        <v>0.100989</v>
+      </c>
+      <c r="F22" s="32">
         <v>1.1896929999999999</v>
-      </c>
-      <c r="F22" s="32">
-        <v>0.100989</v>
       </c>
       <c r="G22" s="32">
         <v>11.027134999999999</v>
@@ -16078,7 +16374,7 @@
         <v>132</v>
       </c>
       <c r="N22" s="33">
-        <f t="shared" si="0"/>
+        <f>(32*L22*K22)/B22</f>
         <v>38.778477944740672</v>
       </c>
     </row>
@@ -16092,11 +16388,15 @@
       <c r="C23" t="s">
         <v>130</v>
       </c>
+      <c r="D23" s="32">
+        <f t="shared" si="2"/>
+        <v>1.0378379739041299</v>
+      </c>
       <c r="E23" s="32">
+        <v>0.108075</v>
+      </c>
+      <c r="F23" s="32">
         <v>1.4150739999999999</v>
-      </c>
-      <c r="F23" s="32">
-        <v>0.108075</v>
       </c>
       <c r="G23" s="32">
         <v>15.836062</v>
@@ -16120,7 +16420,7 @@
         <v>132</v>
       </c>
       <c r="N23" s="33">
-        <f t="shared" si="0"/>
+        <f>(32*L23*K23)/B23</f>
         <v>38.778477944740672</v>
       </c>
     </row>
@@ -16134,11 +16434,15 @@
       <c r="C24" t="s">
         <v>130</v>
       </c>
+      <c r="D24" s="32">
+        <f t="shared" si="2"/>
+        <v>0.93567321346813004</v>
+      </c>
       <c r="E24" s="32">
+        <v>0.101905</v>
+      </c>
+      <c r="F24" s="32">
         <v>1.220332</v>
-      </c>
-      <c r="F24" s="32">
-        <v>0.101905</v>
       </c>
       <c r="G24" s="32">
         <v>14.644093</v>
@@ -16162,7 +16466,7 @@
         <v>132</v>
       </c>
       <c r="N24" s="33">
-        <f t="shared" si="0"/>
+        <f>(32*L24*K24)/B24</f>
         <v>38.778477944740672</v>
       </c>
     </row>
@@ -16176,11 +16480,15 @@
       <c r="C25" t="s">
         <v>130</v>
       </c>
+      <c r="D25" s="32">
+        <f t="shared" si="2"/>
+        <v>0.97905014752701724</v>
+      </c>
       <c r="E25" s="32">
+        <v>0.105241</v>
+      </c>
+      <c r="F25" s="32">
         <v>1.2941279999999999</v>
-      </c>
-      <c r="F25" s="32">
-        <v>0.105241</v>
       </c>
       <c r="G25" s="32">
         <v>13.033063</v>
@@ -16204,7 +16512,7 @@
         <v>132</v>
       </c>
       <c r="N25" s="33">
-        <f t="shared" si="0"/>
+        <f>(32*L25*K25)/B25</f>
         <v>38.778477944740672</v>
       </c>
     </row>
@@ -16218,11 +16526,15 @@
       <c r="C26" t="s">
         <v>130</v>
       </c>
+      <c r="D26" s="32">
+        <f t="shared" si="2"/>
+        <v>0.96949632200673186</v>
+      </c>
       <c r="E26" s="32">
+        <v>0.10472099999999999</v>
+      </c>
+      <c r="F26" s="32">
         <v>1.27521</v>
-      </c>
-      <c r="F26" s="32">
-        <v>0.10472099999999999</v>
       </c>
       <c r="G26" s="32">
         <v>12.054282000000001</v>
@@ -16246,7 +16558,7 @@
         <v>132</v>
       </c>
       <c r="N26" s="33">
-        <f t="shared" si="0"/>
+        <f>(32*L26*K26)/B26</f>
         <v>38.778477944740672</v>
       </c>
     </row>
@@ -16260,11 +16572,15 @@
       <c r="C27" t="s">
         <v>130</v>
       </c>
+      <c r="D27" s="32">
+        <f t="shared" si="2"/>
+        <v>0.92877466426859145</v>
+      </c>
       <c r="E27" s="32">
+        <v>0.101936</v>
+      </c>
+      <c r="F27" s="32">
         <v>1.2016290000000001</v>
-      </c>
-      <c r="F27" s="32">
-        <v>0.101936</v>
       </c>
       <c r="G27" s="32">
         <v>11.408754</v>
@@ -16288,7 +16604,7 @@
         <v>132</v>
       </c>
       <c r="N27" s="33">
-        <f t="shared" si="0"/>
+        <f>(32*L27*K27)/B27</f>
         <v>38.778477944740672</v>
       </c>
     </row>
@@ -16302,11 +16618,15 @@
       <c r="C28" t="s">
         <v>130</v>
       </c>
+      <c r="D28" s="32">
+        <f t="shared" si="2"/>
+        <v>0.99369226718934356</v>
+      </c>
       <c r="E28" s="32">
+        <v>0.10606</v>
+      </c>
+      <c r="F28" s="32">
         <v>1.322848</v>
-      </c>
-      <c r="F28" s="32">
-        <v>0.10606</v>
       </c>
       <c r="G28" s="32">
         <v>17.740012</v>
@@ -16330,7 +16650,7 @@
         <v>132</v>
       </c>
       <c r="N28" s="33">
-        <f t="shared" si="0"/>
+        <f>(32*L28*K28)/B28</f>
         <v>38.778477944740672</v>
       </c>
     </row>
@@ -16338,13 +16658,17 @@
       <c r="C29" t="s">
         <v>157</v>
       </c>
+      <c r="D29" s="35">
+        <f>AVERAGE(D19:D28)</f>
+        <v>0.98002345494821996</v>
+      </c>
       <c r="E29" s="35">
         <f>AVERAGE(E19:E28)</f>
-        <v>1.2963118</v>
+        <v>0.10527329999999999</v>
       </c>
       <c r="F29" s="35">
         <f>AVERAGE(F19:F28)</f>
-        <v>0.10527329999999999</v>
+        <v>1.2963118</v>
       </c>
       <c r="G29" s="35">
         <f>AVERAGE(G19:G28)</f>
@@ -16355,13 +16679,17 @@
       <c r="C30" t="s">
         <v>158</v>
       </c>
+      <c r="D30" s="35">
+        <f>MEDIAN(D19:D28)</f>
+        <v>0.96716612971565574</v>
+      </c>
       <c r="E30" s="35">
         <f>MEDIAN(E19:E28)</f>
-        <v>1.2740035000000001</v>
+        <v>0.1043195</v>
       </c>
       <c r="F30" s="35">
         <f>MEDIAN(F19:F28)</f>
-        <v>0.1043195</v>
+        <v>1.2740035000000001</v>
       </c>
       <c r="G30" s="35">
         <f>MEDIAN(G19:G28)</f>
@@ -16372,13 +16700,17 @@
       <c r="C31" t="s">
         <v>156</v>
       </c>
+      <c r="D31" s="35">
+        <f t="array" ref="D31">MEDIAN(ABS(D19:D28-MEDIAN(D19:D28)))</f>
+        <v>2.900952686060676E-2</v>
+      </c>
       <c r="E31" s="35">
         <f t="array" ref="E31">MEDIAN(ABS(E19:E28-MEDIAN(E19:E28)))</f>
-        <v>5.2620000000000111E-2</v>
+        <v>2.0620000000000013E-3</v>
       </c>
       <c r="F31" s="35">
         <f t="array" ref="F31">MEDIAN(ABS(F19:F28-MEDIAN(F19:F28)))</f>
-        <v>2.0620000000000013E-3</v>
+        <v>5.2620000000000111E-2</v>
       </c>
       <c r="G31" s="35">
         <f t="array" ref="G31">MEDIAN(ABS(G19:G28-MEDIAN(G19:G28)))</f>
@@ -16395,11 +16727,15 @@
       <c r="C33" t="s">
         <v>130</v>
       </c>
+      <c r="D33" s="32">
+        <f t="shared" ref="D33:D42" si="3">((E33/$E$5)+(F33/$F$5))/2</f>
+        <v>0.90879795171912459</v>
+      </c>
       <c r="E33" s="32">
+        <v>0.100589</v>
+      </c>
+      <c r="F33" s="32">
         <v>1.1652940000000001</v>
-      </c>
-      <c r="F33" s="32">
-        <v>0.100589</v>
       </c>
       <c r="G33" s="32">
         <v>10.724694</v>
@@ -16423,7 +16759,7 @@
         <v>132</v>
       </c>
       <c r="N33" s="33">
-        <f t="shared" ref="N33:N42" si="1">(32*L33*K33)/B33</f>
+        <f>(32*L33*K33)/B33</f>
         <v>155.11391177896269</v>
       </c>
     </row>
@@ -16437,11 +16773,15 @@
       <c r="C34" t="s">
         <v>130</v>
       </c>
+      <c r="D34" s="32">
+        <f t="shared" si="3"/>
+        <v>0.89775908973971918</v>
+      </c>
       <c r="E34" s="32">
+        <v>9.9848999999999993E-2</v>
+      </c>
+      <c r="F34" s="32">
         <v>1.145162</v>
-      </c>
-      <c r="F34" s="32">
-        <v>9.9848999999999993E-2</v>
       </c>
       <c r="G34" s="32">
         <v>10.431291999999999</v>
@@ -16465,7 +16805,7 @@
         <v>132</v>
       </c>
       <c r="N34" s="33">
-        <f t="shared" si="1"/>
+        <f>(32*L34*K34)/B34</f>
         <v>155.11391177896269</v>
       </c>
     </row>
@@ -16479,11 +16819,15 @@
       <c r="C35" t="s">
         <v>130</v>
       </c>
+      <c r="D35" s="32">
+        <f t="shared" si="3"/>
+        <v>0.90137712787808155</v>
+      </c>
       <c r="E35" s="32">
+        <v>9.9226999999999996E-2</v>
+      </c>
+      <c r="F35" s="32">
         <v>1.1624859999999999</v>
-      </c>
-      <c r="F35" s="32">
-        <v>9.9226999999999996E-2</v>
       </c>
       <c r="G35" s="32">
         <v>11.169720999999999</v>
@@ -16507,7 +16851,7 @@
         <v>132</v>
       </c>
       <c r="N35" s="33">
-        <f t="shared" si="1"/>
+        <f>(32*L35*K35)/B35</f>
         <v>155.11391177896269</v>
       </c>
     </row>
@@ -16521,11 +16865,15 @@
       <c r="C36" t="s">
         <v>130</v>
       </c>
+      <c r="D36" s="32">
+        <f t="shared" si="3"/>
+        <v>0.89189932850970033</v>
+      </c>
       <c r="E36" s="32">
+        <v>9.8590999999999998E-2</v>
+      </c>
+      <c r="F36" s="32">
         <v>1.1452089999999999</v>
-      </c>
-      <c r="F36" s="32">
-        <v>9.8590999999999998E-2</v>
       </c>
       <c r="G36" s="32">
         <v>11.155984999999999</v>
@@ -16549,7 +16897,7 @@
         <v>132</v>
       </c>
       <c r="N36" s="33">
-        <f t="shared" si="1"/>
+        <f>(32*L36*K36)/B36</f>
         <v>155.11391177896269</v>
       </c>
     </row>
@@ -16563,11 +16911,15 @@
       <c r="C37" t="s">
         <v>130</v>
       </c>
+      <c r="D37" s="32">
+        <f t="shared" si="3"/>
+        <v>0.8717804534596536</v>
+      </c>
       <c r="E37" s="32">
+        <v>9.6454999999999999E-2</v>
+      </c>
+      <c r="F37" s="32">
         <v>1.118285</v>
-      </c>
-      <c r="F37" s="32">
-        <v>9.6454999999999999E-2</v>
       </c>
       <c r="G37" s="32">
         <v>10.550632</v>
@@ -16591,7 +16943,7 @@
         <v>132</v>
       </c>
       <c r="N37" s="33">
-        <f t="shared" si="1"/>
+        <f>(32*L37*K37)/B37</f>
         <v>155.11391177896269</v>
       </c>
     </row>
@@ -16605,11 +16957,15 @@
       <c r="C38" t="s">
         <v>130</v>
       </c>
+      <c r="D38" s="32">
+        <f t="shared" si="3"/>
+        <v>0.89693682810336206</v>
+      </c>
       <c r="E38" s="32">
+        <v>9.9005999999999997E-2</v>
+      </c>
+      <c r="F38" s="32">
         <v>1.153437</v>
-      </c>
-      <c r="F38" s="32">
-        <v>9.9005999999999997E-2</v>
       </c>
       <c r="G38" s="32">
         <v>10.578438999999999</v>
@@ -16633,7 +16989,7 @@
         <v>132</v>
       </c>
       <c r="N38" s="33">
-        <f t="shared" si="1"/>
+        <f>(32*L38*K38)/B38</f>
         <v>155.11391177896269</v>
       </c>
     </row>
@@ -16647,11 +17003,15 @@
       <c r="C39" t="s">
         <v>130</v>
       </c>
+      <c r="D39" s="32">
+        <f t="shared" si="3"/>
+        <v>0.89288401304639453</v>
+      </c>
       <c r="E39" s="32">
+        <v>9.8290000000000002E-2</v>
+      </c>
+      <c r="F39" s="32">
         <v>1.1515580000000001</v>
-      </c>
-      <c r="F39" s="32">
-        <v>9.8290000000000002E-2</v>
       </c>
       <c r="G39" s="32">
         <v>11.009294000000001</v>
@@ -16675,7 +17035,7 @@
         <v>132</v>
       </c>
       <c r="N39" s="33">
-        <f t="shared" si="1"/>
+        <f>(32*L39*K39)/B39</f>
         <v>155.11391177896269</v>
       </c>
     </row>
@@ -16689,11 +17049,15 @@
       <c r="C40" t="s">
         <v>130</v>
       </c>
+      <c r="D40" s="32">
+        <f t="shared" si="3"/>
+        <v>0.90032731433228608</v>
+      </c>
       <c r="E40" s="32">
+        <v>9.8924999999999999E-2</v>
+      </c>
+      <c r="F40" s="32">
         <v>1.1634450000000001</v>
-      </c>
-      <c r="F40" s="32">
-        <v>9.8924999999999999E-2</v>
       </c>
       <c r="G40" s="32">
         <v>10.859264</v>
@@ -16717,7 +17081,7 @@
         <v>132</v>
       </c>
       <c r="N40" s="33">
-        <f t="shared" si="1"/>
+        <f>(32*L40*K40)/B40</f>
         <v>155.11391177896269</v>
       </c>
     </row>
@@ -16731,11 +17095,15 @@
       <c r="C41" t="s">
         <v>130</v>
       </c>
+      <c r="D41" s="32">
+        <f t="shared" si="3"/>
+        <v>0.92930032710743748</v>
+      </c>
       <c r="E41" s="32">
+        <v>0.10265199999999999</v>
+      </c>
+      <c r="F41" s="32">
         <v>1.194142</v>
-      </c>
-      <c r="F41" s="32">
-        <v>0.10265199999999999</v>
       </c>
       <c r="G41" s="32">
         <v>11.096774999999999</v>
@@ -16759,7 +17127,7 @@
         <v>132</v>
       </c>
       <c r="N41" s="33">
-        <f t="shared" si="1"/>
+        <f>(32*L41*K41)/B41</f>
         <v>155.11391177896269</v>
       </c>
     </row>
@@ -16773,11 +17141,15 @@
       <c r="C42" t="s">
         <v>130</v>
       </c>
+      <c r="D42" s="32">
+        <f t="shared" si="3"/>
+        <v>0.89703340674634013</v>
+      </c>
       <c r="E42" s="32">
+        <v>9.9336999999999995E-2</v>
+      </c>
+      <c r="F42" s="32">
         <v>1.1495869999999999</v>
-      </c>
-      <c r="F42" s="32">
-        <v>9.9336999999999995E-2</v>
       </c>
       <c r="G42" s="32">
         <v>10.481676</v>
@@ -16801,7 +17173,7 @@
         <v>132</v>
       </c>
       <c r="N42" s="33">
-        <f t="shared" si="1"/>
+        <f>(32*L42*K42)/B42</f>
         <v>155.11391177896269</v>
       </c>
     </row>
@@ -16809,13 +17181,17 @@
       <c r="C43" t="s">
         <v>157</v>
       </c>
+      <c r="D43" s="35">
+        <f>AVERAGE(D33:D42)</f>
+        <v>0.89880958406420997</v>
+      </c>
       <c r="E43" s="35">
         <f>AVERAGE(E33:E42)</f>
-        <v>1.1548605000000001</v>
+        <v>9.9292100000000008E-2</v>
       </c>
       <c r="F43" s="35">
         <f>AVERAGE(F33:F42)</f>
-        <v>9.9292100000000008E-2</v>
+        <v>1.1548605000000001</v>
       </c>
       <c r="G43" s="35">
         <f>AVERAGE(G33:G42)</f>
@@ -16826,13 +17202,17 @@
       <c r="C44" t="s">
         <v>158</v>
       </c>
+      <c r="D44" s="35">
+        <f>MEDIAN(D33:D42)</f>
+        <v>0.89739624824302966</v>
+      </c>
       <c r="E44" s="35">
         <f>MEDIAN(E33:E42)</f>
-        <v>1.1524975</v>
+        <v>9.9116499999999996E-2</v>
       </c>
       <c r="F44" s="35">
         <f>MEDIAN(F33:F42)</f>
-        <v>9.9116499999999996E-2</v>
+        <v>1.1524975</v>
       </c>
       <c r="G44" s="35">
         <f>MEDIAN(G33:G42)</f>
@@ -16843,13 +17223,17 @@
       <c r="C45" t="s">
         <v>156</v>
       </c>
+      <c r="D45" s="35">
+        <f t="array" ref="D45">MEDIAN(ABS(D33:D42-MEDIAN(D33:D42)))</f>
+        <v>4.2465574158435104E-3</v>
+      </c>
       <c r="E45" s="35">
         <f t="array" ref="E45">MEDIAN(ABS(E33:E42-MEDIAN(E33:E42)))</f>
-        <v>8.6619999999999475E-3</v>
+        <v>6.2899999999999762E-4</v>
       </c>
       <c r="F45" s="35">
         <f t="array" ref="F45">MEDIAN(ABS(F33:F42-MEDIAN(F33:F42)))</f>
-        <v>6.2899999999999762E-4</v>
+        <v>8.6619999999999475E-3</v>
       </c>
       <c r="G45" s="35">
         <f t="array" ref="G45">MEDIAN(ABS(G33:G42-MEDIAN(G33:G42)))</f>
@@ -16866,11 +17250,15 @@
       <c r="C47" t="s">
         <v>130</v>
       </c>
+      <c r="D47" s="32">
+        <f t="shared" ref="D47:D51" si="4">((E47/$E$5)+(F47/$F$5))/2</f>
+        <v>0.87932298233858586</v>
+      </c>
       <c r="E47" s="32">
+        <v>9.8102999999999996E-2</v>
+      </c>
+      <c r="F47" s="32">
         <v>1.1178680000000001</v>
-      </c>
-      <c r="F47" s="32">
-        <v>9.8102999999999996E-2</v>
       </c>
       <c r="G47" s="32">
         <v>10.815135</v>
@@ -16894,7 +17282,7 @@
         <v>132</v>
       </c>
       <c r="N47" s="33">
-        <f t="shared" ref="N47:N51" si="2">(32*L47*K47)/B47</f>
+        <f>(32*L47*K47)/B47</f>
         <v>620.45564711585075</v>
       </c>
     </row>
@@ -16908,11 +17296,15 @@
       <c r="C48" t="s">
         <v>130</v>
       </c>
+      <c r="D48" s="32">
+        <f t="shared" si="4"/>
+        <v>0.88691342038676457</v>
+      </c>
       <c r="E48" s="32">
+        <v>9.8271999999999998E-2</v>
+      </c>
+      <c r="F48" s="32">
         <v>1.1359269999999999</v>
-      </c>
-      <c r="F48" s="32">
-        <v>9.8271999999999998E-2</v>
       </c>
       <c r="G48" s="32">
         <v>10.447384</v>
@@ -16936,7 +17328,7 @@
         <v>132</v>
       </c>
       <c r="N48" s="33">
-        <f t="shared" si="2"/>
+        <f>(32*L48*K48)/B48</f>
         <v>620.45564711585075</v>
       </c>
     </row>
@@ -16950,11 +17342,15 @@
       <c r="C49" t="s">
         <v>130</v>
       </c>
+      <c r="D49" s="32">
+        <f t="shared" si="4"/>
+        <v>0.89031543009424507</v>
+      </c>
       <c r="E49" s="32">
+        <v>9.8803000000000002E-2</v>
+      </c>
+      <c r="F49" s="32">
         <v>1.1383730000000001</v>
-      </c>
-      <c r="F49" s="32">
-        <v>9.8803000000000002E-2</v>
       </c>
       <c r="G49" s="32">
         <v>11.217749</v>
@@ -16978,7 +17374,7 @@
         <v>132</v>
       </c>
       <c r="N49" s="33">
-        <f t="shared" si="2"/>
+        <f>(32*L49*K49)/B49</f>
         <v>620.45564711585075</v>
       </c>
     </row>
@@ -16992,11 +17388,15 @@
       <c r="C50" t="s">
         <v>130</v>
       </c>
+      <c r="D50" s="32">
+        <f t="shared" si="4"/>
+        <v>0.88459849191851925</v>
+      </c>
       <c r="E50" s="32">
+        <v>9.7489000000000006E-2</v>
+      </c>
+      <c r="F50" s="32">
         <v>1.139494</v>
-      </c>
-      <c r="F50" s="32">
-        <v>9.7489000000000006E-2</v>
       </c>
       <c r="G50" s="32">
         <v>11.202152</v>
@@ -17020,7 +17420,7 @@
         <v>132</v>
       </c>
       <c r="N50" s="33">
-        <f t="shared" si="2"/>
+        <f>(32*L50*K50)/B50</f>
         <v>620.45564711585075</v>
       </c>
     </row>
@@ -17034,11 +17434,15 @@
       <c r="C51" t="s">
         <v>130</v>
       </c>
+      <c r="D51" s="32">
+        <f t="shared" si="4"/>
+        <v>0.88383692829772853</v>
+      </c>
       <c r="E51" s="32">
+        <v>9.8381999999999997E-2</v>
+      </c>
+      <c r="F51" s="32">
         <v>1.126393</v>
-      </c>
-      <c r="F51" s="32">
-        <v>9.8381999999999997E-2</v>
       </c>
       <c r="G51" s="32">
         <v>10.758433999999999</v>
@@ -17062,7 +17466,7 @@
         <v>132</v>
       </c>
       <c r="N51" s="33">
-        <f t="shared" si="2"/>
+        <f>(32*L51*K51)/B51</f>
         <v>620.45564711585075</v>
       </c>
     </row>
@@ -17150,13 +17554,17 @@
       <c r="C57" t="s">
         <v>157</v>
       </c>
+      <c r="D57" s="35">
+        <f>AVERAGE(D47:D56)</f>
+        <v>0.88499745060716872</v>
+      </c>
       <c r="E57" s="35">
         <f>AVERAGE(E47:E56)</f>
-        <v>1.1316110000000001</v>
+        <v>9.8209799999999986E-2</v>
       </c>
       <c r="F57" s="35">
         <f>AVERAGE(F47:F56)</f>
-        <v>9.8209799999999986E-2</v>
+        <v>1.1316110000000001</v>
       </c>
       <c r="G57" s="35">
         <f>AVERAGE(G47:G56)</f>
@@ -17169,13 +17577,17 @@
       <c r="C58" t="s">
         <v>158</v>
       </c>
+      <c r="D58" s="35">
+        <f>MEDIAN(D47:D56)</f>
+        <v>0.88459849191851925</v>
+      </c>
       <c r="E58" s="35">
         <f>MEDIAN(E47:E56)</f>
-        <v>1.1359269999999999</v>
+        <v>9.8271999999999998E-2</v>
       </c>
       <c r="F58" s="35">
         <f>MEDIAN(F47:F56)</f>
-        <v>9.8271999999999998E-2</v>
+        <v>1.1359269999999999</v>
       </c>
       <c r="G58" s="35">
         <f>MEDIAN(G47:G56)</f>
@@ -17188,13 +17600,17 @@
       <c r="C59" t="s">
         <v>156</v>
       </c>
+      <c r="D59" s="35">
+        <f t="array" ref="D59">MEDIAN(ABS(D47:D51-MEDIAN(D47:D51)))</f>
+        <v>2.3149284682453253E-3</v>
+      </c>
       <c r="E59" s="35">
         <f t="array" ref="E59">MEDIAN(ABS(E47:E51-MEDIAN(E47:E51)))</f>
-        <v>3.5670000000000979E-3</v>
+        <v>1.6900000000000248E-4</v>
       </c>
       <c r="F59" s="35">
         <f t="array" ref="F59">MEDIAN(ABS(F47:F51-MEDIAN(F47:F51)))</f>
-        <v>1.6900000000000248E-4</v>
+        <v>3.5670000000000979E-3</v>
       </c>
       <c r="G59" s="35">
         <f t="array" ref="G59">MEDIAN(ABS(G47:G51-MEDIAN(G47:G51)))</f>
@@ -17228,10 +17644,10 @@
         <v>130</v>
       </c>
       <c r="E62" s="32">
+        <v>9.9534999999999998E-2</v>
+      </c>
+      <c r="F62" s="32">
         <v>1.1511229999999999</v>
-      </c>
-      <c r="F62" s="32">
-        <v>9.9534999999999998E-2</v>
       </c>
       <c r="G62" s="32">
         <v>10.718942</v>
@@ -17255,7 +17671,7 @@
         <v>132</v>
       </c>
       <c r="N62" s="33">
-        <f t="shared" ref="N62:N66" si="3">(32*L62*K62)/B62</f>
+        <f>(32*L62*K62)/B62</f>
         <v>387.78477944740666</v>
       </c>
     </row>
@@ -17270,10 +17686,10 @@
         <v>130</v>
       </c>
       <c r="E63" s="32">
+        <v>9.7161999999999998E-2</v>
+      </c>
+      <c r="F63" s="32">
         <v>1.121016</v>
-      </c>
-      <c r="F63" s="32">
-        <v>9.7161999999999998E-2</v>
       </c>
       <c r="G63" s="32">
         <v>10.20187</v>
@@ -17297,7 +17713,7 @@
         <v>132</v>
       </c>
       <c r="N63" s="33">
-        <f t="shared" si="3"/>
+        <f>(32*L63*K63)/B63</f>
         <v>387.78477944740666</v>
       </c>
     </row>
@@ -17312,10 +17728,10 @@
         <v>130</v>
       </c>
       <c r="E64" s="32">
+        <v>9.7647999999999999E-2</v>
+      </c>
+      <c r="F64" s="32">
         <v>1.128107</v>
-      </c>
-      <c r="F64" s="32">
-        <v>9.7647999999999999E-2</v>
       </c>
       <c r="G64" s="32">
         <v>10.66564</v>
@@ -17339,7 +17755,7 @@
         <v>132</v>
       </c>
       <c r="N64" s="33">
-        <f t="shared" si="3"/>
+        <f>(32*L64*K64)/B64</f>
         <v>387.78477944740666</v>
       </c>
     </row>
@@ -17354,10 +17770,10 @@
         <v>130</v>
       </c>
       <c r="E65" s="32">
+        <v>9.6823999999999993E-2</v>
+      </c>
+      <c r="F65" s="32">
         <v>1.113542</v>
-      </c>
-      <c r="F65" s="32">
-        <v>9.6823999999999993E-2</v>
       </c>
       <c r="G65" s="32">
         <v>10.265351000000001</v>
@@ -17381,7 +17797,7 @@
         <v>132</v>
       </c>
       <c r="N65" s="33">
-        <f t="shared" si="3"/>
+        <f>(32*L65*K65)/B65</f>
         <v>387.78477944740666</v>
       </c>
     </row>
@@ -17396,10 +17812,10 @@
         <v>130</v>
       </c>
       <c r="E66" s="32">
+        <v>9.7792000000000004E-2</v>
+      </c>
+      <c r="F66" s="32">
         <v>1.1275500000000001</v>
-      </c>
-      <c r="F66" s="32">
-        <v>9.7792000000000004E-2</v>
       </c>
       <c r="G66" s="32">
         <v>10.478624</v>
@@ -17423,7 +17839,7 @@
         <v>132</v>
       </c>
       <c r="N66" s="33">
-        <f t="shared" si="3"/>
+        <f>(32*L66*K66)/B66</f>
         <v>387.78477944740666</v>
       </c>
     </row>
@@ -17485,11 +17901,11 @@
     <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E72" s="35">
         <f>AVERAGE(E62:E71)</f>
-        <v>1.1282676</v>
+        <v>9.7792199999999996E-2</v>
       </c>
       <c r="F72" s="35">
         <f>AVERAGE(F62:F71)</f>
-        <v>9.7792199999999996E-2</v>
+        <v>1.1282676</v>
       </c>
       <c r="G72" s="35">
         <f>AVERAGE(G62:G71)</f>
@@ -17499,11 +17915,11 @@
     <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E73" s="35">
         <f>MEDIAN(E62:E71)</f>
-        <v>1.1275500000000001</v>
+        <v>9.7647999999999999E-2</v>
       </c>
       <c r="F73" s="35">
         <f>MEDIAN(F62:F71)</f>
-        <v>9.7647999999999999E-2</v>
+        <v>1.1275500000000001</v>
       </c>
       <c r="G73" s="35">
         <f>MEDIAN(G62:G71)</f>
@@ -17513,11 +17929,11 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.35">
       <c r="E74" s="35">
         <f t="array" ref="E74">MEDIAN(ABS(E62:E66-MEDIAN(E62:E66)))</f>
-        <v>6.5340000000000398E-3</v>
+        <v>4.8600000000000032E-4</v>
       </c>
       <c r="F74" s="35">
         <f t="array" ref="F74">MEDIAN(ABS(F62:F66-MEDIAN(F62:F66)))</f>
-        <v>4.8600000000000032E-4</v>
+        <v>6.5340000000000398E-3</v>
       </c>
       <c r="G74" s="35">
         <f t="array" ref="G74">MEDIAN(ABS(G62:G66-MEDIAN(G62:G66)))</f>
@@ -17537,8 +17953,8 @@
   <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17546,7 +17962,7 @@
     <col min="1" max="1" width="18.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.90625" customWidth="1"/>
     <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.81640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
@@ -17571,10 +17987,10 @@
         <v>131</v>
       </c>
       <c r="E1" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="F1" s="29" t="s">
         <v>79</v>
-      </c>
-      <c r="F1" s="29" t="s">
-        <v>81</v>
       </c>
       <c r="G1" s="29" t="s">
         <v>83</v>
@@ -17621,12 +18037,15 @@
       <c r="C3" t="s">
         <v>146</v>
       </c>
-      <c r="D3"/>
-      <c r="E3" s="32">
+      <c r="D3" s="32">
+        <f>((E3/$E$5)+(F3/$F$5))/2</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="36">
+        <v>0.206509</v>
+      </c>
+      <c r="F3" s="32">
         <v>5.4678000000000004</v>
-      </c>
-      <c r="F3" s="36">
-        <v>0.206509</v>
       </c>
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
@@ -17644,12 +18063,15 @@
       <c r="C4" t="s">
         <v>147</v>
       </c>
-      <c r="D4"/>
-      <c r="E4" s="32">
+      <c r="D4" s="32">
+        <f>((E4/$E$5)+(F4/$F$5))/2</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="36">
+        <v>0.206509</v>
+      </c>
+      <c r="F4" s="32">
         <v>5.4678000000000004</v>
-      </c>
-      <c r="F4" s="36">
-        <v>0.206509</v>
       </c>
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
@@ -17667,12 +18089,15 @@
       <c r="C5" t="s">
         <v>136</v>
       </c>
-      <c r="D5"/>
-      <c r="E5" s="32">
+      <c r="D5" s="32">
+        <f>((E5/$E$5)+(F5/$F$5))/2</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="36">
+        <v>0.206509</v>
+      </c>
+      <c r="F5" s="32">
         <v>5.4678000000000004</v>
-      </c>
-      <c r="F5" s="36">
-        <v>0.206509</v>
       </c>
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
@@ -17690,12 +18115,15 @@
       <c r="C6" t="s">
         <v>148</v>
       </c>
-      <c r="D6"/>
-      <c r="E6" s="32">
+      <c r="D6" s="32">
+        <f t="shared" ref="D6:D10" si="0">((E6/$E$5)+(F6/$F$5))/2</f>
+        <v>1.0014535933494511</v>
+      </c>
+      <c r="E6" s="36">
+        <v>0.20677700000000002</v>
+      </c>
+      <c r="F6" s="32">
         <v>5.4766000000000004</v>
-      </c>
-      <c r="F6" s="36">
-        <v>0.20677700000000002</v>
       </c>
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
@@ -17713,12 +18141,15 @@
       <c r="C7" t="s">
         <v>149</v>
       </c>
-      <c r="D7"/>
-      <c r="E7" s="32">
+      <c r="D7" s="32">
+        <f t="shared" si="0"/>
+        <v>0.74253905909755791</v>
+      </c>
+      <c r="E7" s="36">
+        <v>0.16417500000000002</v>
+      </c>
+      <c r="F7" s="32">
         <v>3.7732000000000001</v>
-      </c>
-      <c r="F7" s="36">
-        <v>0.16417500000000002</v>
       </c>
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
@@ -17736,12 +18167,15 @@
       <c r="C8" t="s">
         <v>150</v>
       </c>
-      <c r="D8"/>
-      <c r="E8" s="32">
+      <c r="D8" s="32">
+        <f t="shared" si="0"/>
+        <v>0.73697952807931766</v>
+      </c>
+      <c r="E8" s="36">
+        <v>0.159828</v>
+      </c>
+      <c r="F8" s="32">
         <v>3.8275000000000001</v>
-      </c>
-      <c r="F8" s="36">
-        <v>0.159828</v>
       </c>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
@@ -17759,12 +18193,15 @@
       <c r="C9" t="s">
         <v>151</v>
       </c>
-      <c r="D9"/>
-      <c r="E9" s="32">
+      <c r="D9" s="32">
+        <f t="shared" si="0"/>
+        <v>0.83577092410417475</v>
+      </c>
+      <c r="E9" s="36">
+        <v>0.174597</v>
+      </c>
+      <c r="F9" s="32">
         <v>4.5167999999999999</v>
-      </c>
-      <c r="F9" s="36">
-        <v>0.174597</v>
       </c>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
@@ -17782,12 +18219,15 @@
       <c r="C10" t="s">
         <v>145</v>
       </c>
-      <c r="D10"/>
-      <c r="E10" s="32">
+      <c r="D10" s="32">
+        <f t="shared" si="0"/>
+        <v>0.76760650066958658</v>
+      </c>
+      <c r="E10" s="36">
+        <v>0.164769</v>
+      </c>
+      <c r="F10" s="32">
         <v>4.0316000000000001</v>
-      </c>
-      <c r="F10" s="36">
-        <v>0.164769</v>
       </c>
       <c r="H10" s="30"/>
       <c r="I10" s="30"/>
@@ -17812,11 +18252,15 @@
       <c r="C12" t="s">
         <v>136</v>
       </c>
+      <c r="D12" s="32">
+        <f t="shared" ref="D12:D16" si="1">((E12/$E$5)+(F12/$F$5))/2</f>
+        <v>1</v>
+      </c>
       <c r="E12" s="32">
+        <v>0.206509</v>
+      </c>
+      <c r="F12" s="32">
         <v>5.4678000000000004</v>
-      </c>
-      <c r="F12" s="32">
-        <v>0.206509</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -17829,11 +18273,15 @@
       <c r="C13" t="s">
         <v>137</v>
       </c>
+      <c r="D13" s="32">
+        <f t="shared" si="1"/>
+        <v>0.70147063870350568</v>
+      </c>
       <c r="E13" s="32">
+        <v>0.15073300000000001</v>
+      </c>
+      <c r="F13" s="32">
         <v>3.68</v>
-      </c>
-      <c r="F13" s="32">
-        <v>0.15073300000000001</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
@@ -17846,11 +18294,15 @@
       <c r="C14" t="s">
         <v>138</v>
       </c>
+      <c r="D14" s="32">
+        <f t="shared" si="1"/>
+        <v>0.72936895651360079</v>
+      </c>
       <c r="E14" s="32">
+        <v>0.158558</v>
+      </c>
+      <c r="F14" s="32">
         <v>3.7778999999999998</v>
-      </c>
-      <c r="F14" s="32">
-        <v>0.158558</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
@@ -17863,11 +18315,15 @@
       <c r="C15" t="s">
         <v>139</v>
       </c>
+      <c r="D15" s="32">
+        <f t="shared" si="1"/>
+        <v>0.7038283907840317</v>
+      </c>
       <c r="E15" s="32">
+        <v>0.15177099999999999</v>
+      </c>
+      <c r="F15" s="32">
         <v>3.6783000000000001</v>
-      </c>
-      <c r="F15" s="32">
-        <v>0.15177099999999999</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
@@ -17880,31 +18336,35 @@
       <c r="C16" t="s">
         <v>140</v>
       </c>
+      <c r="D16" s="32">
+        <f t="shared" si="1"/>
+        <v>0.64938050499434907</v>
+      </c>
       <c r="E16" s="32">
+        <v>0.139099</v>
+      </c>
+      <c r="F16" s="32">
         <v>3.4184000000000001</v>
       </c>
-      <c r="F16" s="32">
-        <v>0.139099</v>
-      </c>
     </row>
     <row r="18" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="34" t="s">
@@ -17916,11 +18376,15 @@
       <c r="C19" t="s">
         <v>135</v>
       </c>
+      <c r="D19" s="32">
+        <f t="shared" ref="D19:D28" si="2">((E19/$E$5)+(F19/$F$5))/2</f>
+        <v>0.62891851354592609</v>
+      </c>
       <c r="E19" s="32">
+        <v>0.13452500000000001</v>
+      </c>
+      <c r="F19" s="32">
         <v>3.3157429999999999</v>
-      </c>
-      <c r="F19" s="32">
-        <v>0.13452500000000001</v>
       </c>
       <c r="G19" s="32">
         <v>36.127305999999997</v>
@@ -17958,11 +18422,15 @@
       <c r="C20" t="s">
         <v>135</v>
       </c>
+      <c r="D20" s="32">
+        <f t="shared" si="2"/>
+        <v>0.62165488900067223</v>
+      </c>
       <c r="E20" s="32">
+        <v>0.133494</v>
+      </c>
+      <c r="F20" s="32">
         <v>3.2636090000000002</v>
-      </c>
-      <c r="F20" s="32">
-        <v>0.133494</v>
       </c>
       <c r="G20" s="32">
         <v>36.031298999999997</v>
@@ -17986,7 +18454,7 @@
         <v>132</v>
       </c>
       <c r="N20" s="33">
-        <f t="shared" ref="N20:N28" si="0">(32*L20*K20)/B20</f>
+        <f>(32*L20*K20)/B20</f>
         <v>45.766590389016017</v>
       </c>
     </row>
@@ -18000,11 +18468,15 @@
       <c r="C21" t="s">
         <v>135</v>
       </c>
+      <c r="D21" s="32">
+        <f t="shared" si="2"/>
+        <v>0.64114916784988285</v>
+      </c>
       <c r="E21" s="32">
+        <v>0.136351</v>
+      </c>
+      <c r="F21" s="32">
         <v>3.4011450000000001</v>
-      </c>
-      <c r="F21" s="32">
-        <v>0.136351</v>
       </c>
       <c r="G21" s="32">
         <v>37.336255000000001</v>
@@ -18028,7 +18500,7 @@
         <v>132</v>
       </c>
       <c r="N21" s="33">
-        <f t="shared" si="0"/>
+        <f>(32*L21*K21)/B21</f>
         <v>45.766590389016017</v>
       </c>
     </row>
@@ -18042,11 +18514,15 @@
       <c r="C22" t="s">
         <v>135</v>
       </c>
+      <c r="D22" s="32">
+        <f t="shared" si="2"/>
+        <v>0.66085784354074684</v>
+      </c>
       <c r="E22" s="32">
+        <v>0.14070299999999999</v>
+      </c>
+      <c r="F22" s="32">
         <v>3.5014419999999999</v>
-      </c>
-      <c r="F22" s="32">
-        <v>0.14070299999999999</v>
       </c>
       <c r="G22" s="32">
         <v>32.818125000000002</v>
@@ -18070,7 +18546,7 @@
         <v>132</v>
       </c>
       <c r="N22" s="33">
-        <f t="shared" si="0"/>
+        <f>(32*L22*K22)/B22</f>
         <v>45.766590389016017</v>
       </c>
     </row>
@@ -18084,11 +18560,15 @@
       <c r="C23" t="s">
         <v>135</v>
       </c>
+      <c r="D23" s="32">
+        <f t="shared" si="2"/>
+        <v>0.69992598761931868</v>
+      </c>
       <c r="E23" s="32">
+        <v>0.14765800000000001</v>
+      </c>
+      <c r="F23" s="32">
         <v>3.744526</v>
-      </c>
-      <c r="F23" s="32">
-        <v>0.14765800000000001</v>
       </c>
       <c r="G23" s="32">
         <v>43.056027</v>
@@ -18112,7 +18592,7 @@
         <v>132</v>
       </c>
       <c r="N23" s="33">
-        <f t="shared" si="0"/>
+        <f>(32*L23*K23)/B23</f>
         <v>45.766590389016017</v>
       </c>
     </row>
@@ -18126,11 +18606,15 @@
       <c r="C24" t="s">
         <v>135</v>
       </c>
+      <c r="D24" s="32">
+        <f t="shared" si="2"/>
+        <v>0.63250307517094817</v>
+      </c>
       <c r="E24" s="32">
+        <v>0.136074</v>
+      </c>
+      <c r="F24" s="32">
         <v>3.3139289999999999</v>
-      </c>
-      <c r="F24" s="32">
-        <v>0.136074</v>
       </c>
       <c r="G24" s="32">
         <v>36.453020000000002</v>
@@ -18154,7 +18638,7 @@
         <v>132</v>
       </c>
       <c r="N24" s="33">
-        <f t="shared" si="0"/>
+        <f>(32*L24*K24)/B24</f>
         <v>45.766590389016017</v>
       </c>
     </row>
@@ -18168,11 +18652,15 @@
       <c r="C25" t="s">
         <v>135</v>
       </c>
+      <c r="D25" s="32">
+        <f t="shared" si="2"/>
+        <v>0.62490807391510872</v>
+      </c>
       <c r="E25" s="32">
+        <v>0.13375699999999999</v>
+      </c>
+      <c r="F25" s="32">
         <v>3.2922210000000001</v>
-      </c>
-      <c r="F25" s="32">
-        <v>0.13375699999999999</v>
       </c>
       <c r="G25" s="32">
         <v>36.569021999999997</v>
@@ -18196,7 +18684,7 @@
         <v>132</v>
       </c>
       <c r="N25" s="33">
-        <f t="shared" si="0"/>
+        <f>(32*L25*K25)/B25</f>
         <v>45.766590389016017</v>
       </c>
     </row>
@@ -18210,11 +18698,15 @@
       <c r="C26" t="s">
         <v>135</v>
       </c>
+      <c r="D26" s="32">
+        <f t="shared" si="2"/>
+        <v>0.63014150039428485</v>
+      </c>
       <c r="E26" s="32">
+        <v>0.13469700000000001</v>
+      </c>
+      <c r="F26" s="32">
         <v>3.3245629999999999</v>
-      </c>
-      <c r="F26" s="32">
-        <v>0.13469700000000001</v>
       </c>
       <c r="G26" s="32">
         <v>34.445729999999998</v>
@@ -18238,7 +18730,7 @@
         <v>132</v>
       </c>
       <c r="N26" s="33">
-        <f t="shared" si="0"/>
+        <f>(32*L26*K26)/B26</f>
         <v>45.766590389016017</v>
       </c>
     </row>
@@ -18252,11 +18744,15 @@
       <c r="C27" t="s">
         <v>135</v>
       </c>
+      <c r="D27" s="32">
+        <f t="shared" si="2"/>
+        <v>0.68971686543202815</v>
+      </c>
       <c r="E27" s="32">
+        <v>0.14807100000000001</v>
+      </c>
+      <c r="F27" s="32">
         <v>3.6219480000000002</v>
-      </c>
-      <c r="F27" s="32">
-        <v>0.14807100000000001</v>
       </c>
       <c r="G27" s="32">
         <v>44.630665</v>
@@ -18280,7 +18776,7 @@
         <v>132</v>
       </c>
       <c r="N27" s="33">
-        <f t="shared" si="0"/>
+        <f>(32*L27*K27)/B27</f>
         <v>45.766590389016017</v>
       </c>
     </row>
@@ -18294,11 +18790,15 @@
       <c r="C28" t="s">
         <v>135</v>
       </c>
+      <c r="D28" s="32">
+        <f t="shared" si="2"/>
+        <v>0.63539974867191906</v>
+      </c>
       <c r="E28" s="32">
+        <v>0.13603599999999999</v>
+      </c>
+      <c r="F28" s="32">
         <v>3.3466119999999999</v>
-      </c>
-      <c r="F28" s="32">
-        <v>0.13603599999999999</v>
       </c>
       <c r="G28" s="32">
         <v>38.354450999999997</v>
@@ -18322,7 +18822,7 @@
         <v>132</v>
       </c>
       <c r="N28" s="33">
-        <f t="shared" si="0"/>
+        <f>(32*L28*K28)/B28</f>
         <v>45.766590389016017</v>
       </c>
     </row>
@@ -18331,13 +18831,17 @@
       <c r="C29" t="s">
         <v>157</v>
       </c>
+      <c r="D29" s="35">
+        <f>AVERAGE(D19:D28)</f>
+        <v>0.64651756651408354</v>
+      </c>
       <c r="E29" s="35">
         <f>AVERAGE(E19:E28)</f>
-        <v>3.4125737999999997</v>
+        <v>0.1381366</v>
       </c>
       <c r="F29" s="35">
         <f>AVERAGE(F19:F28)</f>
-        <v>0.1381366</v>
+        <v>3.4125737999999997</v>
       </c>
       <c r="G29" s="35">
         <f>AVERAGE(G19:G28)</f>
@@ -18350,13 +18854,17 @@
       <c r="C30" t="s">
         <v>158</v>
       </c>
+      <c r="D30" s="35">
+        <f>MEDIAN(D19:D28)</f>
+        <v>0.63395141192143356</v>
+      </c>
       <c r="E30" s="35">
         <f>MEDIAN(E19:E28)</f>
-        <v>3.3355874999999999</v>
+        <v>0.13605499999999998</v>
       </c>
       <c r="F30" s="35">
         <f>MEDIAN(F19:F28)</f>
-        <v>0.13605499999999998</v>
+        <v>3.3355874999999999</v>
       </c>
       <c r="G30" s="35">
         <f>MEDIAN(G19:G28)</f>
@@ -18369,13 +18877,17 @@
       <c r="C31" t="s">
         <v>156</v>
       </c>
+      <c r="D31" s="35">
+        <f t="array" ref="D31">MEDIAN(ABS(D19:D28-MEDIAN(D19:D28)))</f>
+        <v>8.1205469673870656E-3</v>
+      </c>
       <c r="E31" s="35">
         <f t="array" ref="E31">MEDIAN(ABS(E19:E28-MEDIAN(E19:E28)))</f>
-        <v>5.446200000000001E-2</v>
+        <v>1.9139999999999852E-3</v>
       </c>
       <c r="F31" s="35">
         <f t="array" ref="F31">MEDIAN(ABS(F19:F28-MEDIAN(F19:F28)))</f>
-        <v>1.9139999999999852E-3</v>
+        <v>5.446200000000001E-2</v>
       </c>
       <c r="G31" s="35">
         <f t="array" ref="G31">MEDIAN(ABS(G19:G28-MEDIAN(G19:G28)))</f>
@@ -18401,11 +18913,15 @@
       <c r="C33" t="s">
         <v>135</v>
       </c>
+      <c r="D33" s="32">
+        <f t="shared" ref="D33:D42" si="3">((E33/$E$5)+(F33/$F$5))/2</f>
+        <v>0.74595067553502248</v>
+      </c>
       <c r="E33" s="32">
+        <v>0.16148499999999999</v>
+      </c>
+      <c r="F33" s="32">
         <v>3.881732</v>
-      </c>
-      <c r="F33" s="32">
-        <v>0.16148499999999999</v>
       </c>
       <c r="G33" s="32">
         <v>53.705607999999998</v>
@@ -18429,7 +18945,7 @@
         <v>132</v>
       </c>
       <c r="N33" s="33">
-        <f t="shared" ref="N33:N42" si="1">(32*L33*K33)/B33</f>
+        <f>(32*L33*K33)/B33</f>
         <v>183.06636155606407</v>
       </c>
     </row>
@@ -18443,11 +18959,15 @@
       <c r="C34" t="s">
         <v>135</v>
       </c>
+      <c r="D34" s="32">
+        <f t="shared" si="3"/>
+        <v>0.75101398115490015</v>
+      </c>
       <c r="E34" s="32">
+        <v>0.16200100000000001</v>
+      </c>
+      <c r="F34" s="32">
         <v>3.9234399999999998</v>
-      </c>
-      <c r="F34" s="32">
-        <v>0.16200100000000001</v>
       </c>
       <c r="G34" s="32">
         <v>60.134951999999998</v>
@@ -18471,7 +18991,7 @@
         <v>132</v>
       </c>
       <c r="N34" s="33">
-        <f t="shared" si="1"/>
+        <f>(32*L34*K34)/B34</f>
         <v>183.06636155606407</v>
       </c>
     </row>
@@ -18485,11 +19005,15 @@
       <c r="C35" t="s">
         <v>135</v>
       </c>
+      <c r="D35" s="32">
+        <f t="shared" si="3"/>
+        <v>0.74726900084909553</v>
+      </c>
       <c r="E35" s="32">
+        <v>0.16037599999999999</v>
+      </c>
+      <c r="F35" s="32">
         <v>3.9255119999999999</v>
-      </c>
-      <c r="F35" s="32">
-        <v>0.16037599999999999</v>
       </c>
       <c r="G35" s="32">
         <v>55.393279999999997</v>
@@ -18513,7 +19037,7 @@
         <v>132</v>
       </c>
       <c r="N35" s="33">
-        <f t="shared" si="1"/>
+        <f>(32*L35*K35)/B35</f>
         <v>183.06636155606407</v>
       </c>
     </row>
@@ -18527,11 +19051,15 @@
       <c r="C36" t="s">
         <v>135</v>
       </c>
+      <c r="D36" s="32">
+        <f t="shared" si="3"/>
+        <v>0.77115634852308368</v>
+      </c>
       <c r="E36" s="32">
+        <v>0.167182</v>
+      </c>
+      <c r="F36" s="32">
         <v>4.0065299999999997</v>
-      </c>
-      <c r="F36" s="32">
-        <v>0.167182</v>
       </c>
       <c r="G36" s="32">
         <v>48.456280999999997</v>
@@ -18555,7 +19083,7 @@
         <v>132</v>
       </c>
       <c r="N36" s="33">
-        <f t="shared" si="1"/>
+        <f>(32*L36*K36)/B36</f>
         <v>183.06636155606407</v>
       </c>
     </row>
@@ -18569,11 +19097,15 @@
       <c r="C37" t="s">
         <v>135</v>
       </c>
+      <c r="D37" s="32">
+        <f t="shared" si="3"/>
+        <v>0.66091311070450987</v>
+      </c>
       <c r="E37" s="32">
+        <v>0.14233799999999999</v>
+      </c>
+      <c r="F37" s="32">
         <v>3.4587560000000002</v>
-      </c>
-      <c r="F37" s="32">
-        <v>0.14233799999999999</v>
       </c>
       <c r="G37" s="32">
         <v>38.265050000000002</v>
@@ -18597,7 +19129,7 @@
         <v>132</v>
       </c>
       <c r="N37" s="33">
-        <f t="shared" si="1"/>
+        <f>(32*L37*K37)/B37</f>
         <v>183.06636155606407</v>
       </c>
     </row>
@@ -18611,11 +19143,15 @@
       <c r="C38" t="s">
         <v>135</v>
       </c>
+      <c r="D38" s="32">
+        <f t="shared" si="3"/>
+        <v>0.68238945078782509</v>
+      </c>
       <c r="E38" s="32">
+        <v>0.147374</v>
+      </c>
+      <c r="F38" s="32">
         <v>3.560273</v>
-      </c>
-      <c r="F38" s="32">
-        <v>0.147374</v>
       </c>
       <c r="G38" s="32">
         <v>53.028903</v>
@@ -18639,7 +19175,7 @@
         <v>132</v>
       </c>
       <c r="N38" s="33">
-        <f t="shared" si="1"/>
+        <f>(32*L38*K38)/B38</f>
         <v>183.06636155606407</v>
       </c>
     </row>
@@ -18653,11 +19189,15 @@
       <c r="C39" t="s">
         <v>135</v>
       </c>
+      <c r="D39" s="32">
+        <f t="shared" si="3"/>
+        <v>0.68280962415206503</v>
+      </c>
       <c r="E39" s="32">
+        <v>0.14766699999999999</v>
+      </c>
+      <c r="F39" s="32">
         <v>3.5571100000000002</v>
-      </c>
-      <c r="F39" s="32">
-        <v>0.14766699999999999</v>
       </c>
       <c r="G39" s="32">
         <v>50.526065000000003</v>
@@ -18681,7 +19221,7 @@
         <v>132</v>
       </c>
       <c r="N39" s="33">
-        <f t="shared" si="1"/>
+        <f>(32*L39*K39)/B39</f>
         <v>183.06636155606407</v>
       </c>
     </row>
@@ -18695,11 +19235,15 @@
       <c r="C40" t="s">
         <v>135</v>
       </c>
+      <c r="D40" s="32">
+        <f t="shared" si="3"/>
+        <v>0.68237407265260752</v>
+      </c>
       <c r="E40" s="32">
+        <v>0.14791000000000001</v>
+      </c>
+      <c r="F40" s="32">
         <v>3.5459130000000001</v>
-      </c>
-      <c r="F40" s="32">
-        <v>0.14791000000000001</v>
       </c>
       <c r="G40" s="32">
         <v>47.288834000000001</v>
@@ -18723,7 +19267,7 @@
         <v>132</v>
       </c>
       <c r="N40" s="33">
-        <f t="shared" si="1"/>
+        <f>(32*L40*K40)/B40</f>
         <v>183.06636155606407</v>
       </c>
     </row>
@@ -18737,11 +19281,15 @@
       <c r="C41" t="s">
         <v>135</v>
       </c>
+      <c r="D41" s="32">
+        <f t="shared" si="3"/>
+        <v>0.70879453126798819</v>
+      </c>
       <c r="E41" s="32">
+        <v>0.15363299999999999</v>
+      </c>
+      <c r="F41" s="32">
         <v>3.6833070000000001</v>
-      </c>
-      <c r="F41" s="32">
-        <v>0.15363299999999999</v>
       </c>
       <c r="G41" s="32">
         <v>49.927337000000001</v>
@@ -18765,7 +19313,7 @@
         <v>132</v>
       </c>
       <c r="N41" s="33">
-        <f t="shared" si="1"/>
+        <f>(32*L41*K41)/B41</f>
         <v>183.06636155606407</v>
       </c>
     </row>
@@ -18779,11 +19327,15 @@
       <c r="C42" t="s">
         <v>135</v>
       </c>
+      <c r="D42" s="32">
+        <f t="shared" si="3"/>
+        <v>0.67400665173741081</v>
+      </c>
       <c r="E42" s="32">
+        <v>0.14618200000000001</v>
+      </c>
+      <c r="F42" s="32">
         <v>3.5001630000000001</v>
-      </c>
-      <c r="F42" s="32">
-        <v>0.14618200000000001</v>
       </c>
       <c r="G42" s="32">
         <v>45.915934</v>
@@ -18807,7 +19359,7 @@
         <v>132</v>
       </c>
       <c r="N42" s="33">
-        <f t="shared" si="1"/>
+        <f>(32*L42*K42)/B42</f>
         <v>183.06636155606407</v>
       </c>
     </row>
@@ -18816,13 +19368,17 @@
       <c r="C43" t="s">
         <v>157</v>
       </c>
+      <c r="D43" s="35">
+        <f>AVERAGE(D33:D42)</f>
+        <v>0.71066774473645089</v>
+      </c>
       <c r="E43" s="35">
         <f>AVERAGE(E33:E42)</f>
-        <v>3.7042735999999996</v>
+        <v>0.1536148</v>
       </c>
       <c r="F43" s="35">
         <f>AVERAGE(F33:F42)</f>
-        <v>0.1536148</v>
+        <v>3.7042735999999996</v>
       </c>
       <c r="G43" s="35">
         <f>AVERAGE(G33:G42)</f>
@@ -18835,13 +19391,17 @@
       <c r="C44" t="s">
         <v>158</v>
       </c>
+      <c r="D44" s="35">
+        <f>MEDIAN(D33:D42)</f>
+        <v>0.69580207771002667</v>
+      </c>
       <c r="E44" s="35">
         <f>MEDIAN(E33:E42)</f>
-        <v>3.6217899999999998</v>
+        <v>0.1507715</v>
       </c>
       <c r="F44" s="35">
         <f>MEDIAN(F33:F42)</f>
-        <v>0.1507715</v>
+        <v>3.6217899999999998</v>
       </c>
       <c r="G44" s="35">
         <f>MEDIAN(G33:G42)</f>
@@ -18854,13 +19414,17 @@
       <c r="C45" t="s">
         <v>156</v>
       </c>
+      <c r="D45" s="35">
+        <f t="array" ref="D45">MEDIAN(ABS(D33:D42-MEDIAN(D33:D42)))</f>
+        <v>2.8342196489066329E-2</v>
+      </c>
       <c r="E45" s="35">
         <f t="array" ref="E45">MEDIAN(ABS(E33:E42-MEDIAN(E33:E42)))</f>
-        <v>0.14233049999999969</v>
+        <v>6.5115000000000034E-3</v>
       </c>
       <c r="F45" s="35">
         <f t="array" ref="F45">MEDIAN(ABS(F33:F42-MEDIAN(F33:F42)))</f>
-        <v>6.5115000000000034E-3</v>
+        <v>0.14233049999999969</v>
       </c>
       <c r="G45" s="35">
         <f t="array" ref="G45">MEDIAN(ABS(G33:G42-MEDIAN(G33:G42)))</f>
@@ -18887,10 +19451,10 @@
         <v>135</v>
       </c>
       <c r="E47" s="32">
+        <v>0.184671</v>
+      </c>
+      <c r="F47" s="32">
         <v>4.5734339999999998</v>
-      </c>
-      <c r="F47" s="32">
-        <v>0.184671</v>
       </c>
       <c r="G47" s="32">
         <v>72.265618000000003</v>
@@ -18914,7 +19478,7 @@
         <v>132</v>
       </c>
       <c r="N47" s="33">
-        <f t="shared" ref="N47:N53" si="2">(32*L47*K47)/B47</f>
+        <f>(32*L47*K47)/B47</f>
         <v>732.26544622425627</v>
       </c>
     </row>
@@ -18929,10 +19493,10 @@
         <v>135</v>
       </c>
       <c r="E48" s="32">
+        <v>0.19212399999999999</v>
+      </c>
+      <c r="F48" s="32">
         <v>4.8374389999999998</v>
-      </c>
-      <c r="F48" s="32">
-        <v>0.19212399999999999</v>
       </c>
       <c r="G48" s="32">
         <v>91.732324000000006</v>
@@ -18956,7 +19520,7 @@
         <v>132</v>
       </c>
       <c r="N48" s="33">
-        <f t="shared" si="2"/>
+        <f>(32*L48*K48)/B48</f>
         <v>732.26544622425627</v>
       </c>
     </row>
@@ -18971,10 +19535,10 @@
         <v>135</v>
       </c>
       <c r="E49" s="32">
+        <v>0.177511</v>
+      </c>
+      <c r="F49" s="32">
         <v>4.3105010000000004</v>
-      </c>
-      <c r="F49" s="32">
-        <v>0.177511</v>
       </c>
       <c r="G49" s="32">
         <v>80.269553000000002</v>
@@ -18998,7 +19562,7 @@
         <v>132</v>
       </c>
       <c r="N49" s="33">
-        <f t="shared" si="2"/>
+        <f>(32*L49*K49)/B49</f>
         <v>732.26544622425627</v>
       </c>
     </row>
@@ -19013,10 +19577,10 @@
         <v>135</v>
       </c>
       <c r="E50" s="32">
+        <v>0.20209099999999999</v>
+      </c>
+      <c r="F50" s="32">
         <v>5.1970780000000003</v>
-      </c>
-      <c r="F50" s="32">
-        <v>0.20209099999999999</v>
       </c>
       <c r="G50" s="32">
         <v>102.160428</v>
@@ -19040,7 +19604,7 @@
         <v>132</v>
       </c>
       <c r="N50" s="33">
-        <f t="shared" si="2"/>
+        <f>(32*L50*K50)/B50</f>
         <v>732.26544622425627</v>
       </c>
     </row>
@@ -19055,10 +19619,10 @@
         <v>135</v>
       </c>
       <c r="E51" s="32">
+        <v>0.17275399999999999</v>
+      </c>
+      <c r="F51" s="32">
         <v>4.0214530000000002</v>
-      </c>
-      <c r="F51" s="32">
-        <v>0.17275399999999999</v>
       </c>
       <c r="G51" s="32">
         <v>67.251390000000001</v>
@@ -19082,7 +19646,7 @@
         <v>132</v>
       </c>
       <c r="N51" s="33">
-        <f t="shared" si="2"/>
+        <f>(32*L51*K51)/B51</f>
         <v>732.26544622425627</v>
       </c>
     </row>
@@ -19097,10 +19661,10 @@
         <v>135</v>
       </c>
       <c r="E52" s="32">
+        <v>0.16275700000000001</v>
+      </c>
+      <c r="F52" s="32">
         <v>3.877475</v>
-      </c>
-      <c r="F52" s="32">
-        <v>0.16275700000000001</v>
       </c>
       <c r="G52" s="32">
         <v>63.156585999999997</v>
@@ -19124,7 +19688,7 @@
         <v>132</v>
       </c>
       <c r="N52" s="33">
-        <f t="shared" si="2"/>
+        <f>(32*L52*K52)/B52</f>
         <v>732.26544622425627</v>
       </c>
     </row>
@@ -19139,10 +19703,10 @@
         <v>135</v>
       </c>
       <c r="E53" s="32">
+        <v>0.207371</v>
+      </c>
+      <c r="F53" s="32">
         <v>4.9700329999999999</v>
-      </c>
-      <c r="F53" s="32">
-        <v>0.207371</v>
       </c>
       <c r="G53" s="32">
         <v>109.121844</v>
@@ -19166,7 +19730,7 @@
         <v>132</v>
       </c>
       <c r="N53" s="33">
-        <f t="shared" si="2"/>
+        <f>(32*L53*K53)/B53</f>
         <v>732.26544622425627</v>
       </c>
     </row>
@@ -19191,11 +19755,11 @@
       </c>
       <c r="E57" s="35">
         <f>AVERAGE(E47:E56)</f>
-        <v>4.5410589999999997</v>
+        <v>0.1856112857142857</v>
       </c>
       <c r="F57" s="35">
         <f>AVERAGE(F47:F56)</f>
-        <v>0.1856112857142857</v>
+        <v>4.5410589999999997</v>
       </c>
       <c r="G57" s="35">
         <f>AVERAGE(G47:G56)</f>
@@ -19208,11 +19772,11 @@
       </c>
       <c r="E58" s="35">
         <f>MEDIAN(E47:E56)</f>
-        <v>4.5734339999999998</v>
+        <v>0.184671</v>
       </c>
       <c r="F58" s="35">
         <f>MEDIAN(F47:F56)</f>
-        <v>0.184671</v>
+        <v>4.5734339999999998</v>
       </c>
       <c r="G58" s="35">
         <f>MEDIAN(G47:G56)</f>
@@ -19225,11 +19789,11 @@
       </c>
       <c r="E59" s="35">
         <f t="array" ref="E59">MEDIAN(ABS(E47:E53-MEDIAN(E47:E53)))</f>
-        <v>0.39659900000000015</v>
+        <v>1.1917000000000011E-2</v>
       </c>
       <c r="F59" s="35">
         <f t="array" ref="F59">MEDIAN(ABS(F47:F53-MEDIAN(F47:F53)))</f>
-        <v>1.1917000000000011E-2</v>
+        <v>0.39659900000000015</v>
       </c>
       <c r="G59" s="35">
         <f t="array" ref="G59">MEDIAN(ABS(G47:G53-MEDIAN(G47:G53)))</f>
@@ -19249,8 +19813,8 @@
   <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D10" sqref="D10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19593,23 +20157,23 @@
       </c>
     </row>
     <row r="18" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="45"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="45"/>
-      <c r="N18" s="45"/>
-      <c r="O18" s="45"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
@@ -19653,7 +20217,7 @@
         <v>132</v>
       </c>
       <c r="N19" s="33">
-        <f>(32*L19*K19)/B19</f>
+        <f t="shared" ref="N19:N28" si="3">(32*L19*K19)/B19</f>
         <v>26.538397744236192</v>
       </c>
     </row>
@@ -19699,7 +20263,7 @@
         <v>132</v>
       </c>
       <c r="N20" s="33">
-        <f>(32*L20*K20)/B20</f>
+        <f t="shared" si="3"/>
         <v>26.538397744236192</v>
       </c>
     </row>
@@ -19745,7 +20309,7 @@
         <v>132</v>
       </c>
       <c r="N21" s="33">
-        <f>(32*L21*K21)/B21</f>
+        <f t="shared" si="3"/>
         <v>26.538397744236192</v>
       </c>
     </row>
@@ -19791,7 +20355,7 @@
         <v>132</v>
       </c>
       <c r="N22" s="33">
-        <f>(32*L22*K22)/B22</f>
+        <f t="shared" si="3"/>
         <v>26.538397744236192</v>
       </c>
     </row>
@@ -19837,7 +20401,7 @@
         <v>132</v>
       </c>
       <c r="N23" s="33">
-        <f>(32*L23*K23)/B23</f>
+        <f t="shared" si="3"/>
         <v>26.538397744236192</v>
       </c>
     </row>
@@ -19883,7 +20447,7 @@
         <v>132</v>
       </c>
       <c r="N24" s="33">
-        <f>(32*L24*K24)/B24</f>
+        <f t="shared" si="3"/>
         <v>26.538397744236192</v>
       </c>
     </row>
@@ -19929,7 +20493,7 @@
         <v>132</v>
       </c>
       <c r="N25" s="33">
-        <f>(32*L25*K25)/B25</f>
+        <f t="shared" si="3"/>
         <v>26.538397744236192</v>
       </c>
     </row>
@@ -19975,7 +20539,7 @@
         <v>132</v>
       </c>
       <c r="N26" s="33">
-        <f>(32*L26*K26)/B26</f>
+        <f t="shared" si="3"/>
         <v>26.538397744236192</v>
       </c>
     </row>
@@ -20021,7 +20585,7 @@
         <v>132</v>
       </c>
       <c r="N27" s="33">
-        <f>(32*L27*K27)/B27</f>
+        <f t="shared" si="3"/>
         <v>26.538397744236192</v>
       </c>
     </row>
@@ -20067,7 +20631,7 @@
         <v>132</v>
       </c>
       <c r="N28" s="33">
-        <f>(32*L28*K28)/B28</f>
+        <f t="shared" si="3"/>
         <v>26.538397744236192</v>
       </c>
     </row>
@@ -20145,7 +20709,7 @@
         <v>135</v>
       </c>
       <c r="D33" s="32">
-        <f t="shared" ref="D33:D42" si="3">((E33/$E$5)+(F33/$F$5))/2</f>
+        <f t="shared" ref="D33:D42" si="4">((E33/$E$5)+(F33/$F$5))/2</f>
         <v>0.88113299590055039</v>
       </c>
       <c r="E33" s="32">
@@ -20176,7 +20740,7 @@
         <v>132</v>
       </c>
       <c r="N33" s="33">
-        <f>(32*L33*K33)/B33</f>
+        <f t="shared" ref="N33:N42" si="5">(32*L33*K33)/B33</f>
         <v>106.15359097694477</v>
       </c>
     </row>
@@ -20191,7 +20755,7 @@
         <v>135</v>
       </c>
       <c r="D34" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.88603280676953522</v>
       </c>
       <c r="E34" s="32">
@@ -20222,7 +20786,7 @@
         <v>132</v>
       </c>
       <c r="N34" s="33">
-        <f>(32*L34*K34)/B34</f>
+        <f t="shared" si="5"/>
         <v>106.15359097694477</v>
       </c>
     </row>
@@ -20237,7 +20801,7 @@
         <v>135</v>
       </c>
       <c r="D35" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.88691309189643763</v>
       </c>
       <c r="E35" s="32">
@@ -20268,7 +20832,7 @@
         <v>132</v>
       </c>
       <c r="N35" s="33">
-        <f>(32*L35*K35)/B35</f>
+        <f t="shared" si="5"/>
         <v>106.15359097694477</v>
       </c>
     </row>
@@ -20283,7 +20847,7 @@
         <v>135</v>
       </c>
       <c r="D36" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.87745565255872782</v>
       </c>
       <c r="E36" s="32">
@@ -20314,7 +20878,7 @@
         <v>132</v>
       </c>
       <c r="N36" s="33">
-        <f>(32*L36*K36)/B36</f>
+        <f t="shared" si="5"/>
         <v>106.15359097694477</v>
       </c>
     </row>
@@ -20329,7 +20893,7 @@
         <v>135</v>
       </c>
       <c r="D37" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.90212493802835314</v>
       </c>
       <c r="E37" s="32">
@@ -20360,7 +20924,7 @@
         <v>132</v>
       </c>
       <c r="N37" s="33">
-        <f>(32*L37*K37)/B37</f>
+        <f t="shared" si="5"/>
         <v>106.15359097694477</v>
       </c>
     </row>
@@ -20375,7 +20939,7 @@
         <v>135</v>
       </c>
       <c r="D38" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.91737498453949984</v>
       </c>
       <c r="E38" s="32">
@@ -20406,7 +20970,7 @@
         <v>132</v>
       </c>
       <c r="N38" s="33">
-        <f>(32*L38*K38)/B38</f>
+        <f t="shared" si="5"/>
         <v>106.15359097694477</v>
       </c>
     </row>
@@ -20421,7 +20985,7 @@
         <v>135</v>
       </c>
       <c r="D39" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.87360964880487713</v>
       </c>
       <c r="E39" s="32">
@@ -20452,7 +21016,7 @@
         <v>132</v>
       </c>
       <c r="N39" s="33">
-        <f>(32*L39*K39)/B39</f>
+        <f t="shared" si="5"/>
         <v>106.15359097694477</v>
       </c>
     </row>
@@ -20467,7 +21031,7 @@
         <v>135</v>
       </c>
       <c r="D40" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.89886164555743586</v>
       </c>
       <c r="E40" s="32">
@@ -20498,7 +21062,7 @@
         <v>132</v>
       </c>
       <c r="N40" s="33">
-        <f>(32*L40*K40)/B40</f>
+        <f t="shared" si="5"/>
         <v>106.15359097694477</v>
       </c>
     </row>
@@ -20513,7 +21077,7 @@
         <v>135</v>
       </c>
       <c r="D41" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.89435978202361932</v>
       </c>
       <c r="E41" s="32">
@@ -20544,7 +21108,7 @@
         <v>132</v>
       </c>
       <c r="N41" s="33">
-        <f>(32*L41*K41)/B41</f>
+        <f t="shared" si="5"/>
         <v>106.15359097694477</v>
       </c>
     </row>
@@ -20559,7 +21123,7 @@
         <v>135</v>
       </c>
       <c r="D42" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.91604914659274728</v>
       </c>
       <c r="E42" s="32">
@@ -20590,7 +21154,7 @@
         <v>132</v>
       </c>
       <c r="N42" s="33">
-        <f>(32*L42*K42)/B42</f>
+        <f t="shared" si="5"/>
         <v>106.15359097694477</v>
       </c>
     </row>
@@ -20670,7 +21234,7 @@
         <v>135</v>
       </c>
       <c r="D47" s="32">
-        <f t="shared" ref="D47:D51" si="4">((E47/$E$5)+(F47/$F$5))/2</f>
+        <f t="shared" ref="D47:D51" si="6">((E47/$E$5)+(F47/$F$5))/2</f>
         <v>0.9475947166055354</v>
       </c>
       <c r="E47" s="32">
@@ -20716,7 +21280,7 @@
         <v>135</v>
       </c>
       <c r="D48" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.93240171240477965</v>
       </c>
       <c r="E48" s="32">
@@ -20762,7 +21326,7 @@
         <v>135</v>
       </c>
       <c r="D49" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.92969734931839332</v>
       </c>
       <c r="E49" s="32">
@@ -20808,7 +21372,7 @@
         <v>135</v>
       </c>
       <c r="D50" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.92549179918225166</v>
       </c>
       <c r="E50" s="32">
@@ -20854,7 +21418,7 @@
         <v>135</v>
       </c>
       <c r="D51" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.9386714626712418</v>
       </c>
       <c r="E51" s="32">

--- a/results/results_3_tz2_same_end_dates_forecasting_or_imputation.xlsx
+++ b/results/results_3_tz2_same_end_dates_forecasting_or_imputation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TM\Dropbox\DS\RNN-for-TS\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1569D83D-ECEA-42AE-8A25-079F6876D099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0754C884-39F8-40E9-9980-E74AE95752CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11420" yWindow="2010" windowWidth="19200" windowHeight="10200" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="380" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data dictionary" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1480" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1479" uniqueCount="160">
   <si>
     <t>weighted quantile loss (0.9)</t>
   </si>
@@ -3553,11 +3553,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2528BE6C-DDB8-47A2-816F-BAF7A0338D6F}">
-  <dimension ref="A1:P115"/>
+  <dimension ref="A1:O115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A46" sqref="A46"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3574,12 +3574,10 @@
     <col min="10" max="10" width="4.90625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="7.36328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="7.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" s="29" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="29" t="s">
         <v>69</v>
       </c>
@@ -3619,21 +3617,17 @@
       <c r="M1" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="N1" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="O1" s="29" t="s">
+      <c r="N1" s="29" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
       <c r="L2" s="31"/>
       <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-    </row>
-    <row r="3" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="34" t="s">
         <v>153</v>
       </c>
@@ -3657,9 +3651,8 @@
       <c r="I3" s="30"/>
       <c r="L3" s="31"/>
       <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-    </row>
-    <row r="4" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="34" t="s">
         <v>153</v>
       </c>
@@ -3683,9 +3676,8 @@
       <c r="I4" s="30"/>
       <c r="L4" s="31"/>
       <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-    </row>
-    <row r="5" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="34" t="s">
         <v>153</v>
       </c>
@@ -3709,9 +3701,8 @@
       <c r="I5" s="30"/>
       <c r="L5" s="31"/>
       <c r="M5" s="31"/>
-      <c r="N5" s="31"/>
-    </row>
-    <row r="6" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="34" t="s">
         <v>153</v>
       </c>
@@ -3735,9 +3726,8 @@
       <c r="I6" s="30"/>
       <c r="L6" s="31"/>
       <c r="M6" s="31"/>
-      <c r="N6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="34" t="s">
         <v>153</v>
       </c>
@@ -3761,9 +3751,8 @@
       <c r="I7" s="30"/>
       <c r="L7" s="31"/>
       <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-    </row>
-    <row r="8" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="34" t="s">
         <v>153</v>
       </c>
@@ -3787,9 +3776,8 @@
       <c r="I8" s="30"/>
       <c r="L8" s="31"/>
       <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-    </row>
-    <row r="9" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="34" t="s">
         <v>153</v>
       </c>
@@ -3813,9 +3801,8 @@
       <c r="I9" s="30"/>
       <c r="L9" s="31"/>
       <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-    </row>
-    <row r="10" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="34" t="s">
         <v>153</v>
       </c>
@@ -3839,16 +3826,14 @@
       <c r="I10" s="30"/>
       <c r="L10" s="31"/>
       <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-    </row>
-    <row r="11" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H11" s="30"/>
       <c r="I11" s="30"/>
       <c r="L11" s="31"/>
       <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-    </row>
-    <row r="12" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>129</v>
       </c>
@@ -3872,9 +3857,8 @@
       <c r="I12" s="30"/>
       <c r="L12" s="31"/>
       <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-    </row>
-    <row r="13" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>129</v>
       </c>
@@ -3898,9 +3882,8 @@
       <c r="I13" s="30"/>
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-    </row>
-    <row r="14" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>129</v>
       </c>
@@ -3924,9 +3907,8 @@
       <c r="I14" s="30"/>
       <c r="L14" s="31"/>
       <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-    </row>
-    <row r="15" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>129</v>
       </c>
@@ -3950,9 +3932,8 @@
       <c r="I15" s="30"/>
       <c r="L15" s="31"/>
       <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-    </row>
-    <row r="16" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>129</v>
       </c>
@@ -3976,16 +3957,14 @@
       <c r="I16" s="30"/>
       <c r="L16" s="31"/>
       <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-    </row>
-    <row r="17" spans="1:16" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:15" s="29" customFormat="1" x14ac:dyDescent="0.35">
       <c r="H17" s="30"/>
       <c r="I17" s="30"/>
       <c r="L17" s="31"/>
       <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-    </row>
-    <row r="18" spans="1:16" s="29" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="18" spans="1:15" s="29" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A18" s="46" t="s">
         <v>135</v>
       </c>
@@ -4002,9 +3981,8 @@
       <c r="L18" s="46"/>
       <c r="M18" s="46"/>
       <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>129</v>
       </c>
@@ -4045,15 +4023,15 @@
       <c r="M20" t="s">
         <v>132</v>
       </c>
-      <c r="O20" s="33">
-        <f t="shared" ref="O20:O29" si="3">(32*K20*L20)/B20</f>
+      <c r="N20" s="33">
+        <f t="shared" ref="N20:N29" si="3">(32*K20*L20)/B20</f>
         <v>88.544548976203657</v>
       </c>
-      <c r="P20" t="s">
+      <c r="O20" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>129</v>
       </c>
@@ -4094,12 +4072,12 @@
       <c r="M21" t="s">
         <v>132</v>
       </c>
-      <c r="O21" s="33">
+      <c r="N21" s="33">
         <f t="shared" si="3"/>
         <v>88.544548976203657</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>129</v>
       </c>
@@ -4140,12 +4118,12 @@
       <c r="M22" t="s">
         <v>132</v>
       </c>
-      <c r="O22" s="33">
+      <c r="N22" s="33">
         <f t="shared" si="3"/>
         <v>88.544548976203657</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>129</v>
       </c>
@@ -4186,12 +4164,12 @@
       <c r="M23" t="s">
         <v>132</v>
       </c>
-      <c r="O23" s="33">
+      <c r="N23" s="33">
         <f t="shared" si="3"/>
         <v>88.544548976203657</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>129</v>
       </c>
@@ -4232,12 +4210,12 @@
       <c r="M24" t="s">
         <v>132</v>
       </c>
-      <c r="O24" s="33">
+      <c r="N24" s="33">
         <f t="shared" si="3"/>
         <v>88.544548976203657</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>129</v>
       </c>
@@ -4278,12 +4256,12 @@
       <c r="M25" t="s">
         <v>132</v>
       </c>
-      <c r="O25" s="33">
+      <c r="N25" s="33">
         <f t="shared" si="3"/>
         <v>88.544548976203657</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>129</v>
       </c>
@@ -4324,12 +4302,12 @@
       <c r="M26" t="s">
         <v>132</v>
       </c>
-      <c r="O26" s="33">
+      <c r="N26" s="33">
         <f t="shared" si="3"/>
         <v>88.544548976203657</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>129</v>
       </c>
@@ -4370,12 +4348,12 @@
       <c r="M27" t="s">
         <v>132</v>
       </c>
-      <c r="O27" s="33">
+      <c r="N27" s="33">
         <f t="shared" si="3"/>
         <v>88.544548976203657</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>129</v>
       </c>
@@ -4416,12 +4394,12 @@
       <c r="M28" t="s">
         <v>132</v>
       </c>
-      <c r="O28" s="33">
+      <c r="N28" s="33">
         <f t="shared" si="3"/>
         <v>88.544548976203657</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>129</v>
       </c>
@@ -4462,12 +4440,12 @@
       <c r="M29" t="s">
         <v>132</v>
       </c>
-      <c r="O29" s="33">
+      <c r="N29" s="33">
         <f t="shared" si="3"/>
         <v>88.544548976203657</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
         <v>157</v>
       </c>
@@ -4489,9 +4467,9 @@
       </c>
       <c r="H30" s="32"/>
       <c r="I30" s="32"/>
-      <c r="O30" s="33"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N30" s="33"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C31" t="s">
         <v>158</v>
       </c>
@@ -4512,7 +4490,7 @@
         <v>15.922029</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
         <v>156</v>
       </c>
@@ -4533,7 +4511,7 @@
         <v>0.30188799999999993</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>129</v>
       </c>
@@ -4574,11 +4552,15 @@
       <c r="M34" t="s">
         <v>132</v>
       </c>
-      <c r="P34" t="s">
+      <c r="N34" s="33">
+        <f t="shared" ref="N34:N43" si="5">(32*K34*L34)/B34</f>
+        <v>88.544548976203657</v>
+      </c>
+      <c r="O34" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>129</v>
       </c>
@@ -4619,8 +4601,12 @@
       <c r="M35" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N35" s="33">
+        <f t="shared" si="5"/>
+        <v>88.544548976203657</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>129</v>
       </c>
@@ -4661,8 +4647,12 @@
       <c r="M36" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N36" s="33">
+        <f t="shared" si="5"/>
+        <v>88.544548976203657</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>129</v>
       </c>
@@ -4703,8 +4693,12 @@
       <c r="M37" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N37" s="33">
+        <f t="shared" si="5"/>
+        <v>88.544548976203657</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>129</v>
       </c>
@@ -4745,8 +4739,12 @@
       <c r="M38" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N38" s="33">
+        <f t="shared" si="5"/>
+        <v>88.544548976203657</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>129</v>
       </c>
@@ -4787,8 +4785,12 @@
       <c r="M39" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N39" s="33">
+        <f t="shared" si="5"/>
+        <v>88.544548976203657</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>129</v>
       </c>
@@ -4829,8 +4831,12 @@
       <c r="M40" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N40" s="33">
+        <f t="shared" si="5"/>
+        <v>88.544548976203657</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>129</v>
       </c>
@@ -4871,8 +4877,12 @@
       <c r="M41" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N41" s="33">
+        <f t="shared" si="5"/>
+        <v>88.544548976203657</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>129</v>
       </c>
@@ -4913,8 +4923,12 @@
       <c r="M42" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N42" s="33">
+        <f t="shared" si="5"/>
+        <v>88.544548976203657</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>129</v>
       </c>
@@ -4955,8 +4969,12 @@
       <c r="M43" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="N43" s="33">
+        <f t="shared" si="5"/>
+        <v>88.544548976203657</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
         <v>157</v>
       </c>
@@ -4977,7 +4995,7 @@
         <v>16.435927499999998</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C45" t="s">
         <v>158</v>
       </c>
@@ -4998,7 +5016,7 @@
         <v>16.065713500000001</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C46" t="s">
         <v>156</v>
       </c>
@@ -5019,7 +5037,7 @@
         <v>0.59809700000000099</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>129</v>
       </c>
@@ -5030,7 +5048,7 @@
         <v>130</v>
       </c>
       <c r="D48" s="32">
-        <f t="shared" ref="D48:D56" si="5">((E48/$E$12)+(F48/$F$12))/2</f>
+        <f t="shared" ref="D48:D56" si="6">((E48/$E$12)+(F48/$F$12))/2</f>
         <v>1.0098321131215271</v>
       </c>
       <c r="E48" s="32">
@@ -5060,12 +5078,12 @@
       <c r="M48" t="s">
         <v>132</v>
       </c>
-      <c r="O48" s="33">
-        <f t="shared" ref="O48:O56" si="6">(32*K48*L48)/B48</f>
+      <c r="N48" s="33">
+        <f t="shared" ref="N48:N56" si="7">(32*K48*L48)/B48</f>
         <v>177.08909795240731</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>129</v>
       </c>
@@ -5076,7 +5094,7 @@
         <v>130</v>
       </c>
       <c r="D49" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0186790895145419</v>
       </c>
       <c r="E49" s="32">
@@ -5106,12 +5124,12 @@
       <c r="M49" t="s">
         <v>132</v>
       </c>
-      <c r="O49" s="33">
-        <f t="shared" si="6"/>
+      <c r="N49" s="33">
+        <f t="shared" si="7"/>
         <v>177.08909795240731</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>129</v>
       </c>
@@ -5122,7 +5140,7 @@
         <v>130</v>
       </c>
       <c r="D50" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0800164823704728</v>
       </c>
       <c r="E50" s="32">
@@ -5152,12 +5170,12 @@
       <c r="M50" t="s">
         <v>132</v>
       </c>
-      <c r="O50" s="33">
-        <f t="shared" si="6"/>
+      <c r="N50" s="33">
+        <f t="shared" si="7"/>
         <v>177.08909795240731</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>129</v>
       </c>
@@ -5168,7 +5186,7 @@
         <v>130</v>
       </c>
       <c r="D51" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.025905301676084</v>
       </c>
       <c r="E51" s="32">
@@ -5198,12 +5216,12 @@
       <c r="M51" t="s">
         <v>132</v>
       </c>
-      <c r="O51" s="33">
-        <f t="shared" si="6"/>
+      <c r="N51" s="33">
+        <f t="shared" si="7"/>
         <v>177.08909795240731</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>129</v>
       </c>
@@ -5214,7 +5232,7 @@
         <v>130</v>
       </c>
       <c r="D52" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0302963492045729</v>
       </c>
       <c r="E52" s="32">
@@ -5244,12 +5262,12 @@
       <c r="M52" t="s">
         <v>132</v>
       </c>
-      <c r="O52" s="33">
-        <f t="shared" si="6"/>
+      <c r="N52" s="33">
+        <f t="shared" si="7"/>
         <v>177.08909795240731</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>129</v>
       </c>
@@ -5260,7 +5278,7 @@
         <v>130</v>
       </c>
       <c r="D53" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0844711623352914</v>
       </c>
       <c r="E53" s="32">
@@ -5290,12 +5308,12 @@
       <c r="M53" t="s">
         <v>132</v>
       </c>
-      <c r="O53" s="33">
-        <f t="shared" si="6"/>
+      <c r="N53" s="33">
+        <f t="shared" si="7"/>
         <v>177.08909795240731</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>129</v>
       </c>
@@ -5306,7 +5324,7 @@
         <v>130</v>
       </c>
       <c r="D54" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0859482873423048</v>
       </c>
       <c r="E54" s="32">
@@ -5336,12 +5354,12 @@
       <c r="M54" t="s">
         <v>132</v>
       </c>
-      <c r="O54" s="33">
-        <f t="shared" si="6"/>
+      <c r="N54" s="33">
+        <f t="shared" si="7"/>
         <v>177.08909795240731</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>129</v>
       </c>
@@ -5352,7 +5370,7 @@
         <v>130</v>
       </c>
       <c r="D55" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0361129152344586</v>
       </c>
       <c r="E55" s="32">
@@ -5382,12 +5400,12 @@
       <c r="M55" t="s">
         <v>132</v>
       </c>
-      <c r="O55" s="33">
-        <f t="shared" si="6"/>
+      <c r="N55" s="33">
+        <f t="shared" si="7"/>
         <v>177.08909795240731</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>129</v>
       </c>
@@ -5398,7 +5416,7 @@
         <v>130</v>
       </c>
       <c r="D56" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.0383573685073229</v>
       </c>
       <c r="E56" s="32">
@@ -5428,12 +5446,12 @@
       <c r="M56" t="s">
         <v>132</v>
       </c>
-      <c r="O56" s="33">
-        <f t="shared" si="6"/>
+      <c r="N56" s="33">
+        <f t="shared" si="7"/>
         <v>177.08909795240731</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C57" t="s">
         <v>157</v>
       </c>
@@ -5455,9 +5473,9 @@
       </c>
       <c r="H57" s="32"/>
       <c r="I57" s="32"/>
-      <c r="O57" s="33"/>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N57" s="33"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C58" t="s">
         <v>158</v>
       </c>
@@ -5479,9 +5497,9 @@
       </c>
       <c r="H58" s="32"/>
       <c r="I58" s="32"/>
-      <c r="O58" s="33"/>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N58" s="33"/>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C59" t="s">
         <v>156</v>
       </c>
@@ -5503,9 +5521,9 @@
       </c>
       <c r="H59" s="32"/>
       <c r="I59" s="32"/>
-      <c r="O59" s="33"/>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="N59" s="33"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>129</v>
       </c>
@@ -5516,7 +5534,7 @@
         <v>130</v>
       </c>
       <c r="D61" s="32">
-        <f t="shared" ref="D61:D70" si="7">((E61/$E$12)+(F61/$F$12))/2</f>
+        <f t="shared" ref="D61:D70" si="8">((E61/$E$12)+(F61/$F$12))/2</f>
         <v>0.99786907888411536</v>
       </c>
       <c r="E61" s="32">
@@ -5546,12 +5564,12 @@
       <c r="M61" t="s">
         <v>132</v>
       </c>
-      <c r="O61" s="33">
-        <f t="shared" ref="O61:O70" si="8">(32*K61*L61)/B61</f>
+      <c r="N61" s="33">
+        <f t="shared" ref="N61:N70" si="9">(32*K61*L61)/B61</f>
         <v>100.05534034311013</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>129</v>
       </c>
@@ -5562,7 +5580,7 @@
         <v>130</v>
       </c>
       <c r="D62" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.002750199652932</v>
       </c>
       <c r="E62" s="32">
@@ -5592,12 +5610,12 @@
       <c r="M62" t="s">
         <v>132</v>
       </c>
-      <c r="O62" s="33">
-        <f t="shared" si="8"/>
+      <c r="N62" s="33">
+        <f t="shared" si="9"/>
         <v>100.05534034311013</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>129</v>
       </c>
@@ -5608,7 +5626,7 @@
         <v>130</v>
       </c>
       <c r="D63" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.9959283745096168</v>
       </c>
       <c r="E63" s="32">
@@ -5638,12 +5656,12 @@
       <c r="M63" t="s">
         <v>132</v>
       </c>
-      <c r="O63" s="33">
-        <f t="shared" si="8"/>
+      <c r="N63" s="33">
+        <f t="shared" si="9"/>
         <v>100.05534034311013</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>129</v>
       </c>
@@ -5654,7 +5672,7 @@
         <v>130</v>
       </c>
       <c r="D64" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0065013540800174</v>
       </c>
       <c r="E64" s="32">
@@ -5684,12 +5702,12 @@
       <c r="M64" t="s">
         <v>132</v>
       </c>
-      <c r="O64" s="33">
-        <f t="shared" si="8"/>
+      <c r="N64" s="33">
+        <f t="shared" si="9"/>
         <v>100.05534034311013</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>129</v>
       </c>
@@ -5700,7 +5718,7 @@
         <v>130</v>
       </c>
       <c r="D65" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0022459432860378</v>
       </c>
       <c r="E65" s="32">
@@ -5730,12 +5748,12 @@
       <c r="M65" t="s">
         <v>132</v>
       </c>
-      <c r="O65" s="33">
-        <f t="shared" si="8"/>
+      <c r="N65" s="33">
+        <f t="shared" si="9"/>
         <v>100.05534034311013</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>129</v>
       </c>
@@ -5746,7 +5764,7 @@
         <v>130</v>
       </c>
       <c r="D66" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.99487566792424698</v>
       </c>
       <c r="E66" s="32">
@@ -5776,12 +5794,12 @@
       <c r="M66" t="s">
         <v>132</v>
       </c>
-      <c r="O66" s="33">
-        <f t="shared" si="8"/>
+      <c r="N66" s="33">
+        <f t="shared" si="9"/>
         <v>100.05534034311013</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>129</v>
       </c>
@@ -5792,7 +5810,7 @@
         <v>130</v>
       </c>
       <c r="D67" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0149969954870888</v>
       </c>
       <c r="E67" s="32">
@@ -5822,12 +5840,12 @@
       <c r="M67" t="s">
         <v>132</v>
       </c>
-      <c r="O67" s="33">
-        <f t="shared" si="8"/>
+      <c r="N67" s="33">
+        <f t="shared" si="9"/>
         <v>100.05534034311013</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -5838,7 +5856,7 @@
         <v>130</v>
       </c>
       <c r="D68" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0087224786020279</v>
       </c>
       <c r="E68" s="32">
@@ -5868,12 +5886,12 @@
       <c r="M68" t="s">
         <v>132</v>
       </c>
-      <c r="O68" s="33">
-        <f t="shared" si="8"/>
+      <c r="N68" s="33">
+        <f t="shared" si="9"/>
         <v>100.05534034311013</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>129</v>
       </c>
@@ -5884,7 +5902,7 @@
         <v>130</v>
       </c>
       <c r="D69" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0125363828099916</v>
       </c>
       <c r="E69" s="32">
@@ -5914,12 +5932,12 @@
       <c r="M69" t="s">
         <v>132</v>
       </c>
-      <c r="O69" s="33">
-        <f t="shared" si="8"/>
+      <c r="N69" s="33">
+        <f t="shared" si="9"/>
         <v>100.05534034311013</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>129</v>
       </c>
@@ -5930,7 +5948,7 @@
         <v>130</v>
       </c>
       <c r="D70" s="32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1.0502832030572677</v>
       </c>
       <c r="E70" s="32">
@@ -5960,12 +5978,12 @@
       <c r="M70" t="s">
         <v>132</v>
       </c>
-      <c r="O70" s="33">
-        <f t="shared" si="8"/>
+      <c r="N70" s="33">
+        <f t="shared" si="9"/>
         <v>100.05534034311013</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C71" t="s">
         <v>157</v>
       </c>
@@ -5986,7 +6004,7 @@
         <v>16.154402499999996</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C72" t="s">
         <v>158</v>
       </c>
@@ -6007,7 +6025,7 @@
         <v>16.058522499999999</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C73" t="s">
         <v>156</v>
       </c>
@@ -6028,7 +6046,7 @@
         <v>0.22361700000000084</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>129</v>
       </c>
@@ -6039,7 +6057,7 @@
         <v>130</v>
       </c>
       <c r="D75" s="32">
-        <f t="shared" ref="D75:D84" si="9">((E75/$E$12)+(F75/$F$12))/2</f>
+        <f t="shared" ref="D75:D84" si="10">((E75/$E$12)+(F75/$F$12))/2</f>
         <v>1.0672732340938704</v>
       </c>
       <c r="E75" s="32">
@@ -6069,12 +6087,12 @@
       <c r="M75" t="s">
         <v>132</v>
       </c>
-      <c r="O75" s="33">
-        <f t="shared" ref="O75:O84" si="10">(32*K75*L75)/B75</f>
+      <c r="N75" s="33">
+        <f t="shared" ref="N75:N84" si="11">(32*K75*L75)/B75</f>
         <v>354.17819590481463</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>129</v>
       </c>
@@ -6085,7 +6103,7 @@
         <v>130</v>
       </c>
       <c r="D76" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0271337544226964</v>
       </c>
       <c r="E76" s="32">
@@ -6115,12 +6133,12 @@
       <c r="M76" t="s">
         <v>132</v>
       </c>
-      <c r="O76" s="33">
-        <f t="shared" si="10"/>
+      <c r="N76" s="33">
+        <f t="shared" si="11"/>
         <v>354.17819590481463</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>129</v>
       </c>
@@ -6131,7 +6149,7 @@
         <v>130</v>
       </c>
       <c r="D77" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0182111690354665</v>
       </c>
       <c r="E77" s="32">
@@ -6161,12 +6179,12 @@
       <c r="M77" t="s">
         <v>132</v>
       </c>
-      <c r="O77" s="33">
-        <f t="shared" si="10"/>
+      <c r="N77" s="33">
+        <f t="shared" si="11"/>
         <v>354.17819590481463</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>129</v>
       </c>
@@ -6177,7 +6195,7 @@
         <v>130</v>
       </c>
       <c r="D78" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0225481755962382</v>
       </c>
       <c r="E78" s="32">
@@ -6207,12 +6225,12 @@
       <c r="M78" t="s">
         <v>132</v>
       </c>
-      <c r="O78" s="33">
-        <f t="shared" si="10"/>
+      <c r="N78" s="33">
+        <f t="shared" si="11"/>
         <v>354.17819590481463</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>129</v>
       </c>
@@ -6223,7 +6241,7 @@
         <v>130</v>
       </c>
       <c r="D79" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0182485239610553</v>
       </c>
       <c r="E79" s="32">
@@ -6253,12 +6271,12 @@
       <c r="M79" t="s">
         <v>132</v>
       </c>
-      <c r="O79" s="33">
-        <f t="shared" si="10"/>
+      <c r="N79" s="33">
+        <f t="shared" si="11"/>
         <v>354.17819590481463</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>129</v>
       </c>
@@ -6269,7 +6287,7 @@
         <v>130</v>
       </c>
       <c r="D80" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0206078490023098</v>
       </c>
       <c r="E80" s="32">
@@ -6299,12 +6317,12 @@
       <c r="M80" t="s">
         <v>132</v>
       </c>
-      <c r="O80" s="33">
-        <f t="shared" si="10"/>
+      <c r="N80" s="33">
+        <f t="shared" si="11"/>
         <v>354.17819590481463</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>129</v>
       </c>
@@ -6315,7 +6333,7 @@
         <v>130</v>
       </c>
       <c r="D81" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.012595309434313</v>
       </c>
       <c r="E81" s="32">
@@ -6345,12 +6363,12 @@
       <c r="M81" t="s">
         <v>132</v>
       </c>
-      <c r="O81" s="33">
-        <f t="shared" si="10"/>
+      <c r="N81" s="33">
+        <f t="shared" si="11"/>
         <v>354.17819590481463</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>129</v>
       </c>
@@ -6361,7 +6379,7 @@
         <v>130</v>
       </c>
       <c r="D82" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0497946013840018</v>
       </c>
       <c r="E82" s="32">
@@ -6391,12 +6409,12 @@
       <c r="M82" t="s">
         <v>132</v>
       </c>
-      <c r="O82" s="33">
-        <f t="shared" si="10"/>
+      <c r="N82" s="33">
+        <f t="shared" si="11"/>
         <v>354.17819590481463</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>129</v>
       </c>
@@ -6407,7 +6425,7 @@
         <v>130</v>
       </c>
       <c r="D83" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0302618067664711</v>
       </c>
       <c r="E83" s="32">
@@ -6437,12 +6455,12 @@
       <c r="M83" t="s">
         <v>132</v>
       </c>
-      <c r="O83" s="33">
-        <f t="shared" si="10"/>
+      <c r="N83" s="33">
+        <f t="shared" si="11"/>
         <v>354.17819590481463</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>129</v>
       </c>
@@ -6453,7 +6471,7 @@
         <v>130</v>
       </c>
       <c r="D84" s="32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1.0185676145636977</v>
       </c>
       <c r="E84" s="32">
@@ -6483,12 +6501,12 @@
       <c r="M84" t="s">
         <v>132</v>
       </c>
-      <c r="O84" s="33">
-        <f t="shared" si="10"/>
+      <c r="N84" s="33">
+        <f t="shared" si="11"/>
         <v>354.17819590481463</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C85" t="s">
         <v>157</v>
       </c>
@@ -6509,7 +6527,7 @@
         <v>16.110528200000001</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C86" t="s">
         <v>158</v>
       </c>
@@ -6530,7 +6548,7 @@
         <v>15.9345705</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C87" t="s">
         <v>156</v>
       </c>
@@ -6551,7 +6569,7 @@
         <v>0.60775999999999897</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>129</v>
       </c>
@@ -6562,7 +6580,7 @@
         <v>130</v>
       </c>
       <c r="D89" s="32">
-        <f t="shared" ref="D89:D93" si="11">((E89/$E$12)+(F89/$F$12))/2</f>
+        <f t="shared" ref="D89:D93" si="12">((E89/$E$12)+(F89/$F$12))/2</f>
         <v>1.0299515187014243</v>
       </c>
       <c r="E89" s="32">
@@ -6590,7 +6608,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>129</v>
       </c>
@@ -6601,7 +6619,7 @@
         <v>130</v>
       </c>
       <c r="D90" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0480444526557289</v>
       </c>
       <c r="E90" s="32">
@@ -6629,7 +6647,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>129</v>
       </c>
@@ -6640,7 +6658,7 @@
         <v>130</v>
       </c>
       <c r="D91" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0742610484843793</v>
       </c>
       <c r="E91" s="32">
@@ -6668,7 +6686,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>129</v>
       </c>
@@ -6679,7 +6697,7 @@
         <v>130</v>
       </c>
       <c r="D92" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0634301730080329</v>
       </c>
       <c r="E92" s="32">
@@ -6707,7 +6725,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>129</v>
       </c>
@@ -6718,7 +6736,7 @@
         <v>130</v>
       </c>
       <c r="D93" s="32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.0239462464978506</v>
       </c>
       <c r="E93" s="32">
@@ -6746,32 +6764,32 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J94">
         <v>47</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J95">
         <v>48</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J96">
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J97">
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.35">
       <c r="J98">
         <v>51</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>129</v>
       </c>
@@ -6798,7 +6816,7 @@
         <v>17.522487399999999</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>129</v>
       </c>
@@ -6825,7 +6843,7 @@
         <v>17.538177000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>129</v>
       </c>
@@ -6852,7 +6870,7 @@
         <v>0.65737100000000126</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>129</v>
       </c>
@@ -6863,7 +6881,7 @@
         <v>130</v>
       </c>
       <c r="D103" s="32">
-        <f t="shared" ref="D103:D112" si="12">((E103/$E$12)+(F103/$F$12))/2</f>
+        <f t="shared" ref="D103:D112" si="13">((E103/$E$12)+(F103/$F$12))/2</f>
         <v>1.0320846631333809</v>
       </c>
       <c r="E103" s="32">
@@ -6890,12 +6908,12 @@
       <c r="L103">
         <v>100</v>
       </c>
-      <c r="O103" s="33">
-        <f t="shared" ref="O103:O112" si="13">(32*K103*L103)/B103</f>
+      <c r="N103" s="33">
+        <f t="shared" ref="N103:N112" si="14">(32*K103*L103)/B103</f>
         <v>885.44548976203657</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>129</v>
       </c>
@@ -6906,7 +6924,7 @@
         <v>130</v>
       </c>
       <c r="D104" s="32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0281047597307129</v>
       </c>
       <c r="E104" s="32">
@@ -6933,12 +6951,12 @@
       <c r="L104">
         <v>100</v>
       </c>
-      <c r="O104" s="33">
-        <f t="shared" si="13"/>
+      <c r="N104" s="33">
+        <f t="shared" si="14"/>
         <v>885.44548976203657</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>129</v>
       </c>
@@ -6949,7 +6967,7 @@
         <v>130</v>
       </c>
       <c r="D105" s="32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0365761271685832</v>
       </c>
       <c r="E105" s="32">
@@ -6976,12 +6994,12 @@
       <c r="L105">
         <v>100</v>
       </c>
-      <c r="O105" s="33">
-        <f t="shared" si="13"/>
+      <c r="N105" s="33">
+        <f t="shared" si="14"/>
         <v>885.44548976203657</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>129</v>
       </c>
@@ -6992,7 +7010,7 @@
         <v>130</v>
       </c>
       <c r="D106" s="32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0421778016746526</v>
       </c>
       <c r="E106" s="32">
@@ -7019,12 +7037,12 @@
       <c r="L106">
         <v>100</v>
       </c>
-      <c r="O106" s="33">
-        <f t="shared" si="13"/>
+      <c r="N106" s="33">
+        <f t="shared" si="14"/>
         <v>885.44548976203657</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>129</v>
       </c>
@@ -7035,7 +7053,7 @@
         <v>130</v>
       </c>
       <c r="D107" s="32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0282907957047862</v>
       </c>
       <c r="E107" s="32">
@@ -7062,12 +7080,12 @@
       <c r="L107">
         <v>100</v>
       </c>
-      <c r="O107" s="33">
-        <f t="shared" si="13"/>
+      <c r="N107" s="33">
+        <f t="shared" si="14"/>
         <v>885.44548976203657</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>129</v>
       </c>
@@ -7078,7 +7096,7 @@
         <v>130</v>
       </c>
       <c r="D108" s="32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0569748088423472</v>
       </c>
       <c r="E108" s="32">
@@ -7105,12 +7123,12 @@
       <c r="L108">
         <v>100</v>
       </c>
-      <c r="O108" s="33">
-        <f t="shared" si="13"/>
+      <c r="N108" s="33">
+        <f t="shared" si="14"/>
         <v>885.44548976203657</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>129</v>
       </c>
@@ -7121,7 +7139,7 @@
         <v>130</v>
       </c>
       <c r="D109" s="32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0216414598348147</v>
       </c>
       <c r="E109" s="32">
@@ -7148,12 +7166,12 @@
       <c r="L109">
         <v>100</v>
       </c>
-      <c r="O109" s="33">
-        <f t="shared" si="13"/>
+      <c r="N109" s="33">
+        <f t="shared" si="14"/>
         <v>885.44548976203657</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>129</v>
       </c>
@@ -7164,7 +7182,7 @@
         <v>130</v>
       </c>
       <c r="D110" s="32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.009030348058038</v>
       </c>
       <c r="E110" s="32">
@@ -7191,12 +7209,12 @@
       <c r="L110">
         <v>100</v>
       </c>
-      <c r="O110" s="33">
-        <f t="shared" si="13"/>
+      <c r="N110" s="33">
+        <f t="shared" si="14"/>
         <v>885.44548976203657</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>129</v>
       </c>
@@ -7207,7 +7225,7 @@
         <v>130</v>
       </c>
       <c r="D111" s="32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0447002775551297</v>
       </c>
       <c r="E111" s="32">
@@ -7234,12 +7252,12 @@
       <c r="L111">
         <v>100</v>
       </c>
-      <c r="O111" s="33">
-        <f t="shared" si="13"/>
+      <c r="N111" s="33">
+        <f t="shared" si="14"/>
         <v>885.44548976203657</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>129</v>
       </c>
@@ -7250,7 +7268,7 @@
         <v>130</v>
       </c>
       <c r="D112" s="32">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.0409869956289519</v>
       </c>
       <c r="E112" s="32">
@@ -7277,8 +7295,8 @@
       <c r="L112">
         <v>100</v>
       </c>
-      <c r="O112" s="33">
-        <f t="shared" si="13"/>
+      <c r="N112" s="33">
+        <f t="shared" si="14"/>
         <v>885.44548976203657</v>
       </c>
     </row>
@@ -7347,7 +7365,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A18:O18"/>
+    <mergeCell ref="A18:N18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -16236,7 +16254,7 @@
         <v>132</v>
       </c>
       <c r="N19" s="33">
-        <f>(32*L19*K19)/B19</f>
+        <f t="shared" ref="N19:N28" si="3">(32*L19*K19)/B19</f>
         <v>38.778477944740672</v>
       </c>
     </row>
@@ -16282,7 +16300,7 @@
         <v>132</v>
       </c>
       <c r="N20" s="33">
-        <f>(32*L20*K20)/B20</f>
+        <f t="shared" si="3"/>
         <v>38.778477944740672</v>
       </c>
     </row>
@@ -16328,7 +16346,7 @@
         <v>132</v>
       </c>
       <c r="N21" s="33">
-        <f>(32*L21*K21)/B21</f>
+        <f t="shared" si="3"/>
         <v>38.778477944740672</v>
       </c>
     </row>
@@ -16374,7 +16392,7 @@
         <v>132</v>
       </c>
       <c r="N22" s="33">
-        <f>(32*L22*K22)/B22</f>
+        <f t="shared" si="3"/>
         <v>38.778477944740672</v>
       </c>
     </row>
@@ -16420,7 +16438,7 @@
         <v>132</v>
       </c>
       <c r="N23" s="33">
-        <f>(32*L23*K23)/B23</f>
+        <f t="shared" si="3"/>
         <v>38.778477944740672</v>
       </c>
     </row>
@@ -16466,7 +16484,7 @@
         <v>132</v>
       </c>
       <c r="N24" s="33">
-        <f>(32*L24*K24)/B24</f>
+        <f t="shared" si="3"/>
         <v>38.778477944740672</v>
       </c>
     </row>
@@ -16512,7 +16530,7 @@
         <v>132</v>
       </c>
       <c r="N25" s="33">
-        <f>(32*L25*K25)/B25</f>
+        <f t="shared" si="3"/>
         <v>38.778477944740672</v>
       </c>
     </row>
@@ -16558,7 +16576,7 @@
         <v>132</v>
       </c>
       <c r="N26" s="33">
-        <f>(32*L26*K26)/B26</f>
+        <f t="shared" si="3"/>
         <v>38.778477944740672</v>
       </c>
     </row>
@@ -16604,7 +16622,7 @@
         <v>132</v>
       </c>
       <c r="N27" s="33">
-        <f>(32*L27*K27)/B27</f>
+        <f t="shared" si="3"/>
         <v>38.778477944740672</v>
       </c>
     </row>
@@ -16650,7 +16668,7 @@
         <v>132</v>
       </c>
       <c r="N28" s="33">
-        <f>(32*L28*K28)/B28</f>
+        <f t="shared" si="3"/>
         <v>38.778477944740672</v>
       </c>
     </row>
@@ -16728,7 +16746,7 @@
         <v>130</v>
       </c>
       <c r="D33" s="32">
-        <f t="shared" ref="D33:D42" si="3">((E33/$E$5)+(F33/$F$5))/2</f>
+        <f t="shared" ref="D33:D42" si="4">((E33/$E$5)+(F33/$F$5))/2</f>
         <v>0.90879795171912459</v>
       </c>
       <c r="E33" s="32">
@@ -16759,7 +16777,7 @@
         <v>132</v>
       </c>
       <c r="N33" s="33">
-        <f>(32*L33*K33)/B33</f>
+        <f t="shared" ref="N33:N42" si="5">(32*L33*K33)/B33</f>
         <v>155.11391177896269</v>
       </c>
     </row>
@@ -16774,7 +16792,7 @@
         <v>130</v>
       </c>
       <c r="D34" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.89775908973971918</v>
       </c>
       <c r="E34" s="32">
@@ -16805,7 +16823,7 @@
         <v>132</v>
       </c>
       <c r="N34" s="33">
-        <f>(32*L34*K34)/B34</f>
+        <f t="shared" si="5"/>
         <v>155.11391177896269</v>
       </c>
     </row>
@@ -16820,7 +16838,7 @@
         <v>130</v>
       </c>
       <c r="D35" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.90137712787808155</v>
       </c>
       <c r="E35" s="32">
@@ -16851,7 +16869,7 @@
         <v>132</v>
       </c>
       <c r="N35" s="33">
-        <f>(32*L35*K35)/B35</f>
+        <f t="shared" si="5"/>
         <v>155.11391177896269</v>
       </c>
     </row>
@@ -16866,7 +16884,7 @@
         <v>130</v>
       </c>
       <c r="D36" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.89189932850970033</v>
       </c>
       <c r="E36" s="32">
@@ -16897,7 +16915,7 @@
         <v>132</v>
       </c>
       <c r="N36" s="33">
-        <f>(32*L36*K36)/B36</f>
+        <f t="shared" si="5"/>
         <v>155.11391177896269</v>
       </c>
     </row>
@@ -16912,7 +16930,7 @@
         <v>130</v>
       </c>
       <c r="D37" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8717804534596536</v>
       </c>
       <c r="E37" s="32">
@@ -16943,7 +16961,7 @@
         <v>132</v>
       </c>
       <c r="N37" s="33">
-        <f>(32*L37*K37)/B37</f>
+        <f t="shared" si="5"/>
         <v>155.11391177896269</v>
       </c>
     </row>
@@ -16958,7 +16976,7 @@
         <v>130</v>
       </c>
       <c r="D38" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.89693682810336206</v>
       </c>
       <c r="E38" s="32">
@@ -16989,7 +17007,7 @@
         <v>132</v>
       </c>
       <c r="N38" s="33">
-        <f>(32*L38*K38)/B38</f>
+        <f t="shared" si="5"/>
         <v>155.11391177896269</v>
       </c>
     </row>
@@ -17004,7 +17022,7 @@
         <v>130</v>
       </c>
       <c r="D39" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.89288401304639453</v>
       </c>
       <c r="E39" s="32">
@@ -17035,7 +17053,7 @@
         <v>132</v>
       </c>
       <c r="N39" s="33">
-        <f>(32*L39*K39)/B39</f>
+        <f t="shared" si="5"/>
         <v>155.11391177896269</v>
       </c>
     </row>
@@ -17050,7 +17068,7 @@
         <v>130</v>
       </c>
       <c r="D40" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.90032731433228608</v>
       </c>
       <c r="E40" s="32">
@@ -17081,7 +17099,7 @@
         <v>132</v>
       </c>
       <c r="N40" s="33">
-        <f>(32*L40*K40)/B40</f>
+        <f t="shared" si="5"/>
         <v>155.11391177896269</v>
       </c>
     </row>
@@ -17096,7 +17114,7 @@
         <v>130</v>
       </c>
       <c r="D41" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.92930032710743748</v>
       </c>
       <c r="E41" s="32">
@@ -17127,7 +17145,7 @@
         <v>132</v>
       </c>
       <c r="N41" s="33">
-        <f>(32*L41*K41)/B41</f>
+        <f t="shared" si="5"/>
         <v>155.11391177896269</v>
       </c>
     </row>
@@ -17142,7 +17160,7 @@
         <v>130</v>
       </c>
       <c r="D42" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.89703340674634013</v>
       </c>
       <c r="E42" s="32">
@@ -17173,7 +17191,7 @@
         <v>132</v>
       </c>
       <c r="N42" s="33">
-        <f>(32*L42*K42)/B42</f>
+        <f t="shared" si="5"/>
         <v>155.11391177896269</v>
       </c>
     </row>
@@ -17251,7 +17269,7 @@
         <v>130</v>
       </c>
       <c r="D47" s="32">
-        <f t="shared" ref="D47:D51" si="4">((E47/$E$5)+(F47/$F$5))/2</f>
+        <f t="shared" ref="D47:D51" si="6">((E47/$E$5)+(F47/$F$5))/2</f>
         <v>0.87932298233858586</v>
       </c>
       <c r="E47" s="32">
@@ -17297,7 +17315,7 @@
         <v>130</v>
       </c>
       <c r="D48" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.88691342038676457</v>
       </c>
       <c r="E48" s="32">
@@ -17343,7 +17361,7 @@
         <v>130</v>
       </c>
       <c r="D49" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.89031543009424507</v>
       </c>
       <c r="E49" s="32">
@@ -17389,7 +17407,7 @@
         <v>130</v>
       </c>
       <c r="D50" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.88459849191851925</v>
       </c>
       <c r="E50" s="32">
@@ -17435,7 +17453,7 @@
         <v>130</v>
       </c>
       <c r="D51" s="32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0.88383692829772853</v>
       </c>
       <c r="E51" s="32">
@@ -18408,7 +18426,7 @@
         <v>132</v>
       </c>
       <c r="N19" s="33">
-        <f>(32*L19*K19)/B19</f>
+        <f t="shared" ref="N19:N28" si="3">(32*L19*K19)/B19</f>
         <v>45.766590389016017</v>
       </c>
     </row>
@@ -18454,7 +18472,7 @@
         <v>132</v>
       </c>
       <c r="N20" s="33">
-        <f>(32*L20*K20)/B20</f>
+        <f t="shared" si="3"/>
         <v>45.766590389016017</v>
       </c>
     </row>
@@ -18500,7 +18518,7 @@
         <v>132</v>
       </c>
       <c r="N21" s="33">
-        <f>(32*L21*K21)/B21</f>
+        <f t="shared" si="3"/>
         <v>45.766590389016017</v>
       </c>
     </row>
@@ -18546,7 +18564,7 @@
         <v>132</v>
       </c>
       <c r="N22" s="33">
-        <f>(32*L22*K22)/B22</f>
+        <f t="shared" si="3"/>
         <v>45.766590389016017</v>
       </c>
     </row>
@@ -18592,7 +18610,7 @@
         <v>132</v>
       </c>
       <c r="N23" s="33">
-        <f>(32*L23*K23)/B23</f>
+        <f t="shared" si="3"/>
         <v>45.766590389016017</v>
       </c>
     </row>
@@ -18638,7 +18656,7 @@
         <v>132</v>
       </c>
       <c r="N24" s="33">
-        <f>(32*L24*K24)/B24</f>
+        <f t="shared" si="3"/>
         <v>45.766590389016017</v>
       </c>
     </row>
@@ -18684,7 +18702,7 @@
         <v>132</v>
       </c>
       <c r="N25" s="33">
-        <f>(32*L25*K25)/B25</f>
+        <f t="shared" si="3"/>
         <v>45.766590389016017</v>
       </c>
     </row>
@@ -18730,7 +18748,7 @@
         <v>132</v>
       </c>
       <c r="N26" s="33">
-        <f>(32*L26*K26)/B26</f>
+        <f t="shared" si="3"/>
         <v>45.766590389016017</v>
       </c>
     </row>
@@ -18776,7 +18794,7 @@
         <v>132</v>
       </c>
       <c r="N27" s="33">
-        <f>(32*L27*K27)/B27</f>
+        <f t="shared" si="3"/>
         <v>45.766590389016017</v>
       </c>
     </row>
@@ -18822,7 +18840,7 @@
         <v>132</v>
       </c>
       <c r="N28" s="33">
-        <f>(32*L28*K28)/B28</f>
+        <f t="shared" si="3"/>
         <v>45.766590389016017</v>
       </c>
     </row>
@@ -18914,7 +18932,7 @@
         <v>135</v>
       </c>
       <c r="D33" s="32">
-        <f t="shared" ref="D33:D42" si="3">((E33/$E$5)+(F33/$F$5))/2</f>
+        <f t="shared" ref="D33:D42" si="4">((E33/$E$5)+(F33/$F$5))/2</f>
         <v>0.74595067553502248</v>
       </c>
       <c r="E33" s="32">
@@ -18945,7 +18963,7 @@
         <v>132</v>
       </c>
       <c r="N33" s="33">
-        <f>(32*L33*K33)/B33</f>
+        <f t="shared" ref="N33:N42" si="5">(32*L33*K33)/B33</f>
         <v>183.06636155606407</v>
       </c>
     </row>
@@ -18960,7 +18978,7 @@
         <v>135</v>
       </c>
       <c r="D34" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.75101398115490015</v>
       </c>
       <c r="E34" s="32">
@@ -18991,7 +19009,7 @@
         <v>132</v>
       </c>
       <c r="N34" s="33">
-        <f>(32*L34*K34)/B34</f>
+        <f t="shared" si="5"/>
         <v>183.06636155606407</v>
       </c>
     </row>
@@ -19006,7 +19024,7 @@
         <v>135</v>
       </c>
       <c r="D35" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.74726900084909553</v>
       </c>
       <c r="E35" s="32">
@@ -19037,7 +19055,7 @@
         <v>132</v>
       </c>
       <c r="N35" s="33">
-        <f>(32*L35*K35)/B35</f>
+        <f t="shared" si="5"/>
         <v>183.06636155606407</v>
       </c>
     </row>
@@ -19052,7 +19070,7 @@
         <v>135</v>
       </c>
       <c r="D36" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.77115634852308368</v>
       </c>
       <c r="E36" s="32">
@@ -19083,7 +19101,7 @@
         <v>132</v>
       </c>
       <c r="N36" s="33">
-        <f>(32*L36*K36)/B36</f>
+        <f t="shared" si="5"/>
         <v>183.06636155606407</v>
       </c>
     </row>
@@ -19098,7 +19116,7 @@
         <v>135</v>
       </c>
       <c r="D37" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.66091311070450987</v>
       </c>
       <c r="E37" s="32">
@@ -19129,7 +19147,7 @@
         <v>132</v>
       </c>
       <c r="N37" s="33">
-        <f>(32*L37*K37)/B37</f>
+        <f t="shared" si="5"/>
         <v>183.06636155606407</v>
       </c>
     </row>
@@ -19144,7 +19162,7 @@
         <v>135</v>
       </c>
       <c r="D38" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.68238945078782509</v>
       </c>
       <c r="E38" s="32">
@@ -19175,7 +19193,7 @@
         <v>132</v>
       </c>
       <c r="N38" s="33">
-        <f>(32*L38*K38)/B38</f>
+        <f t="shared" si="5"/>
         <v>183.06636155606407</v>
       </c>
     </row>
@@ -19190,7 +19208,7 @@
         <v>135</v>
       </c>
       <c r="D39" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.68280962415206503</v>
       </c>
       <c r="E39" s="32">
@@ -19221,7 +19239,7 @@
         <v>132</v>
       </c>
       <c r="N39" s="33">
-        <f>(32*L39*K39)/B39</f>
+        <f t="shared" si="5"/>
         <v>183.06636155606407</v>
       </c>
     </row>
@@ -19236,7 +19254,7 @@
         <v>135</v>
       </c>
       <c r="D40" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.68237407265260752</v>
       </c>
       <c r="E40" s="32">
@@ -19267,7 +19285,7 @@
         <v>132</v>
       </c>
       <c r="N40" s="33">
-        <f>(32*L40*K40)/B40</f>
+        <f t="shared" si="5"/>
         <v>183.06636155606407</v>
       </c>
     </row>
@@ -19282,7 +19300,7 @@
         <v>135</v>
       </c>
       <c r="D41" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.70879453126798819</v>
       </c>
       <c r="E41" s="32">
@@ -19313,7 +19331,7 @@
         <v>132</v>
       </c>
       <c r="N41" s="33">
-        <f>(32*L41*K41)/B41</f>
+        <f t="shared" si="5"/>
         <v>183.06636155606407</v>
       </c>
     </row>
@@ -19328,7 +19346,7 @@
         <v>135</v>
       </c>
       <c r="D42" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.67400665173741081</v>
       </c>
       <c r="E42" s="32">
@@ -19359,7 +19377,7 @@
         <v>132</v>
       </c>
       <c r="N42" s="33">
-        <f>(32*L42*K42)/B42</f>
+        <f t="shared" si="5"/>
         <v>183.06636155606407</v>
       </c>
     </row>
@@ -19478,7 +19496,7 @@
         <v>132</v>
       </c>
       <c r="N47" s="33">
-        <f>(32*L47*K47)/B47</f>
+        <f t="shared" ref="N47:N53" si="6">(32*L47*K47)/B47</f>
         <v>732.26544622425627</v>
       </c>
     </row>
@@ -19520,7 +19538,7 @@
         <v>132</v>
       </c>
       <c r="N48" s="33">
-        <f>(32*L48*K48)/B48</f>
+        <f t="shared" si="6"/>
         <v>732.26544622425627</v>
       </c>
     </row>
@@ -19562,7 +19580,7 @@
         <v>132</v>
       </c>
       <c r="N49" s="33">
-        <f>(32*L49*K49)/B49</f>
+        <f t="shared" si="6"/>
         <v>732.26544622425627</v>
       </c>
     </row>
@@ -19604,7 +19622,7 @@
         <v>132</v>
       </c>
       <c r="N50" s="33">
-        <f>(32*L50*K50)/B50</f>
+        <f t="shared" si="6"/>
         <v>732.26544622425627</v>
       </c>
     </row>
@@ -19646,7 +19664,7 @@
         <v>132</v>
       </c>
       <c r="N51" s="33">
-        <f>(32*L51*K51)/B51</f>
+        <f t="shared" si="6"/>
         <v>732.26544622425627</v>
       </c>
     </row>
@@ -19688,7 +19706,7 @@
         <v>132</v>
       </c>
       <c r="N52" s="33">
-        <f>(32*L52*K52)/B52</f>
+        <f t="shared" si="6"/>
         <v>732.26544622425627</v>
       </c>
     </row>
@@ -19730,7 +19748,7 @@
         <v>132</v>
       </c>
       <c r="N53" s="33">
-        <f>(32*L53*K53)/B53</f>
+        <f t="shared" si="6"/>
         <v>732.26544622425627</v>
       </c>
     </row>
